--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X52"/>
+  <dimension ref="A1:X53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4999,17 +4999,17 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>124.73000000</t>
+          <t>121.10000000</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>125.71000000</t>
+          <t>122.32000000</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>672718.02350000</t>
+          <t>1055699.86532000</t>
         </is>
       </c>
       <c r="G52" t="n">
@@ -5017,20 +5017,20 @@
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>88196344.33155910</t>
+          <t>135927941.07951970</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>208277</v>
+        <v>337273</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>336631.32916000</t>
+          <t>533153.20327000</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>44140529.47111970</t>
+          <t>68650481.21682690</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
@@ -5039,40 +5039,132 @@
         </is>
       </c>
       <c r="M52" t="n">
-        <v>125.7099999999998</v>
+        <v>122.3199999999998</v>
       </c>
       <c r="N52" t="n">
-        <v>129.185</v>
+        <v>127.49</v>
       </c>
       <c r="O52" t="n">
-        <v>124.7071428571428</v>
+        <v>124.2228571428571</v>
       </c>
       <c r="P52" t="n">
-        <v>143.9133333333334</v>
+        <v>143.6873333333334</v>
       </c>
       <c r="Q52" t="n">
-        <v>190.3690000000001</v>
+        <v>190.2560000000001</v>
       </c>
       <c r="R52" t="n">
-        <v>125.71</v>
+        <v>122.32</v>
       </c>
       <c r="S52" t="n">
-        <v>127.9875256313831</v>
+        <v>125.7275256313831</v>
       </c>
       <c r="T52" t="n">
-        <v>140.4892189972215</v>
+        <v>139.9675764744513</v>
       </c>
       <c r="U52" t="n">
-        <v>167.6307327017282</v>
+        <v>167.3745643461184</v>
       </c>
       <c r="V52" t="n">
-        <v>-27.14151370450665</v>
+        <v>-27.40698787166707</v>
       </c>
       <c r="W52" t="n">
-        <v>-26.40104066885962</v>
+        <v>-26.45413610853446</v>
       </c>
       <c r="X52" t="n">
-        <v>-0.7404730356470282</v>
+        <v>-0.9528517631326139</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>122.31000000</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>134.65000000</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>119.50000000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>131.00000000</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>634364.66808000</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>1585007999999</v>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>79323264.16570750</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>180805</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>328366.28185000</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>41115552.83569760</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>2020-03-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M53" t="n">
+        <v>130.9999999999998</v>
+      </c>
+      <c r="N53" t="n">
+        <v>126.66</v>
+      </c>
+      <c r="O53" t="n">
+        <v>127.0771428571428</v>
+      </c>
+      <c r="P53" t="n">
+        <v>139.1253333333334</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>185.9036666666667</v>
+      </c>
+      <c r="R53" t="n">
+        <v>131</v>
+      </c>
+      <c r="S53" t="n">
+        <v>129.2425085437944</v>
+      </c>
+      <c r="T53" t="n">
+        <v>138.5877164079826</v>
+      </c>
+      <c r="U53" t="n">
+        <v>164.629982542773</v>
+      </c>
+      <c r="V53" t="n">
+        <v>-26.04226613479042</v>
+      </c>
+      <c r="W53" t="n">
+        <v>-26.37176136134297</v>
+      </c>
+      <c r="X53" t="n">
+        <v>0.3294952265525488</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -5096,12 +5096,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>131.00000000</t>
+          <t>132.81000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>634364.66808000</t>
+          <t>722431.00564000</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5109,20 +5109,20 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>79323264.16570750</t>
+          <t>90913639.86164160</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>180805</v>
+        <v>203945</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>328366.28185000</t>
+          <t>376108.36843000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>41115552.83569760</t>
+          <t>47396735.47413880</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5131,40 +5131,40 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>130.9999999999998</v>
+        <v>132.8099999999998</v>
       </c>
       <c r="N53" t="n">
-        <v>126.66</v>
+        <v>127.565</v>
       </c>
       <c r="O53" t="n">
-        <v>127.0771428571428</v>
+        <v>127.3357142857143</v>
       </c>
       <c r="P53" t="n">
-        <v>139.1253333333334</v>
+        <v>139.2460000000001</v>
       </c>
       <c r="Q53" t="n">
-        <v>185.9036666666667</v>
+        <v>185.9640000000001</v>
       </c>
       <c r="R53" t="n">
-        <v>131</v>
+        <v>132.81</v>
       </c>
       <c r="S53" t="n">
-        <v>129.2425085437944</v>
+        <v>130.449175210461</v>
       </c>
       <c r="T53" t="n">
-        <v>138.5877164079826</v>
+        <v>138.8662249579151</v>
       </c>
       <c r="U53" t="n">
-        <v>164.629982542773</v>
+        <v>164.7665530599285</v>
       </c>
       <c r="V53" t="n">
-        <v>-26.04226613479042</v>
+        <v>-25.90032810201339</v>
       </c>
       <c r="W53" t="n">
-        <v>-26.37176136134297</v>
+        <v>-26.34337349548186</v>
       </c>
       <c r="X53" t="n">
-        <v>0.3294952265525488</v>
+        <v>0.4430453934684735</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X53"/>
+  <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5086,7 +5086,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>134.65000000</t>
+          <t>137.50000000</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -5096,12 +5096,12 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>132.81000000</t>
+          <t>135.92000000</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>722431.00564000</t>
+          <t>1436796.12449000</t>
         </is>
       </c>
       <c r="G53" t="n">
@@ -5109,20 +5109,20 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>90913639.86164160</t>
+          <t>184851609.12426900</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>203945</v>
+        <v>416820</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>376108.36843000</t>
+          <t>738648.10253000</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>47396735.47413880</t>
+          <t>95088118.66894010</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
@@ -5131,40 +5131,500 @@
         </is>
       </c>
       <c r="M53" t="n">
-        <v>132.8099999999998</v>
+        <v>135.9199999999998</v>
       </c>
       <c r="N53" t="n">
-        <v>127.565</v>
+        <v>129.12</v>
       </c>
       <c r="O53" t="n">
-        <v>127.3357142857143</v>
+        <v>127.78</v>
       </c>
       <c r="P53" t="n">
-        <v>139.2460000000001</v>
+        <v>139.4533333333334</v>
       </c>
       <c r="Q53" t="n">
-        <v>185.9640000000001</v>
+        <v>186.0676666666668</v>
       </c>
       <c r="R53" t="n">
-        <v>132.81</v>
+        <v>135.92</v>
       </c>
       <c r="S53" t="n">
-        <v>130.449175210461</v>
+        <v>132.5225085437944</v>
       </c>
       <c r="T53" t="n">
-        <v>138.8662249579151</v>
+        <v>139.3447672729925</v>
       </c>
       <c r="U53" t="n">
-        <v>164.7665530599285</v>
+        <v>165.0012128987979</v>
       </c>
       <c r="V53" t="n">
-        <v>-25.90032810201339</v>
+        <v>-25.65644562580536</v>
       </c>
       <c r="W53" t="n">
-        <v>-26.34337349548186</v>
+        <v>-26.29459655469289</v>
       </c>
       <c r="X53" t="n">
-        <v>0.4430453934684735</v>
+        <v>0.6381509288875336</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>135.89000000</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>143.36000000</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>132.20000000</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>138.42000000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1244377.16334000</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>1585094399999</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>171156363.69230240</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>381573</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>627879.32436000</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>86383070.30653970</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>2020-03-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M54" t="n">
+        <v>138.4199999999998</v>
+      </c>
+      <c r="N54" t="n">
+        <v>137.17</v>
+      </c>
+      <c r="O54" t="n">
+        <v>131.03</v>
+      </c>
+      <c r="P54" t="n">
+        <v>135.1606666666667</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>181.5323333333334</v>
+      </c>
+      <c r="R54" t="n">
+        <v>138.42</v>
+      </c>
+      <c r="S54" t="n">
+        <v>136.4541695145981</v>
+      </c>
+      <c r="T54" t="n">
+        <v>139.2024750614677</v>
+      </c>
+      <c r="U54" t="n">
+        <v>162.9983344898133</v>
+      </c>
+      <c r="V54" t="n">
+        <v>-23.79585942834564</v>
+      </c>
+      <c r="W54" t="n">
+        <v>-25.79484547748836</v>
+      </c>
+      <c r="X54" t="n">
+        <v>1.998986049142719</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>138.42000000</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>142.33000000</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>132.54000000</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>136.10000000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1034248.74369000</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>1585180799999</v>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>141795323.02687100</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>317580</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>512056.56415000</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>70208229.99513950</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>2020-03-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M55" t="n">
+        <v>136.0999999999998</v>
+      </c>
+      <c r="N55" t="n">
+        <v>137.26</v>
+      </c>
+      <c r="O55" t="n">
+        <v>133.6</v>
+      </c>
+      <c r="P55" t="n">
+        <v>130.8540000000001</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>177.2183333333334</v>
+      </c>
+      <c r="R55" t="n">
+        <v>136.1</v>
+      </c>
+      <c r="S55" t="n">
+        <v>136.218056504866</v>
+      </c>
+      <c r="T55" t="n">
+        <v>138.7251135144137</v>
+      </c>
+      <c r="U55" t="n">
+        <v>160.9741426613394</v>
+      </c>
+      <c r="V55" t="n">
+        <v>-22.24902914692575</v>
+      </c>
+      <c r="W55" t="n">
+        <v>-25.0856780655785</v>
+      </c>
+      <c r="X55" t="n">
+        <v>2.836648918652752</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>136.11000000</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>139.74000000</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>133.26000000</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>138.40000000</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>751060.63102000</t>
+        </is>
+      </c>
+      <c r="G56" t="n">
+        <v>1585267199999</v>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>101918769.67229330</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>248508</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>380709.15691000</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>51679665.33863590</t>
+        </is>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>2020-03-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M56" t="n">
+        <v>138.3999999999998</v>
+      </c>
+      <c r="N56" t="n">
+        <v>137.25</v>
+      </c>
+      <c r="O56" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>127.1066666666667</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>173.6093333333334</v>
+      </c>
+      <c r="R56" t="n">
+        <v>138.4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>137.672685501622</v>
+      </c>
+      <c r="T56" t="n">
+        <v>138.6750909352602</v>
+      </c>
+      <c r="U56" t="n">
+        <v>159.2773621849518</v>
+      </c>
+      <c r="V56" t="n">
+        <v>-20.6022712496916</v>
+      </c>
+      <c r="W56" t="n">
+        <v>-24.18899250877741</v>
+      </c>
+      <c r="X56" t="n">
+        <v>3.586721259085813</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>138.40000000</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>141.27000000</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>129.68000000</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>131.33000000</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>706948.54559000</t>
+        </is>
+      </c>
+      <c r="G57" t="n">
+        <v>1585353599999</v>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>96581886.87894690</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>224835</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>340830.61973000</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>46615645.76174940</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>2020-03-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M57" t="n">
+        <v>131.3299999999998</v>
+      </c>
+      <c r="N57" t="n">
+        <v>134.865</v>
+      </c>
+      <c r="O57" t="n">
+        <v>133.5928571428571</v>
+      </c>
+      <c r="P57" t="n">
+        <v>128.6740000000001</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>170.5226666666667</v>
+      </c>
+      <c r="R57" t="n">
+        <v>131.33</v>
+      </c>
+      <c r="S57" t="n">
+        <v>133.4442285005407</v>
+      </c>
+      <c r="T57" t="n">
+        <v>137.5449791575631</v>
+      </c>
+      <c r="U57" t="n">
+        <v>157.1789935469017</v>
+      </c>
+      <c r="V57" t="n">
+        <v>-19.63401438933857</v>
+      </c>
+      <c r="W57" t="n">
+        <v>-23.2779934764376</v>
+      </c>
+      <c r="X57" t="n">
+        <v>3.64397908709903</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>131.33000000</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>131.33000000</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>124.88000000</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>128.83000000</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>394535.23547000</t>
+        </is>
+      </c>
+      <c r="G58" t="n">
+        <v>1585439999999</v>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>50544356.20559320</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>117142</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>188107.34437000</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>24102999.27319050</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>2020-03-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M58" t="n">
+        <v>128.8299999999998</v>
+      </c>
+      <c r="N58" t="n">
+        <v>130.08</v>
+      </c>
+      <c r="O58" t="n">
+        <v>133.0457142857143</v>
+      </c>
+      <c r="P58" t="n">
+        <v>128.3253333333334</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>167.2240000000001</v>
+      </c>
+      <c r="R58" t="n">
+        <v>128.83</v>
+      </c>
+      <c r="S58" t="n">
+        <v>130.3680761668469</v>
+      </c>
+      <c r="T58" t="n">
+        <v>136.2041149592591</v>
+      </c>
+      <c r="U58" t="n">
+        <v>155.0526143855422</v>
+      </c>
+      <c r="V58" t="n">
+        <v>-18.84849942628315</v>
+      </c>
+      <c r="W58" t="n">
+        <v>-22.39209201476601</v>
+      </c>
+      <c r="X58" t="n">
+        <v>3.543592588482859</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X58"/>
+  <dimension ref="A1:X61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5546,7 +5546,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>131.33000000</t>
+          <t>132.97000000</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -5556,12 +5556,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>128.83000000</t>
+          <t>130.98000000</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>394535.23547000</t>
+          <t>896032.10594000</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5569,20 +5569,20 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>50544356.20559320</t>
+          <t>115166651.97007420</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>117142</v>
+        <v>274768</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>188107.34437000</t>
+          <t>441256.50002000</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>24102999.27319050</t>
+          <t>56744425.26570820</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
@@ -5591,40 +5591,316 @@
         </is>
       </c>
       <c r="M58" t="n">
-        <v>128.8299999999998</v>
+        <v>130.9799999999998</v>
       </c>
       <c r="N58" t="n">
-        <v>130.08</v>
+        <v>131.155</v>
       </c>
       <c r="O58" t="n">
-        <v>133.0457142857143</v>
+        <v>133.3528571428571</v>
       </c>
       <c r="P58" t="n">
-        <v>128.3253333333334</v>
+        <v>128.4686666666667</v>
       </c>
       <c r="Q58" t="n">
-        <v>167.2240000000001</v>
+        <v>167.2956666666667</v>
       </c>
       <c r="R58" t="n">
-        <v>128.83</v>
+        <v>130.98</v>
       </c>
       <c r="S58" t="n">
-        <v>130.3680761668469</v>
+        <v>131.8014095001802</v>
       </c>
       <c r="T58" t="n">
-        <v>136.2041149592591</v>
+        <v>136.5349084097347</v>
       </c>
       <c r="U58" t="n">
-        <v>155.0526143855422</v>
+        <v>155.2138799059339</v>
       </c>
       <c r="V58" t="n">
-        <v>-18.84849942628315</v>
+        <v>-18.67897149619921</v>
       </c>
       <c r="W58" t="n">
-        <v>-22.39209201476601</v>
+        <v>-22.35818632726424</v>
       </c>
       <c r="X58" t="n">
-        <v>3.543592588482859</v>
+        <v>3.679214831065025</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>130.94000000</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>131.84000000</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>123.81000000</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>124.50000000</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>543997.00000000</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>1585526399999</v>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>69434202.20547170</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>182914</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>248597.98141000</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>31762471.02345850</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>2020-03-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M59" t="n">
+        <v>124.4999999999998</v>
+      </c>
+      <c r="N59" t="n">
+        <v>127.74</v>
+      </c>
+      <c r="O59" t="n">
+        <v>133.6642857142857</v>
+      </c>
+      <c r="P59" t="n">
+        <v>128.5993333333334</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>163.8870000000001</v>
+      </c>
+      <c r="R59" t="n">
+        <v>124.5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>126.9338031667267</v>
+      </c>
+      <c r="T59" t="n">
+        <v>134.6832693246837</v>
+      </c>
+      <c r="U59" t="n">
+        <v>152.9122649358766</v>
+      </c>
+      <c r="V59" t="n">
+        <v>-18.22899561119291</v>
+      </c>
+      <c r="W59" t="n">
+        <v>-21.53234620655575</v>
+      </c>
+      <c r="X59" t="n">
+        <v>3.303350595362833</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>124.47000000</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>135.42000000</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>124.06000000</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>132.06000000</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>764831.92747000</t>
+        </is>
+      </c>
+      <c r="G60" t="n">
+        <v>1585612799999</v>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>100271145.86256300</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>241576</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>392536.46962000</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>51471681.57962200</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>2020-03-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M60" t="n">
+        <v>132.0599999999998</v>
+      </c>
+      <c r="N60" t="n">
+        <v>128.28</v>
+      </c>
+      <c r="O60" t="n">
+        <v>133.1128571428571</v>
+      </c>
+      <c r="P60" t="n">
+        <v>129.1513333333334</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>161.0486666666667</v>
+      </c>
+      <c r="R60" t="n">
+        <v>132.06</v>
+      </c>
+      <c r="S60" t="n">
+        <v>130.3512677222422</v>
+      </c>
+      <c r="T60" t="n">
+        <v>134.2796682711477</v>
+      </c>
+      <c r="U60" t="n">
+        <v>151.351000391676</v>
+      </c>
+      <c r="V60" t="n">
+        <v>-17.07133212052824</v>
+      </c>
+      <c r="W60" t="n">
+        <v>-20.64014168022592</v>
+      </c>
+      <c r="X60" t="n">
+        <v>3.568809559697684</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>132.09000000</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>134.10000000</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>130.89000000</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>131.71000000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>126081.98988000</t>
+        </is>
+      </c>
+      <c r="G61" t="n">
+        <v>1585699199999</v>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>16714214.12817320</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>39206</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>59257.37629000</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>7855563.84728210</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>2020-03-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M61" t="n">
+        <v>131.7099999999999</v>
+      </c>
+      <c r="N61" t="n">
+        <v>131.885</v>
+      </c>
+      <c r="O61" t="n">
+        <v>132.1542857142857</v>
+      </c>
+      <c r="P61" t="n">
+        <v>130.5306666666667</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>158.1786666666667</v>
+      </c>
+      <c r="R61" t="n">
+        <v>131.71</v>
+      </c>
+      <c r="S61" t="n">
+        <v>131.2570892407474</v>
+      </c>
+      <c r="T61" t="n">
+        <v>133.8843171544703</v>
+      </c>
+      <c r="U61" t="n">
+        <v>149.881599888608</v>
+      </c>
+      <c r="V61" t="n">
+        <v>-15.99728273413774</v>
+      </c>
+      <c r="W61" t="n">
+        <v>-19.71156846797398</v>
+      </c>
+      <c r="X61" t="n">
+        <v>3.714285733836235</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X61"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5822,22 +5822,22 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>134.10000000</t>
+          <t>135.00000000</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>130.89000000</t>
+          <t>130.38000000</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>131.71000000</t>
+          <t>132.72000000</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>126081.98988000</t>
+          <t>547669.27789000</t>
         </is>
       </c>
       <c r="G61" t="n">
@@ -5845,20 +5845,20 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>16714214.12817320</t>
+          <t>72618183.48059540</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>39206</v>
+        <v>172692</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>59257.37629000</t>
+          <t>270347.28434000</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>7855563.84728210</t>
+          <t>35849972.62833730</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -5867,40 +5867,776 @@
         </is>
       </c>
       <c r="M61" t="n">
-        <v>131.7099999999999</v>
+        <v>132.7199999999999</v>
       </c>
       <c r="N61" t="n">
-        <v>131.885</v>
+        <v>132.39</v>
       </c>
       <c r="O61" t="n">
-        <v>132.1542857142857</v>
+        <v>132.2985714285714</v>
       </c>
       <c r="P61" t="n">
-        <v>130.5306666666667</v>
+        <v>130.598</v>
       </c>
       <c r="Q61" t="n">
-        <v>158.1786666666667</v>
+        <v>158.2123333333334</v>
       </c>
       <c r="R61" t="n">
-        <v>131.71</v>
+        <v>132.72</v>
       </c>
       <c r="S61" t="n">
-        <v>131.2570892407474</v>
+        <v>131.9304225740807</v>
       </c>
       <c r="T61" t="n">
-        <v>133.8843171544703</v>
+        <v>134.0397086625212</v>
       </c>
       <c r="U61" t="n">
-        <v>149.881599888608</v>
+        <v>149.9571609332851</v>
       </c>
       <c r="V61" t="n">
-        <v>-15.99728273413774</v>
+        <v>-15.91745227076393</v>
       </c>
       <c r="W61" t="n">
-        <v>-19.71156846797398</v>
+        <v>-19.69560235083121</v>
       </c>
       <c r="X61" t="n">
-        <v>3.714285733836235</v>
+        <v>3.778150080067281</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>132.72000000</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>136.99000000</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>128.62000000</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>135.69000000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>680922.24747000</t>
+        </is>
+      </c>
+      <c r="G62" t="n">
+        <v>1585785599999</v>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>90063924.23039740</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>199637</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>324454.19164000</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>42946394.47652280</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>2020-04-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M62" t="n">
+        <v>135.6899999999999</v>
+      </c>
+      <c r="N62" t="n">
+        <v>134.205</v>
+      </c>
+      <c r="O62" t="n">
+        <v>132.24</v>
+      </c>
+      <c r="P62" t="n">
+        <v>131.9326666666667</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>155.003</v>
+      </c>
+      <c r="R62" t="n">
+        <v>135.69</v>
+      </c>
+      <c r="S62" t="n">
+        <v>134.4368075246936</v>
+      </c>
+      <c r="T62" t="n">
+        <v>134.2936091670784</v>
+      </c>
+      <c r="U62" t="n">
+        <v>148.890581061063</v>
+      </c>
+      <c r="V62" t="n">
+        <v>-14.59697189398466</v>
+      </c>
+      <c r="W62" t="n">
+        <v>-18.67587500927982</v>
+      </c>
+      <c r="X62" t="n">
+        <v>4.078903115295162</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>135.65000000</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>149.76000000</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>135.01000000</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>141.28000000</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1138977.66114000</t>
+        </is>
+      </c>
+      <c r="G63" t="n">
+        <v>1585871999999</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>159989506.60494540</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>314519</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>578693.19522000</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>81265956.91314490</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>2020-04-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M63" t="n">
+        <v>141.2799999999999</v>
+      </c>
+      <c r="N63" t="n">
+        <v>138.485</v>
+      </c>
+      <c r="O63" t="n">
+        <v>132.6514285714285</v>
+      </c>
+      <c r="P63" t="n">
+        <v>133.4773333333334</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>152.2486666666667</v>
+      </c>
+      <c r="R63" t="n">
+        <v>141.28</v>
+      </c>
+      <c r="S63" t="n">
+        <v>138.9989358415645</v>
+      </c>
+      <c r="T63" t="n">
+        <v>135.368472661936</v>
+      </c>
+      <c r="U63" t="n">
+        <v>148.3220203387661</v>
+      </c>
+      <c r="V63" t="n">
+        <v>-12.95354767683014</v>
+      </c>
+      <c r="W63" t="n">
+        <v>-17.53140842030032</v>
+      </c>
+      <c r="X63" t="n">
+        <v>4.577860743470179</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>141.27000000</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>146.72000000</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>137.26000000</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>141.31000000</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>797546.11446000</t>
+        </is>
+      </c>
+      <c r="G64" t="n">
+        <v>1585958399999</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>113731706.71499980</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>239800</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>377394.13095000</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>53851773.63059670</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>2020-04-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M64" t="n">
+        <v>141.3099999999999</v>
+      </c>
+      <c r="N64" t="n">
+        <v>141.295</v>
+      </c>
+      <c r="O64" t="n">
+        <v>134.0771428571428</v>
+      </c>
+      <c r="P64" t="n">
+        <v>133.8113333333334</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>149.4836666666667</v>
+      </c>
+      <c r="R64" t="n">
+        <v>141.31</v>
+      </c>
+      <c r="S64" t="n">
+        <v>140.5396452805215</v>
+      </c>
+      <c r="T64" t="n">
+        <v>136.2825783551684</v>
+      </c>
+      <c r="U64" t="n">
+        <v>147.7985072014139</v>
+      </c>
+      <c r="V64" t="n">
+        <v>-11.51592884624557</v>
+      </c>
+      <c r="W64" t="n">
+        <v>-16.3283115614942</v>
+      </c>
+      <c r="X64" t="n">
+        <v>4.812382715248624</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>141.30000000</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>146.28000000</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>138.88000000</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>144.10000000</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>573508.14086000</t>
+        </is>
+      </c>
+      <c r="G65" t="n">
+        <v>1586044799999</v>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>81640622.82843230</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>178768</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>292547.08055000</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>41667692.34584250</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>2020-04-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M65" t="n">
+        <v>144.0999999999999</v>
+      </c>
+      <c r="N65" t="n">
+        <v>142.705</v>
+      </c>
+      <c r="O65" t="n">
+        <v>135.9514285714286</v>
+      </c>
+      <c r="P65" t="n">
+        <v>134.5193333333334</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>146.6743333333334</v>
+      </c>
+      <c r="R65" t="n">
+        <v>144.1</v>
+      </c>
+      <c r="S65" t="n">
+        <v>142.9132150935071</v>
+      </c>
+      <c r="T65" t="n">
+        <v>137.4852859557022</v>
+      </c>
+      <c r="U65" t="n">
+        <v>147.5225404492013</v>
+      </c>
+      <c r="V65" t="n">
+        <v>-10.03725449349909</v>
+      </c>
+      <c r="W65" t="n">
+        <v>-15.07009935810257</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.032844864603483</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>144.10000000</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>145.58000000</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>140.68000000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>142.68000000</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>414987.45246000</t>
+        </is>
+      </c>
+      <c r="G66" t="n">
+        <v>1586131199999</v>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>59383946.12744140</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>134223</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>205853.93595000</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>29454884.73752670</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>2020-04-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M66" t="n">
+        <v>142.6799999999999</v>
+      </c>
+      <c r="N66" t="n">
+        <v>143.39</v>
+      </c>
+      <c r="O66" t="n">
+        <v>138.5485714285714</v>
+      </c>
+      <c r="P66" t="n">
+        <v>135.1873333333334</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>143.2676666666667</v>
+      </c>
+      <c r="R66" t="n">
+        <v>142.68</v>
+      </c>
+      <c r="S66" t="n">
+        <v>142.7577383645024</v>
+      </c>
+      <c r="T66" t="n">
+        <v>138.2844881084529</v>
+      </c>
+      <c r="U66" t="n">
+        <v>147.1614064446709</v>
+      </c>
+      <c r="V66" t="n">
+        <v>-8.876918336218012</v>
+      </c>
+      <c r="W66" t="n">
+        <v>-13.83146253172171</v>
+      </c>
+      <c r="X66" t="n">
+        <v>4.954544195503701</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>142.69000000</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>172.00000000</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>142.60000000</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>171.32000000</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1636338.73110000</t>
+        </is>
+      </c>
+      <c r="G67" t="n">
+        <v>1586217599999</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>257097597.78387530</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>432858</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>839620.34479000</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>131930482.84646460</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>2020-04-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M67" t="n">
+        <v>171.3199999999999</v>
+      </c>
+      <c r="N67" t="n">
+        <v>157.0000000000001</v>
+      </c>
+      <c r="O67" t="n">
+        <v>144.1571428571428</v>
+      </c>
+      <c r="P67" t="n">
+        <v>138.4540000000001</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>141.0706666666667</v>
+      </c>
+      <c r="R67" t="n">
+        <v>171.32</v>
+      </c>
+      <c r="S67" t="n">
+        <v>161.7992461215008</v>
+      </c>
+      <c r="T67" t="n">
+        <v>143.3669572962034</v>
+      </c>
+      <c r="U67" t="n">
+        <v>148.9621386843502</v>
+      </c>
+      <c r="V67" t="n">
+        <v>-5.595181388146784</v>
+      </c>
+      <c r="W67" t="n">
+        <v>-12.18420564124679</v>
+      </c>
+      <c r="X67" t="n">
+        <v>6.589024253100002</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>171.32000000</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>176.22000000</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>162.22000000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>164.63000000</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1717962.82538000</t>
+        </is>
+      </c>
+      <c r="G68" t="n">
+        <v>1586303999999</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>292710722.58224840</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>446557</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>854069.17522000</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>145531653.92763160</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>2020-04-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M68" t="n">
+        <v>164.6299999999999</v>
+      </c>
+      <c r="N68" t="n">
+        <v>167.9750000000001</v>
+      </c>
+      <c r="O68" t="n">
+        <v>148.7157142857143</v>
+      </c>
+      <c r="P68" t="n">
+        <v>140.3680000000001</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>139.9106666666667</v>
+      </c>
+      <c r="R68" t="n">
+        <v>164.63</v>
+      </c>
+      <c r="S68" t="n">
+        <v>163.6864153738336</v>
+      </c>
+      <c r="T68" t="n">
+        <v>146.638239698585</v>
+      </c>
+      <c r="U68" t="n">
+        <v>150.1294475819613</v>
+      </c>
+      <c r="V68" t="n">
+        <v>-3.491207883376319</v>
+      </c>
+      <c r="W68" t="n">
+        <v>-10.44560553090816</v>
+      </c>
+      <c r="X68" t="n">
+        <v>6.954397647531843</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>164.62000000</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>174.48000000</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>163.59000000</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>170.48000000</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>840502.85741000</t>
+        </is>
+      </c>
+      <c r="G69" t="n">
+        <v>1586390399999</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>142504693.52683190</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>229820</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>413369.44863000</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>70133332.52128500</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>2020-04-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M69" t="n">
+        <v>170.4799999999999</v>
+      </c>
+      <c r="N69" t="n">
+        <v>167.555</v>
+      </c>
+      <c r="O69" t="n">
+        <v>153.6857142857143</v>
+      </c>
+      <c r="P69" t="n">
+        <v>142.5053333333334</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>138.833</v>
+      </c>
+      <c r="R69" t="n">
+        <v>170.48</v>
+      </c>
+      <c r="S69" t="n">
+        <v>168.2154717912778</v>
+      </c>
+      <c r="T69" t="n">
+        <v>150.3062455766577</v>
+      </c>
+      <c r="U69" t="n">
+        <v>151.644982221223</v>
+      </c>
+      <c r="V69" t="n">
+        <v>-1.33873664456533</v>
+      </c>
+      <c r="W69" t="n">
+        <v>-8.624231285345905</v>
+      </c>
+      <c r="X69" t="n">
+        <v>7.285494640780575</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X69"/>
+  <dimension ref="A1:X72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>170.48000000</t>
+          <t>173.11000000</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>840502.85741000</t>
+          <t>1023575.92076000</t>
         </is>
       </c>
       <c r="G69" t="n">
@@ -6581,20 +6581,20 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>142504693.52683190</t>
+          <t>173916484.78615510</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>229820</v>
+        <v>287799</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>413369.44863000</t>
+          <t>511443.62149000</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>70133332.52128500</t>
+          <t>86963287.60141520</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -6603,40 +6603,316 @@
         </is>
       </c>
       <c r="M69" t="n">
-        <v>170.4799999999999</v>
+        <v>173.1099999999999</v>
       </c>
       <c r="N69" t="n">
-        <v>167.555</v>
+        <v>168.8700000000001</v>
       </c>
       <c r="O69" t="n">
-        <v>153.6857142857143</v>
+        <v>154.0614285714285</v>
       </c>
       <c r="P69" t="n">
-        <v>142.5053333333334</v>
+        <v>142.6806666666667</v>
       </c>
       <c r="Q69" t="n">
-        <v>138.833</v>
+        <v>138.9206666666667</v>
       </c>
       <c r="R69" t="n">
-        <v>170.48</v>
+        <v>173.11</v>
       </c>
       <c r="S69" t="n">
-        <v>168.2154717912778</v>
+        <v>169.9688051246112</v>
       </c>
       <c r="T69" t="n">
-        <v>150.3062455766577</v>
+        <v>150.7108656775803</v>
       </c>
       <c r="U69" t="n">
-        <v>151.644982221223</v>
+        <v>151.840842069122</v>
       </c>
       <c r="V69" t="n">
-        <v>-1.33873664456533</v>
+        <v>-1.129976391541732</v>
       </c>
       <c r="W69" t="n">
-        <v>-8.624231285345905</v>
+        <v>-8.582479224006308</v>
       </c>
       <c r="X69" t="n">
-        <v>7.285494640780575</v>
+        <v>7.452502832464576</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>173.15000000</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>173.38000000</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>165.19000000</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>169.52000000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>719837.24423000</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>1586476799999</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>122531131.95595830</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>212541</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>356967.49573000</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>60787119.84138850</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>2020-04-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M70" t="n">
+        <v>169.5199999999999</v>
+      </c>
+      <c r="N70" t="n">
+        <v>171.3150000000001</v>
+      </c>
+      <c r="O70" t="n">
+        <v>158.0957142857143</v>
+      </c>
+      <c r="P70" t="n">
+        <v>144.9086666666667</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>137.8813333333334</v>
+      </c>
+      <c r="R70" t="n">
+        <v>169.52</v>
+      </c>
+      <c r="S70" t="n">
+        <v>169.6696017082037</v>
+      </c>
+      <c r="T70" t="n">
+        <v>153.6046071908999</v>
+      </c>
+      <c r="U70" t="n">
+        <v>153.1569112126691</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0.4476959782307972</v>
+      </c>
+      <c r="W70" t="n">
+        <v>-6.776443812078949</v>
+      </c>
+      <c r="X70" t="n">
+        <v>7.224139790309747</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>169.56000000</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>170.10000000</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>152.11000000</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>157.81000000</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1314841.36200000</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1586563199999</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>209535613.32367140</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>323430</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>623128.08335000</t>
+        </is>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>99285405.30938550</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>2020-04-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M71" t="n">
+        <v>157.8099999999999</v>
+      </c>
+      <c r="N71" t="n">
+        <v>163.665</v>
+      </c>
+      <c r="O71" t="n">
+        <v>160.4528571428571</v>
+      </c>
+      <c r="P71" t="n">
+        <v>146.2026666666667</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>136.6546666666667</v>
+      </c>
+      <c r="R71" t="n">
+        <v>157.81</v>
+      </c>
+      <c r="S71" t="n">
+        <v>161.7632005694012</v>
+      </c>
+      <c r="T71" t="n">
+        <v>154.2515960994498</v>
+      </c>
+      <c r="U71" t="n">
+        <v>153.5031683858488</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0.7484277136009894</v>
+      </c>
+      <c r="W71" t="n">
+        <v>-5.271469259298714</v>
+      </c>
+      <c r="X71" t="n">
+        <v>6.019896972899703</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>157.81000000</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>161.37000000</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>157.64000000</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>159.13000000</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>245148.48736000</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>1586649599999</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>39150353.43531620</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>63395</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>126706.39959000</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>20237646.23400030</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>2020-04-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M72" t="n">
+        <v>159.1299999999998</v>
+      </c>
+      <c r="N72" t="n">
+        <v>158.47</v>
+      </c>
+      <c r="O72" t="n">
+        <v>162.6</v>
+      </c>
+      <c r="P72" t="n">
+        <v>148.0560000000001</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>138.3650000000001</v>
+      </c>
+      <c r="R72" t="n">
+        <v>159.13</v>
+      </c>
+      <c r="S72" t="n">
+        <v>160.0077335231337</v>
+      </c>
+      <c r="T72" t="n">
+        <v>155.002125076387</v>
+      </c>
+      <c r="U72" t="n">
+        <v>153.9217436385313</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1.080381437855777</v>
+      </c>
+      <c r="W72" t="n">
+        <v>-4.001098952635806</v>
+      </c>
+      <c r="X72" t="n">
+        <v>5.081480390491583</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X72"/>
+  <dimension ref="A1:X73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6839,17 +6839,17 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>157.64000000</t>
+          <t>153.91000000</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>159.13000000</t>
+          <t>158.33000000</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>245148.48736000</t>
+          <t>621599.61289000</t>
         </is>
       </c>
       <c r="G72" t="n">
@@ -6857,20 +6857,20 @@
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>39150353.43531620</t>
+          <t>98275533.06263670</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>63395</v>
+        <v>168046</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>126706.39959000</t>
+          <t>313112.58332000</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>20237646.23400030</t>
+          <t>49512383.08581670</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -6879,40 +6879,132 @@
         </is>
       </c>
       <c r="M72" t="n">
-        <v>159.1299999999998</v>
+        <v>158.3299999999999</v>
       </c>
       <c r="N72" t="n">
-        <v>158.47</v>
+        <v>158.0700000000001</v>
       </c>
       <c r="O72" t="n">
-        <v>162.6</v>
+        <v>162.4857142857143</v>
       </c>
       <c r="P72" t="n">
-        <v>148.0560000000001</v>
+        <v>148.0026666666667</v>
       </c>
       <c r="Q72" t="n">
-        <v>138.3650000000001</v>
+        <v>138.3383333333334</v>
       </c>
       <c r="R72" t="n">
-        <v>159.13</v>
+        <v>158.33</v>
       </c>
       <c r="S72" t="n">
-        <v>160.0077335231337</v>
+        <v>159.4744001898004</v>
       </c>
       <c r="T72" t="n">
-        <v>155.002125076387</v>
+        <v>154.879047284185</v>
       </c>
       <c r="U72" t="n">
-        <v>153.9217436385313</v>
+        <v>153.8622323140225</v>
       </c>
       <c r="V72" t="n">
-        <v>1.080381437855777</v>
+        <v>1.0168149701625</v>
       </c>
       <c r="W72" t="n">
-        <v>-4.001098952635806</v>
+        <v>-4.013812247848044</v>
       </c>
       <c r="X72" t="n">
-        <v>5.081480390491583</v>
+        <v>5.030627218010544</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>158.33000000</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>164.78000000</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>155.00000000</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>161.91000000</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>631043.09258000</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>1586735999999</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>101043805.88741570</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>172218</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>305971.54188000</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>48979881.19648620</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>2020-04-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M73" t="n">
+        <v>161.9099999999999</v>
+      </c>
+      <c r="N73" t="n">
+        <v>160.12</v>
+      </c>
+      <c r="O73" t="n">
+        <v>165.2328571428571</v>
+      </c>
+      <c r="P73" t="n">
+        <v>150.0646666666667</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>139.2666666666667</v>
+      </c>
+      <c r="R73" t="n">
+        <v>161.91</v>
+      </c>
+      <c r="S73" t="n">
+        <v>161.0981333966001</v>
+      </c>
+      <c r="T73" t="n">
+        <v>155.9607387807031</v>
+      </c>
+      <c r="U73" t="n">
+        <v>154.4607103875306</v>
+      </c>
+      <c r="V73" t="n">
+        <v>1.500028393172556</v>
+      </c>
+      <c r="W73" t="n">
+        <v>-2.911044003508873</v>
+      </c>
+      <c r="X73" t="n">
+        <v>4.41107239668143</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X73"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6936,12 +6936,12 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>161.91000000</t>
+          <t>158.59000000</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>631043.09258000</t>
+          <t>809100.24594000</t>
         </is>
       </c>
       <c r="G73" t="n">
@@ -6949,20 +6949,20 @@
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>101043805.88741570</t>
+          <t>129919934.44376530</t>
         </is>
       </c>
       <c r="I73" t="n">
-        <v>172218</v>
+        <v>223429</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>305971.54188000</t>
+          <t>396232.44593000</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>48979881.19648620</t>
+          <t>63624893.23050370</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -6971,40 +6971,132 @@
         </is>
       </c>
       <c r="M73" t="n">
-        <v>161.9099999999999</v>
+        <v>158.5899999999998</v>
       </c>
       <c r="N73" t="n">
-        <v>160.12</v>
+        <v>158.4600000000001</v>
       </c>
       <c r="O73" t="n">
-        <v>165.2328571428571</v>
+        <v>164.7585714285714</v>
       </c>
       <c r="P73" t="n">
-        <v>150.0646666666667</v>
+        <v>149.8433333333334</v>
       </c>
       <c r="Q73" t="n">
-        <v>139.2666666666667</v>
+        <v>139.1560000000001</v>
       </c>
       <c r="R73" t="n">
-        <v>161.91</v>
+        <v>158.59</v>
       </c>
       <c r="S73" t="n">
-        <v>161.0981333966001</v>
+        <v>158.8848000632668</v>
       </c>
       <c r="T73" t="n">
-        <v>155.9607387807031</v>
+        <v>155.4499664979708</v>
       </c>
       <c r="U73" t="n">
-        <v>154.4607103875306</v>
+        <v>154.2138161826309</v>
       </c>
       <c r="V73" t="n">
-        <v>1.500028393172556</v>
+        <v>1.236150315339898</v>
       </c>
       <c r="W73" t="n">
-        <v>-2.911044003508873</v>
+        <v>-2.963819624633326</v>
       </c>
       <c r="X73" t="n">
-        <v>4.41107239668143</v>
+        <v>4.199969939973224</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>158.56000000</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>158.57000000</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>150.00000000</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>153.16000000</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>784119.92972000</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>1586822399999</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>120207813.31358490</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>183811</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>383660.81768000</t>
+        </is>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>58830933.96878600</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>2020-04-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M74" t="n">
+        <v>153.1599999999998</v>
+      </c>
+      <c r="N74" t="n">
+        <v>155.8750000000001</v>
+      </c>
+      <c r="O74" t="n">
+        <v>162.1642857142857</v>
+      </c>
+      <c r="P74" t="n">
+        <v>151.754</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>140.1766666666667</v>
+      </c>
+      <c r="R74" t="n">
+        <v>153.16</v>
+      </c>
+      <c r="S74" t="n">
+        <v>155.0682666877556</v>
+      </c>
+      <c r="T74" t="n">
+        <v>155.0976621785944</v>
+      </c>
+      <c r="U74" t="n">
+        <v>154.1354712281884</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0.9621909504060397</v>
+      </c>
+      <c r="W74" t="n">
+        <v>-2.1786174434723</v>
+      </c>
+      <c r="X74" t="n">
+        <v>3.14080839387834</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X74"/>
+  <dimension ref="A1:X83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7018,7 +7018,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>158.57000000</t>
+          <t>158.97000000</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -7028,12 +7028,12 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>153.16000000</t>
+          <t>156.29000000</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>784119.92972000</t>
+          <t>1042091.03622000</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7041,20 +7041,20 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>120207813.31358490</t>
+          <t>160423270.30371500</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>183811</v>
+        <v>255965</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>383660.81768000</t>
+          <t>519763.88357000</t>
         </is>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>58830933.96878600</t>
+          <t>80051376.52875040</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
@@ -7063,40 +7063,868 @@
         </is>
       </c>
       <c r="M74" t="n">
-        <v>153.1599999999998</v>
+        <v>156.2899999999998</v>
       </c>
       <c r="N74" t="n">
-        <v>155.8750000000001</v>
+        <v>157.4400000000001</v>
       </c>
       <c r="O74" t="n">
-        <v>162.1642857142857</v>
+        <v>162.6114285714285</v>
       </c>
       <c r="P74" t="n">
-        <v>151.754</v>
+        <v>151.9626666666667</v>
       </c>
       <c r="Q74" t="n">
-        <v>140.1766666666667</v>
+        <v>140.2810000000001</v>
       </c>
       <c r="R74" t="n">
-        <v>153.16</v>
+        <v>156.29</v>
       </c>
       <c r="S74" t="n">
-        <v>155.0682666877556</v>
+        <v>157.1549333544223</v>
       </c>
       <c r="T74" t="n">
-        <v>155.0976621785944</v>
+        <v>155.5792030747713</v>
       </c>
       <c r="U74" t="n">
-        <v>154.1354712281884</v>
+        <v>154.3681680793534</v>
       </c>
       <c r="V74" t="n">
-        <v>0.9621909504060397</v>
+        <v>1.211034995417947</v>
       </c>
       <c r="W74" t="n">
-        <v>-2.1786174434723</v>
+        <v>-2.128848630276904</v>
       </c>
       <c r="X74" t="n">
-        <v>3.14080839387834</v>
+        <v>3.339883625694851</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>156.28000000</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>161.85000000</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>155.23000000</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>158.45000000</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>698030.65089000</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>1586908799999</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>110710086.10400900</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>178490</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>343955.51426000</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>54564372.10918630</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>2020-04-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M75" t="n">
+        <v>158.4499999999998</v>
+      </c>
+      <c r="N75" t="n">
+        <v>157.3700000000001</v>
+      </c>
+      <c r="O75" t="n">
+        <v>161.7285714285714</v>
+      </c>
+      <c r="P75" t="n">
+        <v>153.7220000000001</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>141.4366666666668</v>
+      </c>
+      <c r="R75" t="n">
+        <v>158.45</v>
+      </c>
+      <c r="S75" t="n">
+        <v>158.0183111181408</v>
+      </c>
+      <c r="T75" t="n">
+        <v>156.0208660296681</v>
+      </c>
+      <c r="U75" t="n">
+        <v>154.6715460604184</v>
+      </c>
+      <c r="V75" t="n">
+        <v>1.349319969249649</v>
+      </c>
+      <c r="W75" t="n">
+        <v>-1.43321486348597</v>
+      </c>
+      <c r="X75" t="n">
+        <v>2.782534832735619</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>158.46000000</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>161.29000000</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>152.00000000</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>152.73000000</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>729119.66505000</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>1586995199999</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>114640840.11551650</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>186226</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>347034.48291000</t>
+        </is>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>54594699.03576640</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>2020-04-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M76" t="n">
+        <v>152.7299999999998</v>
+      </c>
+      <c r="N76" t="n">
+        <v>155.5900000000001</v>
+      </c>
+      <c r="O76" t="n">
+        <v>158.8171428571428</v>
+      </c>
+      <c r="P76" t="n">
+        <v>155.0560000000001</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>142.8270000000001</v>
+      </c>
+      <c r="R76" t="n">
+        <v>152.73</v>
+      </c>
+      <c r="S76" t="n">
+        <v>154.4927703727136</v>
+      </c>
+      <c r="T76" t="n">
+        <v>155.5145771154511</v>
+      </c>
+      <c r="U76" t="n">
+        <v>154.527278688836</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0.9872984266150979</v>
+      </c>
+      <c r="W76" t="n">
+        <v>-0.9491121793629917</v>
+      </c>
+      <c r="X76" t="n">
+        <v>1.93641060597809</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>152.74000000</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>174.79000000</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>148.33000000</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>172.29000000</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1647207.59991000</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1587081599999</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>273639160.06938750</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>389854</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>830355.78324000</t>
+        </is>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>137897793.15056740</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>2020-04-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M77" t="n">
+        <v>172.2899999999998</v>
+      </c>
+      <c r="N77" t="n">
+        <v>162.5100000000001</v>
+      </c>
+      <c r="O77" t="n">
+        <v>159.2128571428571</v>
+      </c>
+      <c r="P77" t="n">
+        <v>157.4960000000001</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>144.7143333333334</v>
+      </c>
+      <c r="R77" t="n">
+        <v>172.29</v>
+      </c>
+      <c r="S77" t="n">
+        <v>166.3575901242378</v>
+      </c>
+      <c r="T77" t="n">
+        <v>158.0954193105433</v>
+      </c>
+      <c r="U77" t="n">
+        <v>155.84683967885</v>
+      </c>
+      <c r="V77" t="n">
+        <v>2.248579631693275</v>
+      </c>
+      <c r="W77" t="n">
+        <v>-0.3095737895646652</v>
+      </c>
+      <c r="X77" t="n">
+        <v>2.55815342125794</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>172.31000000</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>174.96000000</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>168.31000000</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>170.69000000</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>723537.75591000</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>1587167999999</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>123553456.31967860</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>191289</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>352005.34180000</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>60121889.86467380</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>2020-04-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M78" t="n">
+        <v>170.6899999999998</v>
+      </c>
+      <c r="N78" t="n">
+        <v>171.4900000000001</v>
+      </c>
+      <c r="O78" t="n">
+        <v>161.0528571428571</v>
+      </c>
+      <c r="P78" t="n">
+        <v>159.4566666666667</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>146.467</v>
+      </c>
+      <c r="R78" t="n">
+        <v>170.69</v>
+      </c>
+      <c r="S78" t="n">
+        <v>169.2458633747459</v>
+      </c>
+      <c r="T78" t="n">
+        <v>160.0330521308449</v>
+      </c>
+      <c r="U78" t="n">
+        <v>156.9492755881899</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3.083776542655016</v>
+      </c>
+      <c r="W78" t="n">
+        <v>0.369096300299315</v>
+      </c>
+      <c r="X78" t="n">
+        <v>2.714680242355701</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>170.61000000</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>189.54000000</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>170.48000000</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>187.40000000</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1127296.36979000</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>1587254399999</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>203132211.95640910</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>286172</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>569708.87703000</t>
+        </is>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>102696714.57128610</t>
+        </is>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>2020-04-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M79" t="n">
+        <v>187.3999999999998</v>
+      </c>
+      <c r="N79" t="n">
+        <v>179.0450000000001</v>
+      </c>
+      <c r="O79" t="n">
+        <v>165.2057142857143</v>
+      </c>
+      <c r="P79" t="n">
+        <v>162.5293333333334</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>148.1703333333334</v>
+      </c>
+      <c r="R79" t="n">
+        <v>187.4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>181.3486211249153</v>
+      </c>
+      <c r="T79" t="n">
+        <v>164.2433610364284</v>
+      </c>
+      <c r="U79" t="n">
+        <v>159.2104731794591</v>
+      </c>
+      <c r="V79" t="n">
+        <v>5.032887856969325</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.301854637383962</v>
+      </c>
+      <c r="X79" t="n">
+        <v>3.731033219585362</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>187.40000000</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>188.35000000</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>175.75000000</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>180.03000000</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>995759.57750000</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>1587340799999</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>181415813.50269480</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>270668</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>478833.69271000</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>87227250.30026600</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>2020-04-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M80" t="n">
+        <v>180.0299999999998</v>
+      </c>
+      <c r="N80" t="n">
+        <v>183.7150000000001</v>
+      </c>
+      <c r="O80" t="n">
+        <v>168.2685714285714</v>
+      </c>
+      <c r="P80" t="n">
+        <v>164.9246666666668</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>149.722</v>
+      </c>
+      <c r="R80" t="n">
+        <v>180.03</v>
+      </c>
+      <c r="S80" t="n">
+        <v>180.4695403749718</v>
+      </c>
+      <c r="T80" t="n">
+        <v>166.6720792299954</v>
+      </c>
+      <c r="U80" t="n">
+        <v>160.7561975166961</v>
+      </c>
+      <c r="V80" t="n">
+        <v>5.915881713299285</v>
+      </c>
+      <c r="W80" t="n">
+        <v>2.224660072947727</v>
+      </c>
+      <c r="X80" t="n">
+        <v>3.691221640351558</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>180.02000000</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>186.46000000</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>166.70000000</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>170.20000000</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1547821.52737000</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>1587427199999</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>273854539.80380100</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>365589</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>745586.67414000</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>131918687.66076710</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>2020-04-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M81" t="n">
+        <v>170.1999999999998</v>
+      </c>
+      <c r="N81" t="n">
+        <v>175.1150000000001</v>
+      </c>
+      <c r="O81" t="n">
+        <v>170.2557142857143</v>
+      </c>
+      <c r="P81" t="n">
+        <v>166.7593333333334</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>150.9733333333334</v>
+      </c>
+      <c r="R81" t="n">
+        <v>170.2</v>
+      </c>
+      <c r="S81" t="n">
+        <v>173.6231801249906</v>
+      </c>
+      <c r="T81" t="n">
+        <v>167.2148371237567</v>
+      </c>
+      <c r="U81" t="n">
+        <v>161.4572238087152</v>
+      </c>
+      <c r="V81" t="n">
+        <v>5.757613315041425</v>
+      </c>
+      <c r="W81" t="n">
+        <v>2.931250733850843</v>
+      </c>
+      <c r="X81" t="n">
+        <v>2.826362581190582</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>170.21000000</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>174.70000000</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>168.00000000</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>170.74000000</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>906381.65398000</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1587513599999</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>155292048.43579020</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>228262</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>454400.78888000</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>77856857.48694720</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>2020-04-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M82" t="n">
+        <v>170.7399999999998</v>
+      </c>
+      <c r="N82" t="n">
+        <v>170.4700000000001</v>
+      </c>
+      <c r="O82" t="n">
+        <v>172.0114285714286</v>
+      </c>
+      <c r="P82" t="n">
+        <v>166.7206666666667</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>152.5873333333334</v>
+      </c>
+      <c r="R82" t="n">
+        <v>170.74</v>
+      </c>
+      <c r="S82" t="n">
+        <v>171.7010600416635</v>
+      </c>
+      <c r="T82" t="n">
+        <v>167.7571705944951</v>
+      </c>
+      <c r="U82" t="n">
+        <v>162.1461885365169</v>
+      </c>
+      <c r="V82" t="n">
+        <v>5.610982057978191</v>
+      </c>
+      <c r="W82" t="n">
+        <v>3.467197006251793</v>
+      </c>
+      <c r="X82" t="n">
+        <v>2.143785051726398</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>170.73000000</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>184.00000000</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>169.78000000</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>181.38000000</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>812086.87602000</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1587599999999</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>143959338.71980660</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>196518</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>399591.00926000</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>70844470.39062520</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>2020-04-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M83" t="n">
+        <v>181.3799999999998</v>
+      </c>
+      <c r="N83" t="n">
+        <v>176.0600000000001</v>
+      </c>
+      <c r="O83" t="n">
+        <v>176.1042857142857</v>
+      </c>
+      <c r="P83" t="n">
+        <v>167.8373333333334</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>154.1026666666667</v>
+      </c>
+      <c r="R83" t="n">
+        <v>181.38</v>
+      </c>
+      <c r="S83" t="n">
+        <v>178.1536866805545</v>
+      </c>
+      <c r="T83" t="n">
+        <v>169.8529928591669</v>
+      </c>
+      <c r="U83" t="n">
+        <v>163.5735081370333</v>
+      </c>
+      <c r="V83" t="n">
+        <v>6.279484722133674</v>
+      </c>
+      <c r="W83" t="n">
+        <v>4.029654555788338</v>
+      </c>
+      <c r="X83" t="n">
+        <v>2.249830166345336</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X132"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7856,12 +7856,12 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>181.38000000</t>
+          <t>182.70000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>812086.87602000</t>
+          <t>988698.39076000</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -7869,20 +7869,20 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>143959338.71980660</t>
+          <t>176079076.92749950</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>196518</v>
+        <v>246896</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>399591.00926000</t>
+          <t>488185.26353000</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>70844470.39062520</t>
+          <t>86960811.93958360</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7891,40 +7891,4548 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>181.3799999999998</v>
+        <v>182.6999999999998</v>
       </c>
       <c r="N83" t="n">
-        <v>176.0600000000001</v>
+        <v>176.7200000000001</v>
       </c>
       <c r="O83" t="n">
-        <v>176.1042857142857</v>
+        <v>176.2928571428572</v>
       </c>
       <c r="P83" t="n">
-        <v>167.8373333333334</v>
+        <v>167.9253333333334</v>
       </c>
       <c r="Q83" t="n">
-        <v>154.1026666666667</v>
+        <v>154.1466666666667</v>
       </c>
       <c r="R83" t="n">
-        <v>181.38</v>
+        <v>182.7</v>
       </c>
       <c r="S83" t="n">
-        <v>178.1536866805545</v>
+        <v>179.0336866805545</v>
       </c>
       <c r="T83" t="n">
-        <v>169.8529928591669</v>
+        <v>170.0560700105441</v>
       </c>
       <c r="U83" t="n">
-        <v>163.5735081370333</v>
+        <v>163.6714638581995</v>
       </c>
       <c r="V83" t="n">
-        <v>6.279484722133674</v>
+        <v>6.384606152344617</v>
       </c>
       <c r="W83" t="n">
-        <v>4.029654555788338</v>
+        <v>4.050678842068265</v>
       </c>
       <c r="X83" t="n">
-        <v>2.249830166345336</v>
+        <v>2.333927310276351</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>182.70000000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>193.63000000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>178.16000000</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>185.51000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1457867.08713000</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1587686399999</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>270862911.36856540</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>363772</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>719694.31692000</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>133791885.01731330</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2020-04-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>185.5099999999998</v>
+      </c>
+      <c r="N84" t="n">
+        <v>184.105</v>
+      </c>
+      <c r="O84" t="n">
+        <v>178.1814285714286</v>
+      </c>
+      <c r="P84" t="n">
+        <v>168.752</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>155.7163333333334</v>
+      </c>
+      <c r="R84" t="n">
+        <v>185.51</v>
+      </c>
+      <c r="S84" t="n">
+        <v>183.3512288935182</v>
+      </c>
+      <c r="T84" t="n">
+        <v>172.4335999628548</v>
+      </c>
+      <c r="U84" t="n">
+        <v>165.291858720649</v>
+      </c>
+      <c r="V84" t="n">
+        <v>7.141741242205796</v>
+      </c>
+      <c r="W84" t="n">
+        <v>4.66889132768828</v>
+      </c>
+      <c r="X84" t="n">
+        <v>2.472849914517516</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>185.57000000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>189.80000000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>184.72000000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>187.59000000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>780904.21257000</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1587772799999</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>146419748.08164820</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>222074</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>368634.10604000</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>69133236.24006010</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2020-04-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>187.5899999999998</v>
+      </c>
+      <c r="N85" t="n">
+        <v>186.55</v>
+      </c>
+      <c r="O85" t="n">
+        <v>180.5957142857143</v>
+      </c>
+      <c r="P85" t="n">
+        <v>169.9566666666667</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>157.4326666666667</v>
+      </c>
+      <c r="R85" t="n">
+        <v>187.59</v>
+      </c>
+      <c r="S85" t="n">
+        <v>186.1770762978394</v>
+      </c>
+      <c r="T85" t="n">
+        <v>174.7653556915622</v>
+      </c>
+      <c r="U85" t="n">
+        <v>166.9461493075669</v>
+      </c>
+      <c r="V85" t="n">
+        <v>7.819206383995322</v>
+      </c>
+      <c r="W85" t="n">
+        <v>5.298954343509458</v>
+      </c>
+      <c r="X85" t="n">
+        <v>2.520252040485864</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>187.60000000</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>198.36000000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>185.76000000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>194.21000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>866478.04928000</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1587859199999</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>167703202.42505130</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>244755</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>438541.85997000</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>84884022.53154650</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2020-04-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>194.2099999999998</v>
+      </c>
+      <c r="N86" t="n">
+        <v>190.9</v>
+      </c>
+      <c r="O86" t="n">
+        <v>181.5685714285714</v>
+      </c>
+      <c r="P86" t="n">
+        <v>172.3833333333334</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>159.293</v>
+      </c>
+      <c r="R86" t="n">
+        <v>194.21</v>
+      </c>
+      <c r="S86" t="n">
+        <v>191.5323587659465</v>
+      </c>
+      <c r="T86" t="n">
+        <v>177.7568414687404</v>
+      </c>
+      <c r="U86" t="n">
+        <v>168.9686102962924</v>
+      </c>
+      <c r="V86" t="n">
+        <v>8.788231172447979</v>
+      </c>
+      <c r="W86" t="n">
+        <v>5.996809713337469</v>
+      </c>
+      <c r="X86" t="n">
+        <v>2.79142145911051</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>194.21000000</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>200.00000000</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>192.30000000</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>197.38000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>758525.81533000</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1587945599999</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>148433709.77718670</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>228826</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>383155.46184000</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>74997367.32236560</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2020-04-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>197.3799999999998</v>
+      </c>
+      <c r="N87" t="n">
+        <v>195.795</v>
+      </c>
+      <c r="O87" t="n">
+        <v>184.0471428571429</v>
+      </c>
+      <c r="P87" t="n">
+        <v>174.9866666666667</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>161.4946666666667</v>
+      </c>
+      <c r="R87" t="n">
+        <v>197.38</v>
+      </c>
+      <c r="S87" t="n">
+        <v>195.4307862553155</v>
+      </c>
+      <c r="T87" t="n">
+        <v>180.7757906748844</v>
+      </c>
+      <c r="U87" t="n">
+        <v>171.075971499785</v>
+      </c>
+      <c r="V87" t="n">
+        <v>9.699819175099378</v>
+      </c>
+      <c r="W87" t="n">
+        <v>6.737411609120084</v>
+      </c>
+      <c r="X87" t="n">
+        <v>2.962407565979294</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>197.39000000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>199.05000000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>189.29000000</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>196.34000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>896627.37271000</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1588031999999</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>174775637.92727570</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>238341</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>426083.00347000</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>83095117.55550340</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2020-04-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>196.3399999999998</v>
+      </c>
+      <c r="N88" t="n">
+        <v>196.86</v>
+      </c>
+      <c r="O88" t="n">
+        <v>187.7814285714286</v>
+      </c>
+      <c r="P88" t="n">
+        <v>177.5033333333334</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>163.6733333333334</v>
+      </c>
+      <c r="R88" t="n">
+        <v>196.34</v>
+      </c>
+      <c r="S88" t="n">
+        <v>196.0369287517718</v>
+      </c>
+      <c r="T88" t="n">
+        <v>183.1702855848415</v>
+      </c>
+      <c r="U88" t="n">
+        <v>172.9496975560001</v>
+      </c>
+      <c r="V88" t="n">
+        <v>10.22058802884141</v>
+      </c>
+      <c r="W88" t="n">
+        <v>7.434046895645624</v>
+      </c>
+      <c r="X88" t="n">
+        <v>2.786541133195781</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>196.33000000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>198.50000000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>192.36000000</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>196.24000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>636829.89397000</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1588118399999</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>124476041.88938340</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>183819</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>324710.24289000</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>63499045.65033740</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2020-04-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>196.2399999999998</v>
+      </c>
+      <c r="N89" t="n">
+        <v>196.29</v>
+      </c>
+      <c r="O89" t="n">
+        <v>191.4242857142857</v>
+      </c>
+      <c r="P89" t="n">
+        <v>180.1666666666667</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>166.0646666666667</v>
+      </c>
+      <c r="R89" t="n">
+        <v>196.24</v>
+      </c>
+      <c r="S89" t="n">
+        <v>196.1723095839239</v>
+      </c>
+      <c r="T89" t="n">
+        <v>185.18101170913</v>
+      </c>
+      <c r="U89" t="n">
+        <v>174.6768823340517</v>
+      </c>
+      <c r="V89" t="n">
+        <v>10.50412937507824</v>
+      </c>
+      <c r="W89" t="n">
+        <v>8.048063393352262</v>
+      </c>
+      <c r="X89" t="n">
+        <v>2.456065981725974</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>196.24000000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>218.77000000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>196.22000000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>215.36000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>1620422.72431000</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1588204799999</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>338324593.63729170</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>445147</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>817195.35504000</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>170664754.30895850</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2020-04-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>215.3599999999998</v>
+      </c>
+      <c r="N90" t="n">
+        <v>205.8</v>
+      </c>
+      <c r="O90" t="n">
+        <v>196.09</v>
+      </c>
+      <c r="P90" t="n">
+        <v>183.9606666666668</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>168.8413333333334</v>
+      </c>
+      <c r="R90" t="n">
+        <v>215.36</v>
+      </c>
+      <c r="S90" t="n">
+        <v>208.9641031946413</v>
+      </c>
+      <c r="T90" t="n">
+        <v>189.823934605645</v>
+      </c>
+      <c r="U90" t="n">
+        <v>177.693644225186</v>
+      </c>
+      <c r="V90" t="n">
+        <v>12.13029038045897</v>
+      </c>
+      <c r="W90" t="n">
+        <v>8.86450879270974</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.265781587749233</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>215.40000000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>227.30000000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>202.00000000</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>206.08000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1749691.00151000</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1588291199999</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>374893029.77430840</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>557268</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>840566.78901000</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>180276410.99706310</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2020-04-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>206.0799999999998</v>
+      </c>
+      <c r="N91" t="n">
+        <v>210.72</v>
+      </c>
+      <c r="O91" t="n">
+        <v>199.0285714285714</v>
+      </c>
+      <c r="P91" t="n">
+        <v>187.5173333333334</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>171.2866666666667</v>
+      </c>
+      <c r="R91" t="n">
+        <v>206.08</v>
+      </c>
+      <c r="S91" t="n">
+        <v>207.0413677315471</v>
+      </c>
+      <c r="T91" t="n">
+        <v>192.324868482064</v>
+      </c>
+      <c r="U91" t="n">
+        <v>179.7984029316126</v>
+      </c>
+      <c r="V91" t="n">
+        <v>12.52646555045143</v>
+      </c>
+      <c r="W91" t="n">
+        <v>9.596900145647526</v>
+      </c>
+      <c r="X91" t="n">
+        <v>2.929565404803908</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>206.07000000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>217.14000000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>205.91000000</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>212.02000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>794913.95828000</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1588377599999</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>168339123.35791390</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>291365</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>389989.76909000</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>82585993.16044210</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2020-05-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>212.0199999999998</v>
+      </c>
+      <c r="N92" t="n">
+        <v>209.05</v>
+      </c>
+      <c r="O92" t="n">
+        <v>202.5185714285714</v>
+      </c>
+      <c r="P92" t="n">
+        <v>190.1660000000001</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>173.831</v>
+      </c>
+      <c r="R92" t="n">
+        <v>212.02</v>
+      </c>
+      <c r="S92" t="n">
+        <v>210.3604559105157</v>
+      </c>
+      <c r="T92" t="n">
+        <v>195.3548894730094</v>
+      </c>
+      <c r="U92" t="n">
+        <v>182.1873588324577</v>
+      </c>
+      <c r="V92" t="n">
+        <v>13.16753064055169</v>
+      </c>
+      <c r="W92" t="n">
+        <v>10.31102624571219</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.856504394839495</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>212.01000000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>215.37000000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>210.36000000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>213.90000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>443494.67248000</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1588463999999</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>94389501.51781640</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>185802</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>225155.58197000</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>47928012.23135540</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2020-05-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>213.8999999999998</v>
+      </c>
+      <c r="N93" t="n">
+        <v>212.96</v>
+      </c>
+      <c r="O93" t="n">
+        <v>205.3314285714286</v>
+      </c>
+      <c r="P93" t="n">
+        <v>193.0466666666667</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>176.2516666666667</v>
+      </c>
+      <c r="R93" t="n">
+        <v>213.9</v>
+      </c>
+      <c r="S93" t="n">
+        <v>212.7201519701719</v>
+      </c>
+      <c r="T93" t="n">
+        <v>198.2079840037075</v>
+      </c>
+      <c r="U93" t="n">
+        <v>184.5384216022044</v>
+      </c>
+      <c r="V93" t="n">
+        <v>13.6695624015031</v>
+      </c>
+      <c r="W93" t="n">
+        <v>10.98273347768594</v>
+      </c>
+      <c r="X93" t="n">
+        <v>2.686828923817158</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>213.89000000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>219.30000000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>203.92000000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>209.86000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>748383.91311000</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1588550399999</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>158874887.07834110</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>268841</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>354161.96792000</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>75207830.89534740</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2020-05-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>209.8599999999998</v>
+      </c>
+      <c r="N94" t="n">
+        <v>211.88</v>
+      </c>
+      <c r="O94" t="n">
+        <v>207.1142857142857</v>
+      </c>
+      <c r="P94" t="n">
+        <v>194.5440000000001</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>178.5366666666667</v>
+      </c>
+      <c r="R94" t="n">
+        <v>209.86</v>
+      </c>
+      <c r="S94" t="n">
+        <v>210.8133839900573</v>
+      </c>
+      <c r="T94" t="n">
+        <v>200.0006021701216</v>
+      </c>
+      <c r="U94" t="n">
+        <v>186.4155565436485</v>
+      </c>
+      <c r="V94" t="n">
+        <v>13.58504562647306</v>
+      </c>
+      <c r="W94" t="n">
+        <v>11.50319590794891</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.081849718524152</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>209.86000000</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>210.65000000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>194.88000000</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>206.48000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1114249.32658000</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1588636799999</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>225451167.65536830</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>349701</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>553422.13712000</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>111948053.08533100</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2020-05-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>206.4799999999997</v>
+      </c>
+      <c r="N95" t="n">
+        <v>208.17</v>
+      </c>
+      <c r="O95" t="n">
+        <v>208.5628571428571</v>
+      </c>
+      <c r="P95" t="n">
+        <v>196.3073333333334</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>180.616</v>
+      </c>
+      <c r="R95" t="n">
+        <v>206.48</v>
+      </c>
+      <c r="S95" t="n">
+        <v>207.9244613300191</v>
+      </c>
+      <c r="T95" t="n">
+        <v>200.9974327564464</v>
+      </c>
+      <c r="U95" t="n">
+        <v>187.9028845502985</v>
+      </c>
+      <c r="V95" t="n">
+        <v>13.09454820614783</v>
+      </c>
+      <c r="W95" t="n">
+        <v>11.82146636783601</v>
+      </c>
+      <c r="X95" t="n">
+        <v>1.273081838311825</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>206.47000000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>211.68000000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>201.00000000</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>205.29000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>640644.66268000</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1588723199999</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>131906204.90781300</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>246124</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>310794.78031000</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>64025329.18628990</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2020-05-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>205.2899999999998</v>
+      </c>
+      <c r="N96" t="n">
+        <v>205.885</v>
+      </c>
+      <c r="O96" t="n">
+        <v>209.8557142857142</v>
+      </c>
+      <c r="P96" t="n">
+        <v>198.6466666666667</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>182.703</v>
+      </c>
+      <c r="R96" t="n">
+        <v>205.29</v>
+      </c>
+      <c r="S96" t="n">
+        <v>206.168153776673</v>
+      </c>
+      <c r="T96" t="n">
+        <v>201.6578278016165</v>
+      </c>
+      <c r="U96" t="n">
+        <v>189.191679877455</v>
+      </c>
+      <c r="V96" t="n">
+        <v>12.46614792416148</v>
+      </c>
+      <c r="W96" t="n">
+        <v>11.95040267918126</v>
+      </c>
+      <c r="X96" t="n">
+        <v>0.5157452449802182</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>205.30000000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>210.77000000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>197.71000000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>198.97000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>862700.67849000</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1588809599999</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>178157452.60084120</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>271299</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>411115.12204000</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>84998478.60793140</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2020-05-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>198.9699999999998</v>
+      </c>
+      <c r="N97" t="n">
+        <v>202.13</v>
+      </c>
+      <c r="O97" t="n">
+        <v>207.5142857142857</v>
+      </c>
+      <c r="P97" t="n">
+        <v>200.5286666666667</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>183.6246666666667</v>
+      </c>
+      <c r="R97" t="n">
+        <v>198.97</v>
+      </c>
+      <c r="S97" t="n">
+        <v>201.3693845922243</v>
+      </c>
+      <c r="T97" t="n">
+        <v>201.2443157873013</v>
+      </c>
+      <c r="U97" t="n">
+        <v>189.9164481348184</v>
+      </c>
+      <c r="V97" t="n">
+        <v>11.32786765248295</v>
+      </c>
+      <c r="W97" t="n">
+        <v>11.82589567377968</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-0.4980280212967259</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>198.92000000</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>215.10000000</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>196.43000000</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>212.00000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1305778.73764000</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1588895999999</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>271197927.66502780</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>380313</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>660789.67892000</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>137272634.80833200</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2020-05-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>211.9999999999998</v>
+      </c>
+      <c r="N98" t="n">
+        <v>205.485</v>
+      </c>
+      <c r="O98" t="n">
+        <v>208.36</v>
+      </c>
+      <c r="P98" t="n">
+        <v>202.4820000000001</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>185.2036666666667</v>
+      </c>
+      <c r="R98" t="n">
+        <v>212</v>
+      </c>
+      <c r="S98" t="n">
+        <v>208.4564615307414</v>
+      </c>
+      <c r="T98" t="n">
+        <v>202.8990365872222</v>
+      </c>
+      <c r="U98" t="n">
+        <v>191.5532040937246</v>
+      </c>
+      <c r="V98" t="n">
+        <v>11.34583249349754</v>
+      </c>
+      <c r="W98" t="n">
+        <v>11.72988303768505</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-0.3840505441875113</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>212.01000000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>216.61000000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>206.90000000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>211.31000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>917908.19440000</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1588982399999</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>194579529.42776330</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>262122</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>445600.39696000</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>94465691.13477140</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2020-05-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>211.3099999999998</v>
+      </c>
+      <c r="N99" t="n">
+        <v>211.655</v>
+      </c>
+      <c r="O99" t="n">
+        <v>208.2585714285714</v>
+      </c>
+      <c r="P99" t="n">
+        <v>204.2020000000001</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>186.477</v>
+      </c>
+      <c r="R99" t="n">
+        <v>211.31</v>
+      </c>
+      <c r="S99" t="n">
+        <v>210.3588205102471</v>
+      </c>
+      <c r="T99" t="n">
+        <v>204.1930310588727</v>
+      </c>
+      <c r="U99" t="n">
+        <v>193.0174468562973</v>
+      </c>
+      <c r="V99" t="n">
+        <v>11.17558420257544</v>
+      </c>
+      <c r="W99" t="n">
+        <v>11.61902327062784</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-0.4434390680524061</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>211.32000000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>214.60000000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>208.40000000</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>210.07000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>587871.98073000</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1589068799999</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>124626471.42703530</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>194059</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>292187.26718000</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>61966403.94492970</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2020-05-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>210.0699999999998</v>
+      </c>
+      <c r="N100" t="n">
+        <v>210.6899999999999</v>
+      </c>
+      <c r="O100" t="n">
+        <v>207.7114285714285</v>
+      </c>
+      <c r="P100" t="n">
+        <v>205.7006666666668</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>187.8286666666667</v>
+      </c>
+      <c r="R100" t="n">
+        <v>210.07</v>
+      </c>
+      <c r="S100" t="n">
+        <v>210.1662735034157</v>
+      </c>
+      <c r="T100" t="n">
+        <v>205.0971801861299</v>
+      </c>
+      <c r="U100" t="n">
+        <v>194.2812194057821</v>
+      </c>
+      <c r="V100" t="n">
+        <v>10.81596078034775</v>
+      </c>
+      <c r="W100" t="n">
+        <v>11.45841077253093</v>
+      </c>
+      <c r="X100" t="n">
+        <v>-0.6424499921831757</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>210.09000000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>210.18000000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>179.59000000</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>187.54000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1473226.05475000</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1589155199999</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>278394290.75973460</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>426358</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>694788.42914000</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>131143494.26749300</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2020-05-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>187.5399999999998</v>
+      </c>
+      <c r="N101" t="n">
+        <v>198.8049999999999</v>
+      </c>
+      <c r="O101" t="n">
+        <v>204.5228571428571</v>
+      </c>
+      <c r="P101" t="n">
+        <v>205.2560000000001</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>188.8196666666666</v>
+      </c>
+      <c r="R101" t="n">
+        <v>187.54</v>
+      </c>
+      <c r="S101" t="n">
+        <v>195.0820911678053</v>
+      </c>
+      <c r="T101" t="n">
+        <v>202.3960753919774</v>
+      </c>
+      <c r="U101" t="n">
+        <v>193.7816427152093</v>
+      </c>
+      <c r="V101" t="n">
+        <v>8.614432676768047</v>
+      </c>
+      <c r="W101" t="n">
+        <v>10.88961515326248</v>
+      </c>
+      <c r="X101" t="n">
+        <v>-2.275182476494438</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>187.62000000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>193.50000000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>176.00000000</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>185.73000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1093299.81927000</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1589241599999</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>203391530.20617390</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>303669</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>529158.74668000</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>98465728.22507510</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2020-05-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>185.7299999999998</v>
+      </c>
+      <c r="N102" t="n">
+        <v>186.6349999999999</v>
+      </c>
+      <c r="O102" t="n">
+        <v>201.5585714285714</v>
+      </c>
+      <c r="P102" t="n">
+        <v>204.4793333333334</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>189.733</v>
+      </c>
+      <c r="R102" t="n">
+        <v>185.73</v>
+      </c>
+      <c r="S102" t="n">
+        <v>188.8473637226017</v>
+      </c>
+      <c r="T102" t="n">
+        <v>199.832063672624</v>
+      </c>
+      <c r="U102" t="n">
+        <v>193.1849735856791</v>
+      </c>
+      <c r="V102" t="n">
+        <v>6.647090086944928</v>
+      </c>
+      <c r="W102" t="n">
+        <v>10.0411101398607</v>
+      </c>
+      <c r="X102" t="n">
+        <v>-3.394020052915771</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>185.80000000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>192.24000000</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>185.48000000</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>189.76000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>669755.79567000</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1589327999999</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>126810812.16817080</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>193978</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>336075.30552000</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>63647040.81413890</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2020-05-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>189.7599999999998</v>
+      </c>
+      <c r="N103" t="n">
+        <v>187.7449999999999</v>
+      </c>
+      <c r="O103" t="n">
+        <v>199.34</v>
+      </c>
+      <c r="P103" t="n">
+        <v>204.0406666666668</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>190.772</v>
+      </c>
+      <c r="R103" t="n">
+        <v>189.76</v>
+      </c>
+      <c r="S103" t="n">
+        <v>189.4557879075339</v>
+      </c>
+      <c r="T103" t="n">
+        <v>198.2825153536325</v>
+      </c>
+      <c r="U103" t="n">
+        <v>192.9311729218747</v>
+      </c>
+      <c r="V103" t="n">
+        <v>5.351342431757757</v>
+      </c>
+      <c r="W103" t="n">
+        <v>9.103156598117829</v>
+      </c>
+      <c r="X103" t="n">
+        <v>-3.751814166360072</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>189.77000000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>201.00000000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>188.35000000</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>199.58000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>806143.00704000</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1589414399999</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>156637596.36492460</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>212710</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>410843.35618000</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>79791107.72434880</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2020-05-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>199.5799999999998</v>
+      </c>
+      <c r="N104" t="n">
+        <v>194.6699999999999</v>
+      </c>
+      <c r="O104" t="n">
+        <v>199.4271428571428</v>
+      </c>
+      <c r="P104" t="n">
+        <v>204.2633333333334</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>192.215</v>
+      </c>
+      <c r="R104" t="n">
+        <v>199.58</v>
+      </c>
+      <c r="S104" t="n">
+        <v>196.2052626358446</v>
+      </c>
+      <c r="T104" t="n">
+        <v>198.4821283828721</v>
+      </c>
+      <c r="U104" t="n">
+        <v>193.4238564270467</v>
+      </c>
+      <c r="V104" t="n">
+        <v>5.058271955825461</v>
+      </c>
+      <c r="W104" t="n">
+        <v>8.294179669574982</v>
+      </c>
+      <c r="X104" t="n">
+        <v>-3.235907713749521</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>199.61000000</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>206.02000000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>195.67000000</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>203.29000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1114700.24937000</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1589500799999</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>224233786.12670990</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>285245</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>557166.15035000</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>112099049.73738440</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2020-05-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>203.2899999999998</v>
+      </c>
+      <c r="N105" t="n">
+        <v>201.4349999999999</v>
+      </c>
+      <c r="O105" t="n">
+        <v>198.1828571428571</v>
+      </c>
+      <c r="P105" t="n">
+        <v>203.4586666666668</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>193.7096666666666</v>
+      </c>
+      <c r="R105" t="n">
+        <v>203.29</v>
+      </c>
+      <c r="S105" t="n">
+        <v>200.9284208786149</v>
+      </c>
+      <c r="T105" t="n">
+        <v>199.2218009604285</v>
+      </c>
+      <c r="U105" t="n">
+        <v>194.1549261570753</v>
+      </c>
+      <c r="V105" t="n">
+        <v>5.066874803353187</v>
+      </c>
+      <c r="W105" t="n">
+        <v>7.648718696276768</v>
+      </c>
+      <c r="X105" t="n">
+        <v>-2.581843892923581</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>203.29000000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>204.08000000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>191.66000000</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>194.86000000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>904749.63570000</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1589587199999</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>179634085.62276920</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>230721</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>437768.77270000</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>86944450.76006710</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2020-05-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>194.8599999999998</v>
+      </c>
+      <c r="N106" t="n">
+        <v>199.0749999999999</v>
+      </c>
+      <c r="O106" t="n">
+        <v>195.8328571428571</v>
+      </c>
+      <c r="P106" t="n">
+        <v>202.7106666666668</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>195.114</v>
+      </c>
+      <c r="R106" t="n">
+        <v>194.86</v>
+      </c>
+      <c r="S106" t="n">
+        <v>196.8828069595383</v>
+      </c>
+      <c r="T106" t="n">
+        <v>198.5507546426458</v>
+      </c>
+      <c r="U106" t="n">
+        <v>194.207170012848</v>
+      </c>
+      <c r="V106" t="n">
+        <v>4.343584629797789</v>
+      </c>
+      <c r="W106" t="n">
+        <v>6.987691882936851</v>
+      </c>
+      <c r="X106" t="n">
+        <v>-2.644107253139062</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>194.87000000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>203.50000000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>193.21000000</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>200.45000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>669900.03754000</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1589673599999</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>134060788.49418390</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>174447</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>343539.34568000</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>68751336.84186420</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2020-05-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>200.4499999999997</v>
+      </c>
+      <c r="N107" t="n">
+        <v>197.6549999999999</v>
+      </c>
+      <c r="O107" t="n">
+        <v>194.4585714285714</v>
+      </c>
+      <c r="P107" t="n">
+        <v>201.9393333333334</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>196.0526666666666</v>
+      </c>
+      <c r="R107" t="n">
+        <v>200.45</v>
+      </c>
+      <c r="S107" t="n">
+        <v>199.2609356531794</v>
+      </c>
+      <c r="T107" t="n">
+        <v>198.8429462420456</v>
+      </c>
+      <c r="U107" t="n">
+        <v>194.6697343754064</v>
+      </c>
+      <c r="V107" t="n">
+        <v>4.173211866639235</v>
+      </c>
+      <c r="W107" t="n">
+        <v>6.424795879647268</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-2.251584013008032</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>200.44000000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>209.85000000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>199.68000000</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>207.00000000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>708711.89315000</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1589759999999</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>145341278.68135490</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>180088</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>369150.31059000</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>75677871.47041410</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2020-05-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>206.9999999999997</v>
+      </c>
+      <c r="N108" t="n">
+        <v>203.7249999999999</v>
+      </c>
+      <c r="O108" t="n">
+        <v>197.2385714285714</v>
+      </c>
+      <c r="P108" t="n">
+        <v>201.4793333333334</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>197.263</v>
+      </c>
+      <c r="R108" t="n">
+        <v>207</v>
+      </c>
+      <c r="S108" t="n">
+        <v>204.4203118843932</v>
+      </c>
+      <c r="T108" t="n">
+        <v>200.0978776110852</v>
+      </c>
+      <c r="U108" t="n">
+        <v>195.5833297173458</v>
+      </c>
+      <c r="V108" t="n">
+        <v>4.514547893739433</v>
+      </c>
+      <c r="W108" t="n">
+        <v>6.042746282449381</v>
+      </c>
+      <c r="X108" t="n">
+        <v>-1.528198388709948</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>207.02000000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>217.07000000</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>207.00000000</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>214.91000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1064139.24850000</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1589846399999</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>226789027.15008040</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>249528</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>538438.67639000</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>114784967.15147500</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2020-05-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>214.9099999999997</v>
+      </c>
+      <c r="N109" t="n">
+        <v>210.9549999999998</v>
+      </c>
+      <c r="O109" t="n">
+        <v>201.4071428571429</v>
+      </c>
+      <c r="P109" t="n">
+        <v>201.8160000000001</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>198.18</v>
+      </c>
+      <c r="R109" t="n">
+        <v>214.91</v>
+      </c>
+      <c r="S109" t="n">
+        <v>211.4134372947977</v>
+      </c>
+      <c r="T109" t="n">
+        <v>202.376665704202</v>
+      </c>
+      <c r="U109" t="n">
+        <v>197.015286616978</v>
+      </c>
+      <c r="V109" t="n">
+        <v>5.361379087223924</v>
+      </c>
+      <c r="W109" t="n">
+        <v>5.906472843399632</v>
+      </c>
+      <c r="X109" t="n">
+        <v>-0.5450937561757083</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>214.92000000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>215.95000000</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>209.45000000</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>214.58000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>643702.98849000</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1589932799999</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>136846948.55680560</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>186027</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>319009.59630000</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>67835348.16258670</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2020-05-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>214.5799999999998</v>
+      </c>
+      <c r="N110" t="n">
+        <v>214.7449999999998</v>
+      </c>
+      <c r="O110" t="n">
+        <v>204.9528571428571</v>
+      </c>
+      <c r="P110" t="n">
+        <v>202.3560000000001</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>199.3316666666666</v>
+      </c>
+      <c r="R110" t="n">
+        <v>214.58</v>
+      </c>
+      <c r="S110" t="n">
+        <v>213.5244790982659</v>
+      </c>
+      <c r="T110" t="n">
+        <v>204.2541017729123</v>
+      </c>
+      <c r="U110" t="n">
+        <v>198.3166724460986</v>
+      </c>
+      <c r="V110" t="n">
+        <v>5.937429326813657</v>
+      </c>
+      <c r="W110" t="n">
+        <v>5.912664140082607</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.02476518673104966</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>214.60000000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>215.75000000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>204.27000000</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>209.98000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>679532.61037000</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1590019199999</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>143704806.17524080</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>195172</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>330890.78825000</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>70009379.65600590</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2020-05-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>209.9799999999998</v>
+      </c>
+      <c r="N111" t="n">
+        <v>212.2799999999999</v>
+      </c>
+      <c r="O111" t="n">
+        <v>206.4385714285715</v>
+      </c>
+      <c r="P111" t="n">
+        <v>202.6686666666668</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>200.6576666666666</v>
+      </c>
+      <c r="R111" t="n">
+        <v>209.98</v>
+      </c>
+      <c r="S111" t="n">
+        <v>211.1614930327553</v>
+      </c>
+      <c r="T111" t="n">
+        <v>205.1350092016763</v>
+      </c>
+      <c r="U111" t="n">
+        <v>199.1808045915599</v>
+      </c>
+      <c r="V111" t="n">
+        <v>5.954204610116392</v>
+      </c>
+      <c r="W111" t="n">
+        <v>5.920972234089546</v>
+      </c>
+      <c r="X111" t="n">
+        <v>0.03323237602684603</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>209.99000000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>211.64000000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>191.71000000</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>198.74000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1003923.43420000</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1590105599999</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>203445710.96284490</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>258415</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>479372.00860000</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>97136468.80798330</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2020-05-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>198.7399999999998</v>
+      </c>
+      <c r="N112" t="n">
+        <v>204.3599999999998</v>
+      </c>
+      <c r="O112" t="n">
+        <v>205.7885714285715</v>
+      </c>
+      <c r="P112" t="n">
+        <v>202.6533333333334</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>201.591</v>
+      </c>
+      <c r="R112" t="n">
+        <v>198.74</v>
+      </c>
+      <c r="S112" t="n">
+        <v>202.8804976775851</v>
+      </c>
+      <c r="T112" t="n">
+        <v>204.1511616234819</v>
+      </c>
+      <c r="U112" t="n">
+        <v>199.1481460322214</v>
+      </c>
+      <c r="V112" t="n">
+        <v>5.003015591260549</v>
+      </c>
+      <c r="W112" t="n">
+        <v>5.737380905520533</v>
+      </c>
+      <c r="X112" t="n">
+        <v>-0.7343653142599837</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>198.72000000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>209.19000000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>196.24000000</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>207.36000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>787672.36081000</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1590191999999</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>159972608.53416610</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>217659</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>399523.04157000</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>81120762.57728450</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2020-05-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>207.3599999999998</v>
+      </c>
+      <c r="N113" t="n">
+        <v>203.0499999999998</v>
+      </c>
+      <c r="O113" t="n">
+        <v>207.5742857142857</v>
+      </c>
+      <c r="P113" t="n">
+        <v>202.3440000000001</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>202.413</v>
+      </c>
+      <c r="R113" t="n">
+        <v>207.36</v>
+      </c>
+      <c r="S113" t="n">
+        <v>205.866832559195</v>
+      </c>
+      <c r="T113" t="n">
+        <v>204.6448290697194</v>
+      </c>
+      <c r="U113" t="n">
+        <v>199.7565413423933</v>
+      </c>
+      <c r="V113" t="n">
+        <v>4.888287727326087</v>
+      </c>
+      <c r="W113" t="n">
+        <v>5.567562269879267</v>
+      </c>
+      <c r="X113" t="n">
+        <v>-0.6792745425531796</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>207.36000000</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>211.20000000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>204.55000000</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>206.60000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>478559.92006000</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1590278399999</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>99461068.10466470</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>150729</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>237372.30187000</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>49341950.41533750</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2020-05-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>206.5999999999998</v>
+      </c>
+      <c r="N114" t="n">
+        <v>206.9799999999998</v>
+      </c>
+      <c r="O114" t="n">
+        <v>208.4528571428571</v>
+      </c>
+      <c r="P114" t="n">
+        <v>202.0300000000001</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>203.116</v>
+      </c>
+      <c r="R114" t="n">
+        <v>206.6</v>
+      </c>
+      <c r="S114" t="n">
+        <v>206.355610853065</v>
+      </c>
+      <c r="T114" t="n">
+        <v>204.9456245993605</v>
+      </c>
+      <c r="U114" t="n">
+        <v>200.2635489540469</v>
+      </c>
+      <c r="V114" t="n">
+        <v>4.682075645313631</v>
+      </c>
+      <c r="W114" t="n">
+        <v>5.390464944964156</v>
+      </c>
+      <c r="X114" t="n">
+        <v>-0.7083892996505252</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>206.60000000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>210.55000000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>199.50000000</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>199.90000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>673535.05784000</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1590364799999</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>138917619.23362070</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>204534</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>324023.32350000</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>66890503.37754660</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2020-05-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>199.8999999999998</v>
+      </c>
+      <c r="N115" t="n">
+        <v>203.2499999999998</v>
+      </c>
+      <c r="O115" t="n">
+        <v>207.4385714285714</v>
+      </c>
+      <c r="P115" t="n">
+        <v>201.3520000000001</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>203.5263333333333</v>
+      </c>
+      <c r="R115" t="n">
+        <v>199.9</v>
+      </c>
+      <c r="S115" t="n">
+        <v>202.051870284355</v>
+      </c>
+      <c r="T115" t="n">
+        <v>204.1693746568361</v>
+      </c>
+      <c r="U115" t="n">
+        <v>200.2366152333144</v>
+      </c>
+      <c r="V115" t="n">
+        <v>3.932759423521674</v>
+      </c>
+      <c r="W115" t="n">
+        <v>5.098923840673049</v>
+      </c>
+      <c r="X115" t="n">
+        <v>-1.166164417151375</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>199.90000000</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>205.67000000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>198.01000000</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>204.15000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>469931.62492000</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1590451199999</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>95411610.79763470</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>171792</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>243595.47559000</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>49464529.60504250</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2020-05-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>204.1499999999998</v>
+      </c>
+      <c r="N116" t="n">
+        <v>202.0249999999998</v>
+      </c>
+      <c r="O116" t="n">
+        <v>205.9014285714286</v>
+      </c>
+      <c r="P116" t="n">
+        <v>202.4593333333334</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>203.8576666666666</v>
+      </c>
+      <c r="R116" t="n">
+        <v>204.15</v>
+      </c>
+      <c r="S116" t="n">
+        <v>203.4506234281183</v>
+      </c>
+      <c r="T116" t="n">
+        <v>204.1663939403863</v>
+      </c>
+      <c r="U116" t="n">
+        <v>200.5265371343085</v>
+      </c>
+      <c r="V116" t="n">
+        <v>3.639856806077802</v>
+      </c>
+      <c r="W116" t="n">
+        <v>4.807110433751907</v>
+      </c>
+      <c r="X116" t="n">
+        <v>-1.167253627674105</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>204.22000000</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>205.00000000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>196.90000000</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>200.89000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>477176.73530000</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1590537599999</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>96116808.85809130</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>167702</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>233833.77929000</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>47132325.29336320</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>2020-05-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>200.8899999999997</v>
+      </c>
+      <c r="N117" t="n">
+        <v>202.5199999999998</v>
+      </c>
+      <c r="O117" t="n">
+        <v>203.9457142857143</v>
+      </c>
+      <c r="P117" t="n">
+        <v>203.4700000000001</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>203.9746666666666</v>
+      </c>
+      <c r="R117" t="n">
+        <v>200.89</v>
+      </c>
+      <c r="S117" t="n">
+        <v>201.7435411427061</v>
+      </c>
+      <c r="T117" t="n">
+        <v>203.6623333322383</v>
+      </c>
+      <c r="U117" t="n">
+        <v>200.5534638825059</v>
+      </c>
+      <c r="V117" t="n">
+        <v>3.108869449732452</v>
+      </c>
+      <c r="W117" t="n">
+        <v>4.467462236946069</v>
+      </c>
+      <c r="X117" t="n">
+        <v>-1.358592787213617</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>200.92000000</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>208.44000000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>200.76000000</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>208.29000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>494816.72727000</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1590623999999</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>101445351.02566320</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>167619</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>252824.22653000</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>51832733.59846020</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>2020-05-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>208.2899999999997</v>
+      </c>
+      <c r="N118" t="n">
+        <v>204.5899999999998</v>
+      </c>
+      <c r="O118" t="n">
+        <v>203.7042857142857</v>
+      </c>
+      <c r="P118" t="n">
+        <v>204.7053333333334</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>204.373</v>
+      </c>
+      <c r="R118" t="n">
+        <v>208.29</v>
+      </c>
+      <c r="S118" t="n">
+        <v>206.1078470475687</v>
+      </c>
+      <c r="T118" t="n">
+        <v>204.3742820526677</v>
+      </c>
+      <c r="U118" t="n">
+        <v>201.1266110504481</v>
+      </c>
+      <c r="V118" t="n">
+        <v>3.24767100221959</v>
+      </c>
+      <c r="W118" t="n">
+        <v>4.223503989999654</v>
+      </c>
+      <c r="X118" t="n">
+        <v>-0.9758329877800636</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>208.29000000</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>220.50000000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>204.67000000</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>220.21000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>643945.97769000</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1590710399999</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>136361627.34641550</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>219160</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>352366.88360000</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>74663823.75714590</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>2020-05-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>220.2099999999998</v>
+      </c>
+      <c r="N119" t="n">
+        <v>214.2499999999998</v>
+      </c>
+      <c r="O119" t="n">
+        <v>206.7714285714285</v>
+      </c>
+      <c r="P119" t="n">
+        <v>206.0806666666668</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>205.172</v>
+      </c>
+      <c r="R119" t="n">
+        <v>220.21</v>
+      </c>
+      <c r="S119" t="n">
+        <v>215.5092823491896</v>
+      </c>
+      <c r="T119" t="n">
+        <v>206.8105463589522</v>
+      </c>
+      <c r="U119" t="n">
+        <v>202.5403562474271</v>
+      </c>
+      <c r="V119" t="n">
+        <v>4.270190111525125</v>
+      </c>
+      <c r="W119" t="n">
+        <v>4.232841214304782</v>
+      </c>
+      <c r="X119" t="n">
+        <v>0.03734889722034218</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>220.24000000</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>224.79000000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>217.57000000</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>220.67000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>603058.07590000</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1590796799999</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>133220045.49547060</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>217959</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>301826.51829000</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>66680504.40036720</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>2020-05-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>220.6699999999998</v>
+      </c>
+      <c r="N120" t="n">
+        <v>220.4399999999998</v>
+      </c>
+      <c r="O120" t="n">
+        <v>208.6728571428571</v>
+      </c>
+      <c r="P120" t="n">
+        <v>207.2393333333335</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>205.349</v>
+      </c>
+      <c r="R120" t="n">
+        <v>220.67</v>
+      </c>
+      <c r="S120" t="n">
+        <v>218.9497607830632</v>
+      </c>
+      <c r="T120" t="n">
+        <v>208.9427700009944</v>
+      </c>
+      <c r="U120" t="n">
+        <v>203.8834342949474</v>
+      </c>
+      <c r="V120" t="n">
+        <v>5.059335706047079</v>
+      </c>
+      <c r="W120" t="n">
+        <v>4.398140112653727</v>
+      </c>
+      <c r="X120" t="n">
+        <v>0.6611955933933524</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>220.63000000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>247.00000000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>218.80000000</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>243.66000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1019550.75146000</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1590883199999</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>238678839.80930440</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>341862</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>511425.44765000</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>119730479.77167950</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>2020-05-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>243.6599999999998</v>
+      </c>
+      <c r="N121" t="n">
+        <v>232.1649999999998</v>
+      </c>
+      <c r="O121" t="n">
+        <v>213.9671428571429</v>
+      </c>
+      <c r="P121" t="n">
+        <v>210.4926666666668</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>206.6016666666666</v>
+      </c>
+      <c r="R121" t="n">
+        <v>243.66</v>
+      </c>
+      <c r="S121" t="n">
+        <v>235.4232535943544</v>
+      </c>
+      <c r="T121" t="n">
+        <v>214.2838823190425</v>
+      </c>
+      <c r="U121" t="n">
+        <v>206.8301339683718</v>
+      </c>
+      <c r="V121" t="n">
+        <v>7.453748350670764</v>
+      </c>
+      <c r="W121" t="n">
+        <v>5.009261760258569</v>
+      </c>
+      <c r="X121" t="n">
+        <v>2.444486590412195</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>243.71000000</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>245.39000000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>229.58000000</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>231.57000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>821608.68884000</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1590969599999</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>194867426.29418620</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>320066</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>381831.06077000</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>90551397.67858910</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>2020-05-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>231.5699999999998</v>
+      </c>
+      <c r="N122" t="n">
+        <v>237.6149999999998</v>
+      </c>
+      <c r="O122" t="n">
+        <v>218.4914285714286</v>
+      </c>
+      <c r="P122" t="n">
+        <v>212.5673333333335</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>207.2533333333333</v>
+      </c>
+      <c r="R122" t="n">
+        <v>231.57</v>
+      </c>
+      <c r="S122" t="n">
+        <v>232.8544178647848</v>
+      </c>
+      <c r="T122" t="n">
+        <v>216.9432850436173</v>
+      </c>
+      <c r="U122" t="n">
+        <v>208.6628821489607</v>
+      </c>
+      <c r="V122" t="n">
+        <v>8.280402894656532</v>
+      </c>
+      <c r="W122" t="n">
+        <v>5.663489987139392</v>
+      </c>
+      <c r="X122" t="n">
+        <v>2.616912907517141</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>231.56000000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>250.68000000</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>230.66000000</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>248.23000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>823816.69936000</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1591055999999</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>198791911.84704420</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>318497</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>426075.31776000</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>102865011.74578850</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>2020-06-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>248.2299999999998</v>
+      </c>
+      <c r="N123" t="n">
+        <v>239.8999999999999</v>
+      </c>
+      <c r="O123" t="n">
+        <v>224.7885714285714</v>
+      </c>
+      <c r="P123" t="n">
+        <v>215.3160000000001</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>208.3976666666666</v>
+      </c>
+      <c r="R123" t="n">
+        <v>248.23</v>
+      </c>
+      <c r="S123" t="n">
+        <v>243.1048059549283</v>
+      </c>
+      <c r="T123" t="n">
+        <v>221.7566258129183</v>
+      </c>
+      <c r="U123" t="n">
+        <v>211.5940248650075</v>
+      </c>
+      <c r="V123" t="n">
+        <v>10.16260094791073</v>
+      </c>
+      <c r="W123" t="n">
+        <v>6.563312179295012</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.599288768615721</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>248.23000000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>253.80000000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>225.00000000</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>237.71000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>955520.91863000</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1591142399999</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>230680327.30929150</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>355417</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>462682.15945000</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>111744961.57192750</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>2020-06-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>237.7099999999998</v>
+      </c>
+      <c r="N124" t="n">
+        <v>242.9699999999999</v>
+      </c>
+      <c r="O124" t="n">
+        <v>230.0485714285714</v>
+      </c>
+      <c r="P124" t="n">
+        <v>216.8360000000002</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>209.326</v>
+      </c>
+      <c r="R124" t="n">
+        <v>237.71</v>
+      </c>
+      <c r="S124" t="n">
+        <v>239.5082686516428</v>
+      </c>
+      <c r="T124" t="n">
+        <v>224.2109910753948</v>
+      </c>
+      <c r="U124" t="n">
+        <v>213.5286913321422</v>
+      </c>
+      <c r="V124" t="n">
+        <v>10.68229974325263</v>
+      </c>
+      <c r="W124" t="n">
+        <v>7.387109692087526</v>
+      </c>
+      <c r="X124" t="n">
+        <v>3.295190051165102</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>237.71000000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>245.00000000</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>232.71000000</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>244.52000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>502928.13371000</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1591228799999</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>120179301.17898640</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>213792</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>259904.04578000</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>62129185.47385130</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>2020-06-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>244.5199999999998</v>
+      </c>
+      <c r="N125" t="n">
+        <v>241.1149999999999</v>
+      </c>
+      <c r="O125" t="n">
+        <v>235.2242857142857</v>
+      </c>
+      <c r="P125" t="n">
+        <v>218.8320000000002</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>210.594</v>
+      </c>
+      <c r="R125" t="n">
+        <v>244.52</v>
+      </c>
+      <c r="S125" t="n">
+        <v>242.8494228838809</v>
+      </c>
+      <c r="T125" t="n">
+        <v>227.3354539900239</v>
+      </c>
+      <c r="U125" t="n">
+        <v>215.8245084115693</v>
+      </c>
+      <c r="V125" t="n">
+        <v>11.51094557845457</v>
+      </c>
+      <c r="W125" t="n">
+        <v>8.211876869361728</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3.29906870909284</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>244.54000000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>246.60000000</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>236.00000000</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>243.21000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>669369.33920000</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1591315199999</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>162460397.62767410</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>253226</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>332175.55769000</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>80659519.34918510</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>2020-06-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>243.2099999999998</v>
+      </c>
+      <c r="N126" t="n">
+        <v>243.8649999999999</v>
+      </c>
+      <c r="O126" t="n">
+        <v>238.51</v>
+      </c>
+      <c r="P126" t="n">
+        <v>221.0473333333335</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>211.858</v>
+      </c>
+      <c r="R126" t="n">
+        <v>243.21</v>
+      </c>
+      <c r="S126" t="n">
+        <v>243.0898076279603</v>
+      </c>
+      <c r="T126" t="n">
+        <v>229.7776918397968</v>
+      </c>
+      <c r="U126" t="n">
+        <v>217.8531980063885</v>
+      </c>
+      <c r="V126" t="n">
+        <v>11.92449383340835</v>
+      </c>
+      <c r="W126" t="n">
+        <v>8.954400262171623</v>
+      </c>
+      <c r="X126" t="n">
+        <v>2.970093571236726</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>243.22000000</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>247.87000000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>239.14000000</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>240.03000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>502547.41103000</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1591401599999</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>122084004.51697550</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>205337</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>242309.99059000</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>58916816.25847680</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>2020-06-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>240.0299999999998</v>
+      </c>
+      <c r="N127" t="n">
+        <v>241.6199999999999</v>
+      </c>
+      <c r="O127" t="n">
+        <v>241.2757142857143</v>
+      </c>
+      <c r="P127" t="n">
+        <v>223.8000000000002</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>213.2266666666666</v>
+      </c>
+      <c r="R127" t="n">
+        <v>240.03</v>
+      </c>
+      <c r="S127" t="n">
+        <v>241.0499358759868</v>
+      </c>
+      <c r="T127" t="n">
+        <v>231.3549700194286</v>
+      </c>
+      <c r="U127" t="n">
+        <v>219.4960250514532</v>
+      </c>
+      <c r="V127" t="n">
+        <v>11.85894496797545</v>
+      </c>
+      <c r="W127" t="n">
+        <v>9.535309203332744</v>
+      </c>
+      <c r="X127" t="n">
+        <v>2.323635764642702</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>240.04000000</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>244.70000000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>237.83000000</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>241.94000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>389423.07798000</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1591487999999</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>93979350.81263390</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>161709</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>198723.53956000</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>47973780.54283710</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>2020-06-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>241.9399999999998</v>
+      </c>
+      <c r="N128" t="n">
+        <v>240.9849999999999</v>
+      </c>
+      <c r="O128" t="n">
+        <v>241.03</v>
+      </c>
+      <c r="P128" t="n">
+        <v>226.1053333333335</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>214.2246666666666</v>
+      </c>
+      <c r="R128" t="n">
+        <v>241.94</v>
+      </c>
+      <c r="S128" t="n">
+        <v>241.6433119586623</v>
+      </c>
+      <c r="T128" t="n">
+        <v>232.9834361712808</v>
+      </c>
+      <c r="U128" t="n">
+        <v>221.1586363323111</v>
+      </c>
+      <c r="V128" t="n">
+        <v>11.82479983896971</v>
+      </c>
+      <c r="W128" t="n">
+        <v>9.993207330460363</v>
+      </c>
+      <c r="X128" t="n">
+        <v>1.831592508509347</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>241.94000000</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>245.37000000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>234.60000000</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>244.56000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>571102.55515000</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1591574399999</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>137165732.64761660</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>226478</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>285159.65388000</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>68517428.42271850</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>2020-06-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>244.5599999999998</v>
+      </c>
+      <c r="N129" t="n">
+        <v>243.2499999999999</v>
+      </c>
+      <c r="O129" t="n">
+        <v>242.8857142857143</v>
+      </c>
+      <c r="P129" t="n">
+        <v>228.6360000000002</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>215.333</v>
+      </c>
+      <c r="R129" t="n">
+        <v>244.56</v>
+      </c>
+      <c r="S129" t="n">
+        <v>243.5877706528874</v>
+      </c>
+      <c r="T129" t="n">
+        <v>234.7644459920046</v>
+      </c>
+      <c r="U129" t="n">
+        <v>222.8921620240754</v>
+      </c>
+      <c r="V129" t="n">
+        <v>11.87228396792921</v>
+      </c>
+      <c r="W129" t="n">
+        <v>10.36902265795428</v>
+      </c>
+      <c r="X129" t="n">
+        <v>1.503261309974928</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>244.57000000</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>247.70000000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>240.59000000</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>246.40000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>383116.54719000</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1591660799999</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>93355224.96830870</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>159981</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>193451.07601000</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>47159340.96864370</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>2020-06-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>246.3999999999998</v>
+      </c>
+      <c r="N130" t="n">
+        <v>245.4799999999999</v>
+      </c>
+      <c r="O130" t="n">
+        <v>242.6242857142857</v>
+      </c>
+      <c r="P130" t="n">
+        <v>231.7360000000002</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>216.544</v>
+      </c>
+      <c r="R130" t="n">
+        <v>246.4</v>
+      </c>
+      <c r="S130" t="n">
+        <v>245.4625902176291</v>
+      </c>
+      <c r="T130" t="n">
+        <v>236.5545312247871</v>
+      </c>
+      <c r="U130" t="n">
+        <v>224.6335683197628</v>
+      </c>
+      <c r="V130" t="n">
+        <v>11.92096290502431</v>
+      </c>
+      <c r="W130" t="n">
+        <v>10.67941070736838</v>
+      </c>
+      <c r="X130" t="n">
+        <v>1.241552197655928</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>246.37000000</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>249.82000000</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>238.00000000</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>243.80000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>420327.17133000</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1591747199999</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>102374504.57389720</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>185974</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>202641.07177000</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>49369436.33086970</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>2020-06-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>243.7999999999998</v>
+      </c>
+      <c r="N131" t="n">
+        <v>245.0999999999999</v>
+      </c>
+      <c r="O131" t="n">
+        <v>243.4942857142857</v>
+      </c>
+      <c r="P131" t="n">
+        <v>234.3793333333335</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>218.4193333333333</v>
+      </c>
+      <c r="R131" t="n">
+        <v>243.8</v>
+      </c>
+      <c r="S131" t="n">
+        <v>244.3541967392097</v>
+      </c>
+      <c r="T131" t="n">
+        <v>237.6692187290786</v>
+      </c>
+      <c r="U131" t="n">
+        <v>226.0533681412496</v>
+      </c>
+      <c r="V131" t="n">
+        <v>11.61585058782899</v>
+      </c>
+      <c r="W131" t="n">
+        <v>10.86669868346055</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.7491519043684356</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>243.79000000</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>244.88000000</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>242.20000000</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>243.26000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>143398.51855000</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1591833599999</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>34922579.34856620</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>70298</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>67192.29042000</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>16365116.18958130</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>2020-06-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>243.2599999999998</v>
+      </c>
+      <c r="N132" t="n">
+        <v>243.5299999999999</v>
+      </c>
+      <c r="O132" t="n">
+        <v>243.3142857142857</v>
+      </c>
+      <c r="P132" t="n">
+        <v>237.2040000000002</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>220.337</v>
+      </c>
+      <c r="R132" t="n">
+        <v>243.26</v>
+      </c>
+      <c r="S132" t="n">
+        <v>243.6247322464032</v>
+      </c>
+      <c r="T132" t="n">
+        <v>238.5293389248744</v>
+      </c>
+      <c r="U132" t="n">
+        <v>227.3279867814382</v>
+      </c>
+      <c r="V132" t="n">
+        <v>11.20135214343622</v>
+      </c>
+      <c r="W132" t="n">
+        <v>10.9336293754557</v>
+      </c>
+      <c r="X132" t="n">
+        <v>0.2677227679805245</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X132"/>
+  <dimension ref="A1:X134"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12354,22 +12354,22 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>244.88000000</t>
+          <t>250.28000000</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>242.20000000</t>
+          <t>242.00000000</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>243.26000000</t>
+          <t>247.78000000</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>143398.51855000</t>
+          <t>431285.61715000</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12377,20 +12377,20 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>34922579.34856620</t>
+          <t>105797248.24742570</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>70298</v>
+        <v>185330</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>67192.29042000</t>
+          <t>221305.11120000</t>
         </is>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>16365116.18958130</t>
+          <t>54322143.50039510</t>
         </is>
       </c>
       <c r="L132" t="inlineStr">
@@ -12399,40 +12399,224 @@
         </is>
       </c>
       <c r="M132" t="n">
-        <v>243.2599999999998</v>
+        <v>247.7799999999998</v>
       </c>
       <c r="N132" t="n">
-        <v>243.5299999999999</v>
+        <v>245.7899999999999</v>
       </c>
       <c r="O132" t="n">
-        <v>243.3142857142857</v>
+        <v>243.96</v>
       </c>
       <c r="P132" t="n">
-        <v>237.2040000000002</v>
+        <v>237.5053333333335</v>
       </c>
       <c r="Q132" t="n">
-        <v>220.337</v>
+        <v>220.4876666666666</v>
       </c>
       <c r="R132" t="n">
-        <v>243.26</v>
+        <v>247.78</v>
       </c>
       <c r="S132" t="n">
-        <v>243.6247322464032</v>
+        <v>246.6380655797366</v>
       </c>
       <c r="T132" t="n">
-        <v>238.5293389248744</v>
+        <v>239.2247235404768</v>
       </c>
       <c r="U132" t="n">
-        <v>227.3279867814382</v>
+        <v>227.662815602148</v>
       </c>
       <c r="V132" t="n">
-        <v>11.20135214343622</v>
+        <v>11.56190793832886</v>
       </c>
       <c r="W132" t="n">
-        <v>10.9336293754557</v>
+        <v>11.00574053443424</v>
       </c>
       <c r="X132" t="n">
-        <v>0.2677227679805245</v>
+        <v>0.5561674038946158</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>247.78000000</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>250.09000000</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>226.20000000</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>230.51000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>816456.89161000</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1591919999999</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>195063781.27644910</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>312655</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>373492.34304000</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>89279896.48515260</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>2020-06-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>230.5099999999998</v>
+      </c>
+      <c r="N133" t="n">
+        <v>239.1449999999999</v>
+      </c>
+      <c r="O133" t="n">
+        <v>242.1457142857143</v>
+      </c>
+      <c r="P133" t="n">
+        <v>238.9866666666668</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>221.846</v>
+      </c>
+      <c r="R133" t="n">
+        <v>230.51</v>
+      </c>
+      <c r="S133" t="n">
+        <v>235.8860218599122</v>
+      </c>
+      <c r="T133" t="n">
+        <v>237.8839968415866</v>
+      </c>
+      <c r="U133" t="n">
+        <v>227.8737263190247</v>
+      </c>
+      <c r="V133" t="n">
+        <v>10.01027052256188</v>
+      </c>
+      <c r="W133" t="n">
+        <v>10.80664653205974</v>
+      </c>
+      <c r="X133" t="n">
+        <v>-0.7963760094978554</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>230.46000000</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>239.38000000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>228.19000000</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>235.22000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>397549.31654000</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1592006399999</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>93464813.52779320</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>154895</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>199267.27950000</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>46876827.74583840</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2020-06-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>235.2199999999998</v>
+      </c>
+      <c r="N134" t="n">
+        <v>232.8649999999999</v>
+      </c>
+      <c r="O134" t="n">
+        <v>241.4585714285714</v>
+      </c>
+      <c r="P134" t="n">
+        <v>239.9873333333335</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>223.034</v>
+      </c>
+      <c r="R134" t="n">
+        <v>235.22</v>
+      </c>
+      <c r="S134" t="n">
+        <v>235.4420072866374</v>
+      </c>
+      <c r="T134" t="n">
+        <v>237.4741511735583</v>
+      </c>
+      <c r="U134" t="n">
+        <v>228.4179142557757</v>
+      </c>
+      <c r="V134" t="n">
+        <v>9.05623691778257</v>
+      </c>
+      <c r="W134" t="n">
+        <v>10.45656460920426</v>
+      </c>
+      <c r="X134" t="n">
+        <v>-1.40032769142169</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X134"/>
+  <dimension ref="A1:X200"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12548,12 +12548,12 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>235.22000000</t>
+          <t>237.55000000</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>397549.31654000</t>
+          <t>446515.34124000</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12561,20 +12561,20 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>93464813.52779320</t>
+          <t>105069425.09010670</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>154895</v>
+        <v>181977</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>199267.27950000</t>
+          <t>224589.29616000</t>
         </is>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>46876827.74583840</t>
+          <t>52877894.61382670</t>
         </is>
       </c>
       <c r="L134" t="inlineStr">
@@ -12583,40 +12583,6112 @@
         </is>
       </c>
       <c r="M134" t="n">
-        <v>235.2199999999998</v>
+        <v>237.5499999999998</v>
       </c>
       <c r="N134" t="n">
-        <v>232.8649999999999</v>
+        <v>234.0299999999999</v>
       </c>
       <c r="O134" t="n">
-        <v>241.4585714285714</v>
+        <v>241.7914285714286</v>
       </c>
       <c r="P134" t="n">
-        <v>239.9873333333335</v>
+        <v>240.1426666666669</v>
       </c>
       <c r="Q134" t="n">
-        <v>223.034</v>
+        <v>223.1116666666667</v>
       </c>
       <c r="R134" t="n">
-        <v>235.22</v>
+        <v>237.55</v>
       </c>
       <c r="S134" t="n">
-        <v>235.4420072866374</v>
+        <v>236.9953406199707</v>
       </c>
       <c r="T134" t="n">
-        <v>237.4741511735583</v>
+        <v>237.8326127121002</v>
       </c>
       <c r="U134" t="n">
-        <v>228.4179142557757</v>
+        <v>228.5905130381915</v>
       </c>
       <c r="V134" t="n">
-        <v>9.05623691778257</v>
+        <v>9.242099673908626</v>
       </c>
       <c r="W134" t="n">
-        <v>10.45656460920426</v>
+        <v>10.49373716042948</v>
       </c>
       <c r="X134" t="n">
-        <v>-1.40032769142169</v>
+        <v>-1.251637486520849</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>237.55000000</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>238.73000000</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>234.66000000</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>238.11000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>253797.78090000</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1592092799999</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>60087772.65246530</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>134555</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>126898.09775000</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>30052109.58823630</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>2020-06-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>238.1099999999998</v>
+      </c>
+      <c r="N135" t="n">
+        <v>237.8299999999999</v>
+      </c>
+      <c r="O135" t="n">
+        <v>241.2442857142857</v>
+      </c>
+      <c r="P135" t="n">
+        <v>241.3053333333336</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>224.2723333333333</v>
+      </c>
+      <c r="R135" t="n">
+        <v>238.11</v>
+      </c>
+      <c r="S135" t="n">
+        <v>237.7384468733236</v>
+      </c>
+      <c r="T135" t="n">
+        <v>237.8752876794775</v>
+      </c>
+      <c r="U135" t="n">
+        <v>229.2956836364535</v>
+      </c>
+      <c r="V135" t="n">
+        <v>8.579604043023977</v>
+      </c>
+      <c r="W135" t="n">
+        <v>10.11091053694834</v>
+      </c>
+      <c r="X135" t="n">
+        <v>-1.531306493924358</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>238.13000000</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>238.59000000</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>229.83000000</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>231.77000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>304943.21188000</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1592179199999</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>71575514.08027260</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>158093</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>150190.06138000</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>35264141.20722390</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2020-06-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>231.7699999999999</v>
+      </c>
+      <c r="N136" t="n">
+        <v>234.9399999999999</v>
+      </c>
+      <c r="O136" t="n">
+        <v>239.4171428571429</v>
+      </c>
+      <c r="P136" t="n">
+        <v>240.5126666666669</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>225.5026666666667</v>
+      </c>
+      <c r="R136" t="n">
+        <v>231.77</v>
+      </c>
+      <c r="S136" t="n">
+        <v>233.7594822911079</v>
+      </c>
+      <c r="T136" t="n">
+        <v>236.9360126517147</v>
+      </c>
+      <c r="U136" t="n">
+        <v>229.4789719654894</v>
+      </c>
+      <c r="V136" t="n">
+        <v>7.457040686225326</v>
+      </c>
+      <c r="W136" t="n">
+        <v>9.58013656680369</v>
+      </c>
+      <c r="X136" t="n">
+        <v>-2.123095880578363</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>231.74000000</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>233.55000000</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>218.27000000</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>230.86000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>875026.92057000</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1592265599999</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>197907504.77877360</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>308126</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>410989.99093000</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>92965284.36529640</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>2020-06-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>230.8599999999999</v>
+      </c>
+      <c r="N137" t="n">
+        <v>231.3149999999999</v>
+      </c>
+      <c r="O137" t="n">
+        <v>237.1971428571429</v>
+      </c>
+      <c r="P137" t="n">
+        <v>240.4653333333335</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>226.5163333333333</v>
+      </c>
+      <c r="R137" t="n">
+        <v>230.86</v>
+      </c>
+      <c r="S137" t="n">
+        <v>231.826494097036</v>
+      </c>
+      <c r="T137" t="n">
+        <v>236.0012414744008</v>
+      </c>
+      <c r="U137" t="n">
+        <v>229.5812732508116</v>
+      </c>
+      <c r="V137" t="n">
+        <v>6.419968223589251</v>
+      </c>
+      <c r="W137" t="n">
+        <v>8.94810289816076</v>
+      </c>
+      <c r="X137" t="n">
+        <v>-2.528134674571509</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>230.86000000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>236.00000000</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>228.70000000</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>235.30000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>499194.66758000</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1592351999999</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>116456364.23126830</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>188136</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>252188.71079000</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>58831595.30783300</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>2020-06-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>235.2999999999998</v>
+      </c>
+      <c r="N138" t="n">
+        <v>233.0799999999999</v>
+      </c>
+      <c r="O138" t="n">
+        <v>235.9828571428572</v>
+      </c>
+      <c r="P138" t="n">
+        <v>239.6033333333336</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>227.4596666666667</v>
+      </c>
+      <c r="R138" t="n">
+        <v>235.3</v>
+      </c>
+      <c r="S138" t="n">
+        <v>234.142164699012</v>
+      </c>
+      <c r="T138" t="n">
+        <v>235.8933581706344</v>
+      </c>
+      <c r="U138" t="n">
+        <v>230.0048938062806</v>
+      </c>
+      <c r="V138" t="n">
+        <v>5.888464364353837</v>
+      </c>
+      <c r="W138" t="n">
+        <v>8.336175191399342</v>
+      </c>
+      <c r="X138" t="n">
+        <v>-2.447710827045505</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>235.31000000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>237.30000000</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>227.65000000</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>233.82000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>478187.29170000</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1592438399999</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>111415059.05626230</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>189653</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>232960.69025000</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>54288236.15848750</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2020-06-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>233.8199999999998</v>
+      </c>
+      <c r="N139" t="n">
+        <v>234.5599999999999</v>
+      </c>
+      <c r="O139" t="n">
+        <v>233.9885714285714</v>
+      </c>
+      <c r="P139" t="n">
+        <v>239.3440000000002</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>228.09</v>
+      </c>
+      <c r="R139" t="n">
+        <v>233.82</v>
+      </c>
+      <c r="S139" t="n">
+        <v>233.927388233004</v>
+      </c>
+      <c r="T139" t="n">
+        <v>235.5743799905058</v>
+      </c>
+      <c r="U139" t="n">
+        <v>230.287501162789</v>
+      </c>
+      <c r="V139" t="n">
+        <v>5.286878827716777</v>
+      </c>
+      <c r="W139" t="n">
+        <v>7.726315918662803</v>
+      </c>
+      <c r="X139" t="n">
+        <v>-2.439437090946027</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>233.82000000</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>234.65000000</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>227.93000000</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>231.27000000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>334347.79917000</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1592524799999</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>77542070.33327090</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>145815</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>157912.89857000</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>36639257.02317530</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2020-06-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>231.2699999999998</v>
+      </c>
+      <c r="N140" t="n">
+        <v>232.5449999999999</v>
+      </c>
+      <c r="O140" t="n">
+        <v>234.0971428571429</v>
+      </c>
+      <c r="P140" t="n">
+        <v>238.4606666666669</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>228.6463333333333</v>
+      </c>
+      <c r="R140" t="n">
+        <v>231.27</v>
+      </c>
+      <c r="S140" t="n">
+        <v>232.155796077668</v>
+      </c>
+      <c r="T140" t="n">
+        <v>234.9121676842196</v>
+      </c>
+      <c r="U140" t="n">
+        <v>230.3602804992077</v>
+      </c>
+      <c r="V140" t="n">
+        <v>4.551887185011935</v>
+      </c>
+      <c r="W140" t="n">
+        <v>7.091430171932607</v>
+      </c>
+      <c r="X140" t="n">
+        <v>-2.539542986920671</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>231.26000000</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>231.95000000</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>226.74000000</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>229.00000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>397284.59808000</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1592611199999</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>91117706.15513940</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>160682</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>196717.52384000</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>45127258.00693490</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2020-06-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>228.9999999999998</v>
+      </c>
+      <c r="N141" t="n">
+        <v>230.1349999999998</v>
+      </c>
+      <c r="O141" t="n">
+        <v>232.8757142857143</v>
+      </c>
+      <c r="P141" t="n">
+        <v>237.5133333333336</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>229.2803333333333</v>
+      </c>
+      <c r="R141" t="n">
+        <v>229</v>
+      </c>
+      <c r="S141" t="n">
+        <v>230.0519320258893</v>
+      </c>
+      <c r="T141" t="n">
+        <v>234.0026034250455</v>
+      </c>
+      <c r="U141" t="n">
+        <v>230.2595168722264</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.743086552819136</v>
+      </c>
+      <c r="W141" t="n">
+        <v>6.421761448109894</v>
+      </c>
+      <c r="X141" t="n">
+        <v>-2.678674895290758</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>229.00000000</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>230.85000000</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>225.62000000</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>228.89000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>303704.98826000</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1592697599999</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>69343699.90954830</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>129778</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>146807.30372000</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>33536648.02595340</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2020-06-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>228.8899999999998</v>
+      </c>
+      <c r="N142" t="n">
+        <v>228.9449999999998</v>
+      </c>
+      <c r="O142" t="n">
+        <v>231.5585714285714</v>
+      </c>
+      <c r="P142" t="n">
+        <v>236.7706666666669</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>230.2853333333334</v>
+      </c>
+      <c r="R142" t="n">
+        <v>228.89</v>
+      </c>
+      <c r="S142" t="n">
+        <v>229.2773106752964</v>
+      </c>
+      <c r="T142" t="n">
+        <v>233.2160490519153</v>
+      </c>
+      <c r="U142" t="n">
+        <v>230.1580692123993</v>
+      </c>
+      <c r="V142" t="n">
+        <v>3.057979839515951</v>
+      </c>
+      <c r="W142" t="n">
+        <v>5.749005126391091</v>
+      </c>
+      <c r="X142" t="n">
+        <v>-2.691025286875139</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>228.88000000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>231.49000000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>227.11000000</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>228.04000000</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>256305.23734000</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1592783999999</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>58868166.50610440</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>109238</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>133367.32601000</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>30640576.93127720</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2020-06-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>228.0399999999997</v>
+      </c>
+      <c r="N143" t="n">
+        <v>228.4649999999998</v>
+      </c>
+      <c r="O143" t="n">
+        <v>231.0257142857143</v>
+      </c>
+      <c r="P143" t="n">
+        <v>235.8440000000002</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>230.9746666666667</v>
+      </c>
+      <c r="R143" t="n">
+        <v>228.04</v>
+      </c>
+      <c r="S143" t="n">
+        <v>228.4524368917655</v>
+      </c>
+      <c r="T143" t="n">
+        <v>232.4197338131193</v>
+      </c>
+      <c r="U143" t="n">
+        <v>230.0011723819091</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.418561431210208</v>
+      </c>
+      <c r="W143" t="n">
+        <v>5.082916387354903</v>
+      </c>
+      <c r="X143" t="n">
+        <v>-2.664354956144695</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>228.03000000</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>246.89000000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>227.51000000</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>243.13000000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>749030.11114000</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1592870399999</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>178707156.18931390</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>256688</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>381685.54634000</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>91072958.54464900</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2020-06-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>243.1299999999997</v>
+      </c>
+      <c r="N144" t="n">
+        <v>235.5849999999998</v>
+      </c>
+      <c r="O144" t="n">
+        <v>232.7785714285714</v>
+      </c>
+      <c r="P144" t="n">
+        <v>235.7486666666669</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>232.1923333333334</v>
+      </c>
+      <c r="R144" t="n">
+        <v>243.13</v>
+      </c>
+      <c r="S144" t="n">
+        <v>238.2374789639218</v>
+      </c>
+      <c r="T144" t="n">
+        <v>234.0674670727089</v>
+      </c>
+      <c r="U144" t="n">
+        <v>230.973694286226</v>
+      </c>
+      <c r="V144" t="n">
+        <v>3.093772786482873</v>
+      </c>
+      <c r="W144" t="n">
+        <v>4.685087667180492</v>
+      </c>
+      <c r="X144" t="n">
+        <v>-1.591314880697619</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>243.11000000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>244.87000000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>240.75000000</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>243.14000000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>442296.31477000</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1592956799999</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>107457002.52462460</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>172649</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>224811.21947000</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>54630829.05815690</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2020-06-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>243.1399999999998</v>
+      </c>
+      <c r="N145" t="n">
+        <v>243.1349999999998</v>
+      </c>
+      <c r="O145" t="n">
+        <v>233.8985714285714</v>
+      </c>
+      <c r="P145" t="n">
+        <v>235.5313333333335</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>233.6336666666667</v>
+      </c>
+      <c r="R145" t="n">
+        <v>243.14</v>
+      </c>
+      <c r="S145" t="n">
+        <v>241.5058263213073</v>
+      </c>
+      <c r="T145" t="n">
+        <v>235.4632413692651</v>
+      </c>
+      <c r="U145" t="n">
+        <v>231.8749159783956</v>
+      </c>
+      <c r="V145" t="n">
+        <v>3.588325390869443</v>
+      </c>
+      <c r="W145" t="n">
+        <v>4.465735211918279</v>
+      </c>
+      <c r="X145" t="n">
+        <v>-0.8774098210488361</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>243.15000000</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>249.24000000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>231.07000000</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>234.58000000</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>921634.05340000</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1593043199999</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>220763040.43374940</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>289888</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>447817.33625000</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>107284767.04106830</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2020-06-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>234.5799999999998</v>
+      </c>
+      <c r="N146" t="n">
+        <v>238.8599999999998</v>
+      </c>
+      <c r="O146" t="n">
+        <v>234.0071428571428</v>
+      </c>
+      <c r="P146" t="n">
+        <v>234.9166666666669</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>234.6480000000001</v>
+      </c>
+      <c r="R146" t="n">
+        <v>234.58</v>
+      </c>
+      <c r="S146" t="n">
+        <v>236.8886087737691</v>
+      </c>
+      <c r="T146" t="n">
+        <v>235.3273580816818</v>
+      </c>
+      <c r="U146" t="n">
+        <v>232.0752954262906</v>
+      </c>
+      <c r="V146" t="n">
+        <v>3.252062655391143</v>
+      </c>
+      <c r="W146" t="n">
+        <v>4.223000700612849</v>
+      </c>
+      <c r="X146" t="n">
+        <v>-0.9709380452217067</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>234.57000000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>235.39000000</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>227.56000000</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>232.50000000</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>613748.59348000</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1593129599999</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>142697463.38010440</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>192323</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>312667.90698000</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>72711629.98470680</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2020-06-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>232.4999999999998</v>
+      </c>
+      <c r="N147" t="n">
+        <v>233.5399999999998</v>
+      </c>
+      <c r="O147" t="n">
+        <v>234.1828571428571</v>
+      </c>
+      <c r="P147" t="n">
+        <v>233.8980000000002</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>235.7016666666667</v>
+      </c>
+      <c r="R147" t="n">
+        <v>232.5</v>
+      </c>
+      <c r="S147" t="n">
+        <v>233.9628695912564</v>
+      </c>
+      <c r="T147" t="n">
+        <v>234.892379915258</v>
+      </c>
+      <c r="U147" t="n">
+        <v>232.1067554391927</v>
+      </c>
+      <c r="V147" t="n">
+        <v>2.785624476065351</v>
+      </c>
+      <c r="W147" t="n">
+        <v>3.935525455703348</v>
+      </c>
+      <c r="X147" t="n">
+        <v>-1.149900979637997</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>232.49000000</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>233.61000000</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>227.75000000</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>229.64000000</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>628340.07007000</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1593215999999</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>144805505.19158240</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>192182</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>313069.39625000</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>72145517.98801950</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2020-06-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>229.6399999999998</v>
+      </c>
+      <c r="N148" t="n">
+        <v>231.0699999999998</v>
+      </c>
+      <c r="O148" t="n">
+        <v>234.2742857142857</v>
+      </c>
+      <c r="P148" t="n">
+        <v>233.8400000000001</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>236.4133333333334</v>
+      </c>
+      <c r="R148" t="n">
+        <v>229.64</v>
+      </c>
+      <c r="S148" t="n">
+        <v>231.0809565304188</v>
+      </c>
+      <c r="T148" t="n">
+        <v>234.0843214667393</v>
+      </c>
+      <c r="U148" t="n">
+        <v>231.9240305830365</v>
+      </c>
+      <c r="V148" t="n">
+        <v>2.160290883702885</v>
+      </c>
+      <c r="W148" t="n">
+        <v>3.580478541303253</v>
+      </c>
+      <c r="X148" t="n">
+        <v>-1.420187657600368</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>229.66000000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>231.42000000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>216.00000000</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>220.94000000</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>645950.61438000</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1593302399999</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>145264632.26381920</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>207051</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>299265.01724000</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>67274910.29012350</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>2020-06-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>220.9399999999998</v>
+      </c>
+      <c r="N149" t="n">
+        <v>225.2899999999998</v>
+      </c>
+      <c r="O149" t="n">
+        <v>233.1385714285714</v>
+      </c>
+      <c r="P149" t="n">
+        <v>232.7326666666668</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>236.4376666666667</v>
+      </c>
+      <c r="R149" t="n">
+        <v>220.94</v>
+      </c>
+      <c r="S149" t="n">
+        <v>224.3203188434729</v>
+      </c>
+      <c r="T149" t="n">
+        <v>232.062118164127</v>
+      </c>
+      <c r="U149" t="n">
+        <v>231.1103894894957</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0.9517286746313687</v>
+      </c>
+      <c r="W149" t="n">
+        <v>3.054728567968874</v>
+      </c>
+      <c r="X149" t="n">
+        <v>-2.102999893337505</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>220.94000000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>227.96000000</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>218.32000000</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>224.93000000</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>444766.56881000</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1593388799999</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>99423540.13931940</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>144728</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>236280.14760000</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>52806921.84877780</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>2020-06-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>224.9299999999998</v>
+      </c>
+      <c r="N150" t="n">
+        <v>222.9349999999999</v>
+      </c>
+      <c r="O150" t="n">
+        <v>232.6942857142857</v>
+      </c>
+      <c r="P150" t="n">
+        <v>231.8540000000001</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>236.5796666666667</v>
+      </c>
+      <c r="R150" t="n">
+        <v>224.93</v>
+      </c>
+      <c r="S150" t="n">
+        <v>224.7267729478243</v>
+      </c>
+      <c r="T150" t="n">
+        <v>230.9648692157828</v>
+      </c>
+      <c r="U150" t="n">
+        <v>230.6525780683104</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0.3122911474724788</v>
+      </c>
+      <c r="W150" t="n">
+        <v>2.506241083869593</v>
+      </c>
+      <c r="X150" t="n">
+        <v>-2.193949936397114</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>224.89000000</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>229.96000000</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>221.26000000</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>227.93000000</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>597915.52242000</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1593475199999</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>134510531.19766730</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>183558</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>305421.87340000</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>68753130.26515030</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2020-06-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>227.9299999999998</v>
+      </c>
+      <c r="N151" t="n">
+        <v>226.4299999999999</v>
+      </c>
+      <c r="O151" t="n">
+        <v>230.5228571428571</v>
+      </c>
+      <c r="P151" t="n">
+        <v>231.5980000000001</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>236.0553333333334</v>
+      </c>
+      <c r="R151" t="n">
+        <v>227.93</v>
+      </c>
+      <c r="S151" t="n">
+        <v>226.8622576492748</v>
+      </c>
+      <c r="T151" t="n">
+        <v>230.4979662595024</v>
+      </c>
+      <c r="U151" t="n">
+        <v>230.4509036640728</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0.04706259542962243</v>
+      </c>
+      <c r="W151" t="n">
+        <v>2.014405386181598</v>
+      </c>
+      <c r="X151" t="n">
+        <v>-1.967342790751975</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>227.98000000</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>228.70000000</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>222.91000000</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>225.60000000</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>415036.02977000</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1593561599999</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>93802207.27357360</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>143612</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>202532.74647000</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>45764408.12825810</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2020-06-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>225.5999999999997</v>
+      </c>
+      <c r="N152" t="n">
+        <v>226.7649999999998</v>
+      </c>
+      <c r="O152" t="n">
+        <v>228.0171428571428</v>
+      </c>
+      <c r="P152" t="n">
+        <v>231.2473333333334</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>235.8563333333335</v>
+      </c>
+      <c r="R152" t="n">
+        <v>225.6</v>
+      </c>
+      <c r="S152" t="n">
+        <v>226.0207525497583</v>
+      </c>
+      <c r="T152" t="n">
+        <v>229.7444329888014</v>
+      </c>
+      <c r="U152" t="n">
+        <v>230.0915742419124</v>
+      </c>
+      <c r="V152" t="n">
+        <v>-0.3471412531110332</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.542096058323071</v>
+      </c>
+      <c r="X152" t="n">
+        <v>-1.889237311434104</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>225.59000000</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>232.71000000</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>224.16000000</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>230.99000000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>517351.58865000</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1593647999999</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>118322932.85495730</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>176455</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>265707.94626000</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>60770218.92015320</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>2020-07-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>230.9899999999998</v>
+      </c>
+      <c r="N153" t="n">
+        <v>228.2949999999999</v>
+      </c>
+      <c r="O153" t="n">
+        <v>227.5042857142857</v>
+      </c>
+      <c r="P153" t="n">
+        <v>230.9600000000001</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>235.2816666666668</v>
+      </c>
+      <c r="R153" t="n">
+        <v>230.99</v>
+      </c>
+      <c r="S153" t="n">
+        <v>229.3335841832528</v>
+      </c>
+      <c r="T153" t="n">
+        <v>229.9360586828338</v>
+      </c>
+      <c r="U153" t="n">
+        <v>230.1581248510875</v>
+      </c>
+      <c r="V153" t="n">
+        <v>-0.2220661682537468</v>
+      </c>
+      <c r="W153" t="n">
+        <v>1.189263613007707</v>
+      </c>
+      <c r="X153" t="n">
+        <v>-1.411329781261454</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>230.99000000</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>232.01000000</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>222.87000000</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>226.46000000</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>592485.91115000</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1593734399999</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>134976975.12319700</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>210294</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>282313.90134000</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>64320519.48114850</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2020-07-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>226.4599999999998</v>
+      </c>
+      <c r="N154" t="n">
+        <v>228.7249999999999</v>
+      </c>
+      <c r="O154" t="n">
+        <v>226.6414285714286</v>
+      </c>
+      <c r="P154" t="n">
+        <v>230.4693333333334</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>234.9066666666668</v>
+      </c>
+      <c r="R154" t="n">
+        <v>226.46</v>
+      </c>
+      <c r="S154" t="n">
+        <v>227.4178613944176</v>
+      </c>
+      <c r="T154" t="n">
+        <v>229.401280423932</v>
+      </c>
+      <c r="U154" t="n">
+        <v>229.8841875691952</v>
+      </c>
+      <c r="V154" t="n">
+        <v>-0.4829071452632263</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0.8548294613535196</v>
+      </c>
+      <c r="X154" t="n">
+        <v>-1.337736606616746</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>226.46000000</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>228.13000000</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>223.97000000</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>224.87000000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>314578.50040000</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1593820799999</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>71286978.50356750</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>139167</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>153734.92210000</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>34844388.69190400</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>2020-07-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>224.8699999999997</v>
+      </c>
+      <c r="N155" t="n">
+        <v>225.6649999999998</v>
+      </c>
+      <c r="O155" t="n">
+        <v>225.96</v>
+      </c>
+      <c r="P155" t="n">
+        <v>230.0426666666667</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>234.2516666666668</v>
+      </c>
+      <c r="R155" t="n">
+        <v>224.87</v>
+      </c>
+      <c r="S155" t="n">
+        <v>225.7192871314726</v>
+      </c>
+      <c r="T155" t="n">
+        <v>228.704160358707</v>
+      </c>
+      <c r="U155" t="n">
+        <v>229.5127636216411</v>
+      </c>
+      <c r="V155" t="n">
+        <v>-0.8086032629340139</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0.5221429164960125</v>
+      </c>
+      <c r="X155" t="n">
+        <v>-1.330746179430026</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>224.86000000</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>230.71000000</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>224.43000000</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>229.17000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>307726.46593000</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1593907199999</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>69899468.27991880</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>134338</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>156161.48084000</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>35487540.26136240</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2020-07-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>229.1699999999997</v>
+      </c>
+      <c r="N156" t="n">
+        <v>227.0199999999998</v>
+      </c>
+      <c r="O156" t="n">
+        <v>227.1357142857143</v>
+      </c>
+      <c r="P156" t="n">
+        <v>230.0540000000001</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>233.7836666666668</v>
+      </c>
+      <c r="R156" t="n">
+        <v>229.17</v>
+      </c>
+      <c r="S156" t="n">
+        <v>228.0197623771575</v>
+      </c>
+      <c r="T156" t="n">
+        <v>228.7758279958294</v>
+      </c>
+      <c r="U156" t="n">
+        <v>229.4873735562545</v>
+      </c>
+      <c r="V156" t="n">
+        <v>-0.7115455604250371</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0.2754052211118023</v>
+      </c>
+      <c r="X156" t="n">
+        <v>-0.9869507815368395</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>229.24000000</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>229.85000000</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>223.05000000</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>227.56000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>355747.12006000</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1593993599999</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>80528660.61919430</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>152077</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>173480.66716000</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>39276422.84701000</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2020-07-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>227.5599999999997</v>
+      </c>
+      <c r="N157" t="n">
+        <v>228.3649999999998</v>
+      </c>
+      <c r="O157" t="n">
+        <v>227.5114285714286</v>
+      </c>
+      <c r="P157" t="n">
+        <v>229.9653333333334</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>233.3680000000001</v>
+      </c>
+      <c r="R157" t="n">
+        <v>227.56</v>
+      </c>
+      <c r="S157" t="n">
+        <v>227.7132541257191</v>
+      </c>
+      <c r="T157" t="n">
+        <v>228.5887775349317</v>
+      </c>
+      <c r="U157" t="n">
+        <v>229.3446042726551</v>
+      </c>
+      <c r="V157" t="n">
+        <v>-0.7558267377234245</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0.06915882934475687</v>
+      </c>
+      <c r="X157" t="n">
+        <v>-0.8249855670681814</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>227.54000000</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>242.00000000</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>226.93000000</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>241.60000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>864817.50700000</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1594079999999</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>203334727.85013950</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>268187</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>443659.99767000</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>104363380.05687420</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>2020-07-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>241.5999999999997</v>
+      </c>
+      <c r="N158" t="n">
+        <v>234.5799999999999</v>
+      </c>
+      <c r="O158" t="n">
+        <v>229.4642857142857</v>
+      </c>
+      <c r="P158" t="n">
+        <v>230.8693333333334</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>233.3566666666668</v>
+      </c>
+      <c r="R158" t="n">
+        <v>241.6</v>
+      </c>
+      <c r="S158" t="n">
+        <v>236.971084708573</v>
+      </c>
+      <c r="T158" t="n">
+        <v>230.5905040680273</v>
+      </c>
+      <c r="U158" t="n">
+        <v>230.2524164976943</v>
+      </c>
+      <c r="V158" t="n">
+        <v>0.3380875703329878</v>
+      </c>
+      <c r="W158" t="n">
+        <v>0.1229445775424031</v>
+      </c>
+      <c r="X158" t="n">
+        <v>0.2151429927905847</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>241.60000000</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>243.77000000</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>234.40000000</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>239.39000000</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>600424.97209000</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1594166399999</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>143122828.37511880</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>213589</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>293523.48727000</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>69992123.93622460</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2020-07-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>239.3899999999997</v>
+      </c>
+      <c r="N159" t="n">
+        <v>240.4949999999999</v>
+      </c>
+      <c r="O159" t="n">
+        <v>231.4342857142857</v>
+      </c>
+      <c r="P159" t="n">
+        <v>230.6200000000001</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>233.1843333333335</v>
+      </c>
+      <c r="R159" t="n">
+        <v>239.39</v>
+      </c>
+      <c r="S159" t="n">
+        <v>238.5836949028577</v>
+      </c>
+      <c r="T159" t="n">
+        <v>231.9442726729508</v>
+      </c>
+      <c r="U159" t="n">
+        <v>230.9292780793328</v>
+      </c>
+      <c r="V159" t="n">
+        <v>1.014994593617928</v>
+      </c>
+      <c r="W159" t="n">
+        <v>0.3013545807575081</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0.7136400128604198</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>239.39000000</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>248.88000000</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>237.78000000</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>246.95000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>958185.83708000</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1594252799999</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>233460700.75518140</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>309582</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>472779.31973000</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>115197139.73159900</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>2020-07-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>246.9499999999997</v>
+      </c>
+      <c r="N160" t="n">
+        <v>243.1699999999998</v>
+      </c>
+      <c r="O160" t="n">
+        <v>233.7142857142857</v>
+      </c>
+      <c r="P160" t="n">
+        <v>230.8740000000001</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>233.2026666666668</v>
+      </c>
+      <c r="R160" t="n">
+        <v>246.95</v>
+      </c>
+      <c r="S160" t="n">
+        <v>244.1612316342859</v>
+      </c>
+      <c r="T160" t="n">
+        <v>234.2528461078882</v>
+      </c>
+      <c r="U160" t="n">
+        <v>232.1160039756501</v>
+      </c>
+      <c r="V160" t="n">
+        <v>2.136842132238087</v>
+      </c>
+      <c r="W160" t="n">
+        <v>0.668452091053624</v>
+      </c>
+      <c r="X160" t="n">
+        <v>1.468390041184463</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>246.94000000</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>247.90000000</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>237.88000000</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>241.98000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>647641.58291000</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1594339199999</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>157541370.00481820</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>243580</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>313999.27569000</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>76404395.94395800</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2020-07-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>241.9799999999997</v>
+      </c>
+      <c r="N161" t="n">
+        <v>244.4649999999999</v>
+      </c>
+      <c r="O161" t="n">
+        <v>235.9314285714286</v>
+      </c>
+      <c r="P161" t="n">
+        <v>231.3673333333334</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>233.1420000000001</v>
+      </c>
+      <c r="R161" t="n">
+        <v>241.98</v>
+      </c>
+      <c r="S161" t="n">
+        <v>242.7070772114286</v>
+      </c>
+      <c r="T161" t="n">
+        <v>235.4416390143698</v>
+      </c>
+      <c r="U161" t="n">
+        <v>232.8466736281742</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.594965386195611</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.053754750082021</v>
+      </c>
+      <c r="X161" t="n">
+        <v>1.541210636113589</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>241.97000000</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>242.16000000</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>235.72000000</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>241.26000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>455025.12385000</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1594425599999</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>108806462.46509650</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>181124</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>234086.96963000</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>55969388.91838720</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2020-07-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>241.2599999999997</v>
+      </c>
+      <c r="N162" t="n">
+        <v>241.6199999999999</v>
+      </c>
+      <c r="O162" t="n">
+        <v>238.2728571428571</v>
+      </c>
+      <c r="P162" t="n">
+        <v>231.9513333333334</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>232.9246666666668</v>
+      </c>
+      <c r="R162" t="n">
+        <v>241.26</v>
+      </c>
+      <c r="S162" t="n">
+        <v>241.7423590704762</v>
+      </c>
+      <c r="T162" t="n">
+        <v>236.3367714736994</v>
+      </c>
+      <c r="U162" t="n">
+        <v>233.4698855797145</v>
+      </c>
+      <c r="V162" t="n">
+        <v>2.866885893984886</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.416380978862595</v>
+      </c>
+      <c r="X162" t="n">
+        <v>1.450504915122292</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>241.27000000</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>241.67000000</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>237.54000000</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>239.19000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>294476.00626000</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1594511999999</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>70548557.67783910</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>140265</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>144264.75794000</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>34563855.77462440</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>2020-07-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>239.1899999999997</v>
+      </c>
+      <c r="N163" t="n">
+        <v>240.2249999999999</v>
+      </c>
+      <c r="O163" t="n">
+        <v>239.7042857142857</v>
+      </c>
+      <c r="P163" t="n">
+        <v>232.5880000000001</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>233.2140000000001</v>
+      </c>
+      <c r="R163" t="n">
+        <v>239.19</v>
+      </c>
+      <c r="S163" t="n">
+        <v>240.0407863568254</v>
+      </c>
+      <c r="T163" t="n">
+        <v>236.7757297085157</v>
+      </c>
+      <c r="U163" t="n">
+        <v>233.8935993898833</v>
+      </c>
+      <c r="V163" t="n">
+        <v>2.88213031863242</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.70953084681656</v>
+      </c>
+      <c r="X163" t="n">
+        <v>1.17259947181586</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>239.19000000</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>244.00000000</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>236.52000000</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>242.79000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>469315.11720000</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1594598399999</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>112487552.43401240</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>201729</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>238720.16445000</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>57233192.42448630</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>2020-07-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>242.7899999999997</v>
+      </c>
+      <c r="N164" t="n">
+        <v>240.9899999999998</v>
+      </c>
+      <c r="O164" t="n">
+        <v>241.88</v>
+      </c>
+      <c r="P164" t="n">
+        <v>234.0446666666668</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>233.3886666666668</v>
+      </c>
+      <c r="R164" t="n">
+        <v>242.79</v>
+      </c>
+      <c r="S164" t="n">
+        <v>241.8735954522751</v>
+      </c>
+      <c r="T164" t="n">
+        <v>237.7010020610531</v>
+      </c>
+      <c r="U164" t="n">
+        <v>234.5525943762746</v>
+      </c>
+      <c r="V164" t="n">
+        <v>3.148407684778505</v>
+      </c>
+      <c r="W164" t="n">
+        <v>1.997306214408949</v>
+      </c>
+      <c r="X164" t="n">
+        <v>1.151101470369556</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>242.76000000</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>245.33000000</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>237.33000000</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>239.50000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>604093.04245000</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1594684799999</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>146193291.91067610</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>240032</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>304677.24908000</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>73761164.95613980</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>2020-07-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>239.4999999999997</v>
+      </c>
+      <c r="N165" t="n">
+        <v>241.1449999999998</v>
+      </c>
+      <c r="O165" t="n">
+        <v>241.58</v>
+      </c>
+      <c r="P165" t="n">
+        <v>235.0160000000001</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>233.4350000000001</v>
+      </c>
+      <c r="R165" t="n">
+        <v>239.5</v>
+      </c>
+      <c r="S165" t="n">
+        <v>240.2911984840917</v>
+      </c>
+      <c r="T165" t="n">
+        <v>237.9777709747376</v>
+      </c>
+      <c r="U165" t="n">
+        <v>234.9190700762634</v>
+      </c>
+      <c r="V165" t="n">
+        <v>3.058700898474257</v>
+      </c>
+      <c r="W165" t="n">
+        <v>2.209585151222011</v>
+      </c>
+      <c r="X165" t="n">
+        <v>0.8491157472522457</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>239.50000000</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>242.09000000</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>237.00000000</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>240.44000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>426320.89188000</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1594771199999</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>102105027.13193080</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>172704</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>212486.68184000</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>50895173.69127610</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>2020-07-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>240.4399999999997</v>
+      </c>
+      <c r="N166" t="n">
+        <v>239.9699999999999</v>
+      </c>
+      <c r="O166" t="n">
+        <v>241.73</v>
+      </c>
+      <c r="P166" t="n">
+        <v>235.8500000000001</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>233.7240000000001</v>
+      </c>
+      <c r="R166" t="n">
+        <v>240.44</v>
+      </c>
+      <c r="S166" t="n">
+        <v>240.3903994946972</v>
+      </c>
+      <c r="T166" t="n">
+        <v>238.356575440163</v>
+      </c>
+      <c r="U166" t="n">
+        <v>235.3280290979607</v>
+      </c>
+      <c r="V166" t="n">
+        <v>3.028546342202304</v>
+      </c>
+      <c r="W166" t="n">
+        <v>2.37337738941807</v>
+      </c>
+      <c r="X166" t="n">
+        <v>0.6551689527842344</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>240.45000000</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>241.45000000</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>236.83000000</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>238.61000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>368350.66518000</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1594857599999</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>88059682.48343640</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>154984</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>178198.01400000</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>42606335.48394350</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2020-07-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>238.6099999999997</v>
+      </c>
+      <c r="N167" t="n">
+        <v>239.5249999999999</v>
+      </c>
+      <c r="O167" t="n">
+        <v>240.5385714285715</v>
+      </c>
+      <c r="P167" t="n">
+        <v>236.7173333333335</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>233.9823333333334</v>
+      </c>
+      <c r="R167" t="n">
+        <v>238.61</v>
+      </c>
+      <c r="S167" t="n">
+        <v>239.2034664982324</v>
+      </c>
+      <c r="T167" t="n">
+        <v>238.3955638339841</v>
+      </c>
+      <c r="U167" t="n">
+        <v>235.5711387414619</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.824425092522176</v>
+      </c>
+      <c r="W167" t="n">
+        <v>2.463586930038892</v>
+      </c>
+      <c r="X167" t="n">
+        <v>0.3608381624832848</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>238.59000000</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>239.39000000</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>230.02000000</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>233.57000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>587161.73894000</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1594943999999</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>137208323.20157330</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>222138</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>284514.03969000</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>66475192.08183000</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>2020-07-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>233.5699999999997</v>
+      </c>
+      <c r="N168" t="n">
+        <v>236.0899999999998</v>
+      </c>
+      <c r="O168" t="n">
+        <v>239.3371428571429</v>
+      </c>
+      <c r="P168" t="n">
+        <v>236.8893333333335</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>233.9246666666668</v>
+      </c>
+      <c r="R168" t="n">
+        <v>233.57</v>
+      </c>
+      <c r="S168" t="n">
+        <v>235.4478221660775</v>
+      </c>
+      <c r="T168" t="n">
+        <v>237.653169397986</v>
+      </c>
+      <c r="U168" t="n">
+        <v>235.4229058537855</v>
+      </c>
+      <c r="V168" t="n">
+        <v>2.230263544200511</v>
+      </c>
+      <c r="W168" t="n">
+        <v>2.416922252871216</v>
+      </c>
+      <c r="X168" t="n">
+        <v>-0.1866587086707043</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>233.58000000</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>234.84000000</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>231.65000000</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>232.67000000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>325600.21444000</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1595030399999</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>75931058.42265300</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>149088</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>159858.08306000</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>37286020.32295110</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>2020-07-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>232.6699999999997</v>
+      </c>
+      <c r="N169" t="n">
+        <v>233.1199999999998</v>
+      </c>
+      <c r="O169" t="n">
+        <v>238.11</v>
+      </c>
+      <c r="P169" t="n">
+        <v>237.3033333333335</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>233.8863333333334</v>
+      </c>
+      <c r="R169" t="n">
+        <v>232.67</v>
+      </c>
+      <c r="S169" t="n">
+        <v>233.5959407220258</v>
+      </c>
+      <c r="T169" t="n">
+        <v>236.8865279521415</v>
+      </c>
+      <c r="U169" t="n">
+        <v>235.2189864070377</v>
+      </c>
+      <c r="V169" t="n">
+        <v>1.667541545103745</v>
+      </c>
+      <c r="W169" t="n">
+        <v>2.267046111317721</v>
+      </c>
+      <c r="X169" t="n">
+        <v>-0.5995045662139762</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>232.66000000</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>236.80000000</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>232.32000000</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>235.67000000</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>341356.61820000</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
+        <v>1595116799999</v>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>80046747.83223330</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>136494</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>168653.68252000</t>
+        </is>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>39557475.70548810</t>
+        </is>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>2020-07-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M170" t="n">
+        <v>235.6699999999997</v>
+      </c>
+      <c r="N170" t="n">
+        <v>234.1699999999998</v>
+      </c>
+      <c r="O170" t="n">
+        <v>237.6071428571429</v>
+      </c>
+      <c r="P170" t="n">
+        <v>238.0233333333335</v>
+      </c>
+      <c r="Q170" t="n">
+        <v>234.0330000000001</v>
+      </c>
+      <c r="R170" t="n">
+        <v>235.67</v>
+      </c>
+      <c r="S170" t="n">
+        <v>234.9786469073419</v>
+      </c>
+      <c r="T170" t="n">
+        <v>236.6993698056581</v>
+      </c>
+      <c r="U170" t="n">
+        <v>235.2523948963625</v>
+      </c>
+      <c r="V170" t="n">
+        <v>1.446974909295648</v>
+      </c>
+      <c r="W170" t="n">
+        <v>2.103031870913306</v>
+      </c>
+      <c r="X170" t="n">
+        <v>-0.6560569616176588</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>235.67000000</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>239.92000000</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>233.28000000</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>239.11000000</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>348803.52073000</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>1595203199999</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>82120072.99362800</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>144896</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>177800.65726000</t>
+        </is>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>41857576.44971610</t>
+        </is>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>2020-07-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M171" t="n">
+        <v>239.1099999999998</v>
+      </c>
+      <c r="N171" t="n">
+        <v>237.3899999999998</v>
+      </c>
+      <c r="O171" t="n">
+        <v>237.0814285714286</v>
+      </c>
+      <c r="P171" t="n">
+        <v>238.6860000000001</v>
+      </c>
+      <c r="Q171" t="n">
+        <v>234.3700000000001</v>
+      </c>
+      <c r="R171" t="n">
+        <v>239.11</v>
+      </c>
+      <c r="S171" t="n">
+        <v>237.7328823024473</v>
+      </c>
+      <c r="T171" t="n">
+        <v>237.0702359894032</v>
+      </c>
+      <c r="U171" t="n">
+        <v>235.5381440167768</v>
+      </c>
+      <c r="V171" t="n">
+        <v>1.532091972626432</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.988843891255932</v>
+      </c>
+      <c r="X171" t="n">
+        <v>-0.4567519186294995</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>239.12000000</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>239.72000000</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>234.05000000</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>236.01000000</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>396657.91938000</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>1595289599999</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>94314378.93819910</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>164435</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>193222.00995000</t>
+        </is>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>45941871.96180980</t>
+        </is>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>2020-07-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M172" t="n">
+        <v>236.0099999999998</v>
+      </c>
+      <c r="N172" t="n">
+        <v>237.5599999999998</v>
+      </c>
+      <c r="O172" t="n">
+        <v>236.5828571428572</v>
+      </c>
+      <c r="P172" t="n">
+        <v>239.2493333333335</v>
+      </c>
+      <c r="Q172" t="n">
+        <v>234.6073333333334</v>
+      </c>
+      <c r="R172" t="n">
+        <v>236.01</v>
+      </c>
+      <c r="S172" t="n">
+        <v>236.5842941008158</v>
+      </c>
+      <c r="T172" t="n">
+        <v>236.9071227602642</v>
+      </c>
+      <c r="U172" t="n">
+        <v>235.5730963791302</v>
+      </c>
+      <c r="V172" t="n">
+        <v>1.334026381133953</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.857880389231536</v>
+      </c>
+      <c r="X172" t="n">
+        <v>-0.5238540080975833</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>236.00000000</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>246.66000000</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>235.57000000</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>245.59000000</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>637462.08074000</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1595375999999</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>154502240.94119890</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>240019</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>335588.62905000</t>
+        </is>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>81336675.10271110</t>
+        </is>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>2020-07-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M173" t="n">
+        <v>245.5899999999998</v>
+      </c>
+      <c r="N173" t="n">
+        <v>240.7999999999998</v>
+      </c>
+      <c r="O173" t="n">
+        <v>237.3185714285714</v>
+      </c>
+      <c r="P173" t="n">
+        <v>239.5153333333335</v>
+      </c>
+      <c r="Q173" t="n">
+        <v>235.1923333333334</v>
+      </c>
+      <c r="R173" t="n">
+        <v>245.59</v>
+      </c>
+      <c r="S173" t="n">
+        <v>242.5880980336052</v>
+      </c>
+      <c r="T173" t="n">
+        <v>238.2429500279163</v>
+      </c>
+      <c r="U173" t="n">
+        <v>236.3150905627975</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1.927859465118814</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.871876204408992</v>
+      </c>
+      <c r="X173" t="n">
+        <v>0.05598326070982274</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>245.53000000</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>269.61000000</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>241.51000000</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>263.74000000</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>718417.68296000</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>1595462399999</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>180692677.21395630</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>273546</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>382255.45060000</t>
+        </is>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>96136746.64578400</t>
+        </is>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>2020-07-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M174" t="n">
+        <v>263.7399999999998</v>
+      </c>
+      <c r="N174" t="n">
+        <v>254.6649999999998</v>
+      </c>
+      <c r="O174" t="n">
+        <v>240.9085714285714</v>
+      </c>
+      <c r="P174" t="n">
+        <v>241.1386666666668</v>
+      </c>
+      <c r="Q174" t="n">
+        <v>235.8793333333334</v>
+      </c>
+      <c r="R174" t="n">
+        <v>263.74</v>
+      </c>
+      <c r="S174" t="n">
+        <v>256.6893660112017</v>
+      </c>
+      <c r="T174" t="n">
+        <v>242.1655731005456</v>
+      </c>
+      <c r="U174" t="n">
+        <v>238.3465686894555</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3.819004411090106</v>
+      </c>
+      <c r="W174" t="n">
+        <v>2.261301845745215</v>
+      </c>
+      <c r="X174" t="n">
+        <v>1.557702565344891</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>263.75000000</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>279.98000000</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>259.70000000</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>275.30000000</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1068774.57879000</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>1595548799999</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>287217202.72012160</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>378573</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>548027.77647000</t>
+        </is>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>147366131.52617590</t>
+        </is>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>2020-07-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M175" t="n">
+        <v>275.2999999999997</v>
+      </c>
+      <c r="N175" t="n">
+        <v>269.5199999999998</v>
+      </c>
+      <c r="O175" t="n">
+        <v>246.87</v>
+      </c>
+      <c r="P175" t="n">
+        <v>243.0286666666669</v>
+      </c>
+      <c r="Q175" t="n">
+        <v>236.9513333333334</v>
+      </c>
+      <c r="R175" t="n">
+        <v>275.3</v>
+      </c>
+      <c r="S175" t="n">
+        <v>269.0964553370673</v>
+      </c>
+      <c r="T175" t="n">
+        <v>247.2631772389244</v>
+      </c>
+      <c r="U175" t="n">
+        <v>241.0838640816106</v>
+      </c>
+      <c r="V175" t="n">
+        <v>6.1793131573138</v>
+      </c>
+      <c r="W175" t="n">
+        <v>3.044904108058932</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.134409049254868</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>275.31000000</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>287.34000000</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>266.00000000</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>279.15000000</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>926033.06692000</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>1595635199999</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>256347245.54814900</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>362608</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>467152.58946000</t>
+        </is>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>129363215.30193840</t>
+        </is>
+      </c>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>2020-07-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M176" t="n">
+        <v>279.1499999999997</v>
+      </c>
+      <c r="N176" t="n">
+        <v>277.2249999999998</v>
+      </c>
+      <c r="O176" t="n">
+        <v>253.51</v>
+      </c>
+      <c r="P176" t="n">
+        <v>245.5066666666668</v>
+      </c>
+      <c r="Q176" t="n">
+        <v>238.437</v>
+      </c>
+      <c r="R176" t="n">
+        <v>279.15</v>
+      </c>
+      <c r="S176" t="n">
+        <v>275.7988184456891</v>
+      </c>
+      <c r="T176" t="n">
+        <v>252.1688422790909</v>
+      </c>
+      <c r="U176" t="n">
+        <v>243.9035818440372</v>
+      </c>
+      <c r="V176" t="n">
+        <v>8.265260435053705</v>
+      </c>
+      <c r="W176" t="n">
+        <v>4.088975373457887</v>
+      </c>
+      <c r="X176" t="n">
+        <v>4.176285061595817</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>279.15000000</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>308.94000000</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>279.09000000</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>305.26000000</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>1058927.30554000</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1595721599999</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>308799629.36114330</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>424683</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>546337.36919000</t>
+        </is>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>159353784.49878770</t>
+        </is>
+      </c>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>2020-07-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M177" t="n">
+        <v>305.2599999999996</v>
+      </c>
+      <c r="N177" t="n">
+        <v>292.2049999999998</v>
+      </c>
+      <c r="O177" t="n">
+        <v>263.4514285714286</v>
+      </c>
+      <c r="P177" t="n">
+        <v>249.7733333333335</v>
+      </c>
+      <c r="Q177" t="n">
+        <v>240.8623333333334</v>
+      </c>
+      <c r="R177" t="n">
+        <v>305.26</v>
+      </c>
+      <c r="S177" t="n">
+        <v>295.439606148563</v>
+      </c>
+      <c r="T177" t="n">
+        <v>260.3367126976937</v>
+      </c>
+      <c r="U177" t="n">
+        <v>248.4485076633204</v>
+      </c>
+      <c r="V177" t="n">
+        <v>11.88820503437333</v>
+      </c>
+      <c r="W177" t="n">
+        <v>5.648821305640976</v>
+      </c>
+      <c r="X177" t="n">
+        <v>6.239383728732352</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>305.31000000</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>318.75000000</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>299.00000000</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>311.00000000</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>1270368.75300000</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1595807999999</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>392346895.32267080</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>486058</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>629296.22696000</t>
+        </is>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>194398665.55302020</t>
+        </is>
+      </c>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>2020-07-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M178" t="n">
+        <v>310.9999999999997</v>
+      </c>
+      <c r="N178" t="n">
+        <v>308.1299999999998</v>
+      </c>
+      <c r="O178" t="n">
+        <v>273.7214285714285</v>
+      </c>
+      <c r="P178" t="n">
+        <v>254.5606666666668</v>
+      </c>
+      <c r="Q178" t="n">
+        <v>243.5743333333334</v>
+      </c>
+      <c r="R178" t="n">
+        <v>311</v>
+      </c>
+      <c r="S178" t="n">
+        <v>305.813202049521</v>
+      </c>
+      <c r="T178" t="n">
+        <v>268.1310645903574</v>
+      </c>
+      <c r="U178" t="n">
+        <v>253.0819571622263</v>
+      </c>
+      <c r="V178" t="n">
+        <v>15.04910742813107</v>
+      </c>
+      <c r="W178" t="n">
+        <v>7.528878530138996</v>
+      </c>
+      <c r="X178" t="n">
+        <v>7.52022889799207</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>311.02000000</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>333.31000000</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>310.78000000</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>321.93000000</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>1636122.34727000</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1595894399999</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>527292799.28791380</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>645395</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>818454.59042000</t>
+        </is>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>263886380.58021330</t>
+        </is>
+      </c>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>2020-07-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M179" t="n">
+        <v>321.9299999999996</v>
+      </c>
+      <c r="N179" t="n">
+        <v>316.4649999999998</v>
+      </c>
+      <c r="O179" t="n">
+        <v>285.9957142857142</v>
+      </c>
+      <c r="P179" t="n">
+        <v>259.8366666666668</v>
+      </c>
+      <c r="Q179" t="n">
+        <v>246.9406666666667</v>
+      </c>
+      <c r="R179" t="n">
+        <v>321.93</v>
+      </c>
+      <c r="S179" t="n">
+        <v>316.557734016507</v>
+      </c>
+      <c r="T179" t="n">
+        <v>276.4078238841495</v>
+      </c>
+      <c r="U179" t="n">
+        <v>258.1818179169197</v>
+      </c>
+      <c r="V179" t="n">
+        <v>18.22600596722987</v>
+      </c>
+      <c r="W179" t="n">
+        <v>9.668304017557171</v>
+      </c>
+      <c r="X179" t="n">
+        <v>8.557701949672696</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>321.95000000</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>326.80000000</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>305.86000000</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>316.77000000</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1093231.55578000</t>
+        </is>
+      </c>
+      <c r="G180" t="n">
+        <v>1595980799999</v>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>346187853.27592900</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>458451</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>526272.91372000</t>
+        </is>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>166776146.18773630</t>
+        </is>
+      </c>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>2020-07-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M180" t="n">
+        <v>316.7699999999996</v>
+      </c>
+      <c r="N180" t="n">
+        <v>319.3499999999998</v>
+      </c>
+      <c r="O180" t="n">
+        <v>296.1642857142857</v>
+      </c>
+      <c r="P180" t="n">
+        <v>264.9880000000001</v>
+      </c>
+      <c r="Q180" t="n">
+        <v>250.002</v>
+      </c>
+      <c r="R180" t="n">
+        <v>316.77</v>
+      </c>
+      <c r="S180" t="n">
+        <v>316.699244672169</v>
+      </c>
+      <c r="T180" t="n">
+        <v>282.6173894404349</v>
+      </c>
+      <c r="U180" t="n">
+        <v>262.5216877710611</v>
+      </c>
+      <c r="V180" t="n">
+        <v>20.09570166937374</v>
+      </c>
+      <c r="W180" t="n">
+        <v>11.75378354792049</v>
+      </c>
+      <c r="X180" t="n">
+        <v>8.341918121453253</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>316.77000000</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>325.00000000</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>312.38000000</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>317.71000000</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>792802.32148000</t>
+        </is>
+      </c>
+      <c r="G181" t="n">
+        <v>1596067199999</v>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>254201662.13340940</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>347597</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>403407.16614000</t>
+        </is>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>129383921.49019800</t>
+        </is>
+      </c>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>2020-07-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M181" t="n">
+        <v>317.7099999999996</v>
+      </c>
+      <c r="N181" t="n">
+        <v>317.2399999999998</v>
+      </c>
+      <c r="O181" t="n">
+        <v>303.8742857142857</v>
+      </c>
+      <c r="P181" t="n">
+        <v>270.1393333333334</v>
+      </c>
+      <c r="Q181" t="n">
+        <v>252.9946666666667</v>
+      </c>
+      <c r="R181" t="n">
+        <v>317.71</v>
+      </c>
+      <c r="S181" t="n">
+        <v>317.3730815573896</v>
+      </c>
+      <c r="T181" t="n">
+        <v>288.0162526034454</v>
+      </c>
+      <c r="U181" t="n">
+        <v>266.6097148367867</v>
+      </c>
+      <c r="V181" t="n">
+        <v>21.40653776665869</v>
+      </c>
+      <c r="W181" t="n">
+        <v>13.68433439166813</v>
+      </c>
+      <c r="X181" t="n">
+        <v>7.722203374990556</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>317.76000000</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>342.00000000</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>314.05000000</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>334.87000000</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1008827.56698000</t>
+        </is>
+      </c>
+      <c r="G182" t="n">
+        <v>1596153599999</v>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>328286452.51829110</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>410721</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>548703.63674000</t>
+        </is>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>178728061.85059630</t>
+        </is>
+      </c>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>2020-07-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M182" t="n">
+        <v>334.8699999999996</v>
+      </c>
+      <c r="N182" t="n">
+        <v>326.2899999999998</v>
+      </c>
+      <c r="O182" t="n">
+        <v>312.3842857142857</v>
+      </c>
+      <c r="P182" t="n">
+        <v>276.5566666666668</v>
+      </c>
+      <c r="Q182" t="n">
+        <v>256.637</v>
+      </c>
+      <c r="R182" t="n">
+        <v>334.87</v>
+      </c>
+      <c r="S182" t="n">
+        <v>329.0376938524632</v>
+      </c>
+      <c r="T182" t="n">
+        <v>295.2245214336851</v>
+      </c>
+      <c r="U182" t="n">
+        <v>271.6660367658523</v>
+      </c>
+      <c r="V182" t="n">
+        <v>23.55848466783277</v>
+      </c>
+      <c r="W182" t="n">
+        <v>15.65916444690106</v>
+      </c>
+      <c r="X182" t="n">
+        <v>7.899320220931713</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>334.82000000</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>349.45000000</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>328.40000000</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>346.33000000</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>948088.44982000</t>
+        </is>
+      </c>
+      <c r="G183" t="n">
+        <v>1596239999999</v>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>323282981.01591960</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>461788</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>479449.06541000</t>
+        </is>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>163562313.74991860</t>
+        </is>
+      </c>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>2020-07-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M183" t="n">
+        <v>346.3299999999996</v>
+      </c>
+      <c r="N183" t="n">
+        <v>340.5999999999998</v>
+      </c>
+      <c r="O183" t="n">
+        <v>321.9814285714285</v>
+      </c>
+      <c r="P183" t="n">
+        <v>284.0740000000002</v>
+      </c>
+      <c r="Q183" t="n">
+        <v>260.4816666666667</v>
+      </c>
+      <c r="R183" t="n">
+        <v>346.33</v>
+      </c>
+      <c r="S183" t="n">
+        <v>340.5658979508211</v>
+      </c>
+      <c r="T183" t="n">
+        <v>303.0869027515802</v>
+      </c>
+      <c r="U183" t="n">
+        <v>277.1967052763656</v>
+      </c>
+      <c r="V183" t="n">
+        <v>25.89019747521456</v>
+      </c>
+      <c r="W183" t="n">
+        <v>17.70537105256376</v>
+      </c>
+      <c r="X183" t="n">
+        <v>8.184826422650804</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>346.32000000</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>392.67000000</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>343.07000000</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>387.00000000</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1440843.34203000</t>
+        </is>
+      </c>
+      <c r="G184" t="n">
+        <v>1596326399999</v>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>527543444.86288410</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>598900</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>763925.60566000</t>
+        </is>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>279585883.39700170</t>
+        </is>
+      </c>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>2020-08-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M184" t="n">
+        <v>386.9999999999996</v>
+      </c>
+      <c r="N184" t="n">
+        <v>366.6649999999998</v>
+      </c>
+      <c r="O184" t="n">
+        <v>333.6585714285714</v>
+      </c>
+      <c r="P184" t="n">
+        <v>294.3626666666668</v>
+      </c>
+      <c r="Q184" t="n">
+        <v>265.833</v>
+      </c>
+      <c r="R184" t="n">
+        <v>387</v>
+      </c>
+      <c r="S184" t="n">
+        <v>371.5219659836071</v>
+      </c>
+      <c r="T184" t="n">
+        <v>315.9966100205685</v>
+      </c>
+      <c r="U184" t="n">
+        <v>285.3302888825037</v>
+      </c>
+      <c r="V184" t="n">
+        <v>30.6663211380648</v>
+      </c>
+      <c r="W184" t="n">
+        <v>20.29756106966397</v>
+      </c>
+      <c r="X184" t="n">
+        <v>10.36876006840083</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>387.01000000</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>415.85000000</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>325.00000000</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>372.42000000</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>2324909.09616000</t>
+        </is>
+      </c>
+      <c r="G185" t="n">
+        <v>1596412799999</v>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>878397036.29751910</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>960835</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>1147802.64923000</t>
+        </is>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>434515635.48955820</t>
+        </is>
+      </c>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>2020-08-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M185" t="n">
+        <v>372.4199999999996</v>
+      </c>
+      <c r="N185" t="n">
+        <v>379.7099999999998</v>
+      </c>
+      <c r="O185" t="n">
+        <v>342.4328571428571</v>
+      </c>
+      <c r="P185" t="n">
+        <v>303.4793333333335</v>
+      </c>
+      <c r="Q185" t="n">
+        <v>270.7513333333333</v>
+      </c>
+      <c r="R185" t="n">
+        <v>372.42</v>
+      </c>
+      <c r="S185" t="n">
+        <v>372.1206553278691</v>
+      </c>
+      <c r="T185" t="n">
+        <v>324.677131555866</v>
+      </c>
+      <c r="U185" t="n">
+        <v>291.7813831622407</v>
+      </c>
+      <c r="V185" t="n">
+        <v>32.8957483936253</v>
+      </c>
+      <c r="W185" t="n">
+        <v>22.81719853445624</v>
+      </c>
+      <c r="X185" t="n">
+        <v>10.07854985916906</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>372.45000000</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>398.00000000</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>366.50000000</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>385.94000000</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>1191565.09389000</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>1596499199999</v>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>462170587.47850270</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>534803</v>
+      </c>
+      <c r="J186" t="inlineStr">
+        <is>
+          <t>594188.68302000</t>
+        </is>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>230529343.39225330</t>
+        </is>
+      </c>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>2020-08-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M186" t="n">
+        <v>385.9399999999997</v>
+      </c>
+      <c r="N186" t="n">
+        <v>379.1799999999998</v>
+      </c>
+      <c r="O186" t="n">
+        <v>351.5771428571429</v>
+      </c>
+      <c r="P186" t="n">
+        <v>313.2680000000001</v>
+      </c>
+      <c r="Q186" t="n">
+        <v>275.977</v>
+      </c>
+      <c r="R186" t="n">
+        <v>385.94</v>
+      </c>
+      <c r="S186" t="n">
+        <v>381.3335517759563</v>
+      </c>
+      <c r="T186" t="n">
+        <v>334.1021882395793</v>
+      </c>
+      <c r="U186" t="n">
+        <v>298.7561000928628</v>
+      </c>
+      <c r="V186" t="n">
+        <v>35.34608814671657</v>
+      </c>
+      <c r="W186" t="n">
+        <v>25.32297645690831</v>
+      </c>
+      <c r="X186" t="n">
+        <v>10.02311168980826</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>385.91000000</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>402.98000000</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>380.77000000</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>389.61000000</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>1180792.42379000</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>1596585599999</v>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>461794422.20486850</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>503335</v>
+      </c>
+      <c r="J187" t="inlineStr">
+        <is>
+          <t>580630.09812000</t>
+        </is>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>227199384.22215280</t>
+        </is>
+      </c>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>2020-08-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M187" t="n">
+        <v>389.6099999999997</v>
+      </c>
+      <c r="N187" t="n">
+        <v>387.7749999999999</v>
+      </c>
+      <c r="O187" t="n">
+        <v>361.9828571428571</v>
+      </c>
+      <c r="P187" t="n">
+        <v>323.5080000000001</v>
+      </c>
+      <c r="Q187" t="n">
+        <v>281.3786666666667</v>
+      </c>
+      <c r="R187" t="n">
+        <v>389.61</v>
+      </c>
+      <c r="S187" t="n">
+        <v>386.8511839253188</v>
+      </c>
+      <c r="T187" t="n">
+        <v>342.6418515873366</v>
+      </c>
+      <c r="U187" t="n">
+        <v>305.4860226894977</v>
+      </c>
+      <c r="V187" t="n">
+        <v>37.15582889783894</v>
+      </c>
+      <c r="W187" t="n">
+        <v>27.68954694509444</v>
+      </c>
+      <c r="X187" t="n">
+        <v>9.466281952744506</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>389.59000000</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>407.00000000</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>384.11000000</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>400.72000000</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>1124119.06720000</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>1596671999999</v>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>444335097.14939300</t>
+        </is>
+      </c>
+      <c r="I188" t="n">
+        <v>459722</v>
+      </c>
+      <c r="J188" t="inlineStr">
+        <is>
+          <t>569086.53448000</t>
+        </is>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>225101645.73652520</t>
+        </is>
+      </c>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>2020-08-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M188" t="n">
+        <v>400.7199999999997</v>
+      </c>
+      <c r="N188" t="n">
+        <v>395.1649999999998</v>
+      </c>
+      <c r="O188" t="n">
+        <v>373.8414285714286</v>
+      </c>
+      <c r="P188" t="n">
+        <v>333.8500000000001</v>
+      </c>
+      <c r="Q188" t="n">
+        <v>286.6826666666666</v>
+      </c>
+      <c r="R188" t="n">
+        <v>400.72</v>
+      </c>
+      <c r="S188" t="n">
+        <v>396.0970613084396</v>
+      </c>
+      <c r="T188" t="n">
+        <v>351.5769513431312</v>
+      </c>
+      <c r="U188" t="n">
+        <v>312.5403953439174</v>
+      </c>
+      <c r="V188" t="n">
+        <v>39.03655599921382</v>
+      </c>
+      <c r="W188" t="n">
+        <v>29.95894875591832</v>
+      </c>
+      <c r="X188" t="n">
+        <v>9.0776072432955</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>400.72000000</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>403.66000000</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>390.51000000</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>394.77000000</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>821379.08397000</t>
+        </is>
+      </c>
+      <c r="G189" t="n">
+        <v>1596758399999</v>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>325718417.71600690</t>
+        </is>
+      </c>
+      <c r="I189" t="n">
+        <v>388529</v>
+      </c>
+      <c r="J189" t="inlineStr">
+        <is>
+          <t>403029.86304000</t>
+        </is>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>159852195.14677980</t>
+        </is>
+      </c>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>2020-08-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M189" t="n">
+        <v>394.7699999999996</v>
+      </c>
+      <c r="N189" t="n">
+        <v>397.7449999999998</v>
+      </c>
+      <c r="O189" t="n">
+        <v>382.3985714285715</v>
+      </c>
+      <c r="P189" t="n">
+        <v>342.5853333333335</v>
+      </c>
+      <c r="Q189" t="n">
+        <v>291.862</v>
+      </c>
+      <c r="R189" t="n">
+        <v>394.77</v>
+      </c>
+      <c r="S189" t="n">
+        <v>395.2123537694799</v>
+      </c>
+      <c r="T189" t="n">
+        <v>358.2220357518804</v>
+      </c>
+      <c r="U189" t="n">
+        <v>318.6314803400703</v>
+      </c>
+      <c r="V189" t="n">
+        <v>39.5905554118101</v>
+      </c>
+      <c r="W189" t="n">
+        <v>31.88527008709668</v>
+      </c>
+      <c r="X189" t="n">
+        <v>7.705285324713422</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>394.77000000</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>398.26000000</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>362.85000000</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>379.34000000</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>1041207.35946000</t>
+        </is>
+      </c>
+      <c r="G190" t="n">
+        <v>1596844799999</v>
+      </c>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>398625567.06391200</t>
+        </is>
+      </c>
+      <c r="I190" t="n">
+        <v>466548</v>
+      </c>
+      <c r="J190" t="inlineStr">
+        <is>
+          <t>499790.82669000</t>
+        </is>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>191569557.52234410</t>
+        </is>
+      </c>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>2020-08-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M190" t="n">
+        <v>379.3399999999997</v>
+      </c>
+      <c r="N190" t="n">
+        <v>387.0549999999998</v>
+      </c>
+      <c r="O190" t="n">
+        <v>387.1142857142858</v>
+      </c>
+      <c r="P190" t="n">
+        <v>349.5213333333335</v>
+      </c>
+      <c r="Q190" t="n">
+        <v>296.275</v>
+      </c>
+      <c r="R190" t="n">
+        <v>379.34</v>
+      </c>
+      <c r="S190" t="n">
+        <v>384.6307845898266</v>
+      </c>
+      <c r="T190" t="n">
+        <v>361.4709533285143</v>
+      </c>
+      <c r="U190" t="n">
+        <v>323.1284098891246</v>
+      </c>
+      <c r="V190" t="n">
+        <v>38.34254343938966</v>
+      </c>
+      <c r="W190" t="n">
+        <v>33.17672475755528</v>
+      </c>
+      <c r="X190" t="n">
+        <v>5.165818681834381</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>379.34000000</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>397.05000000</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>375.79000000</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>397.03000000</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>623029.78053000</t>
+        </is>
+      </c>
+      <c r="G191" t="n">
+        <v>1596931199999</v>
+      </c>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>240999198.02428520</t>
+        </is>
+      </c>
+      <c r="I191" t="n">
+        <v>300577</v>
+      </c>
+      <c r="J191" t="inlineStr">
+        <is>
+          <t>325760.87681000</t>
+        </is>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>126105849.09518240</t>
+        </is>
+      </c>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>2020-08-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M191" t="n">
+        <v>397.0299999999997</v>
+      </c>
+      <c r="N191" t="n">
+        <v>388.1849999999998</v>
+      </c>
+      <c r="O191" t="n">
+        <v>388.547142857143</v>
+      </c>
+      <c r="P191" t="n">
+        <v>357.3800000000002</v>
+      </c>
+      <c r="Q191" t="n">
+        <v>301.4433333333334</v>
+      </c>
+      <c r="R191" t="n">
+        <v>397.03</v>
+      </c>
+      <c r="S191" t="n">
+        <v>392.8969281966088</v>
+      </c>
+      <c r="T191" t="n">
+        <v>366.9415758933583</v>
+      </c>
+      <c r="U191" t="n">
+        <v>328.6026041915325</v>
+      </c>
+      <c r="V191" t="n">
+        <v>38.33897170182581</v>
+      </c>
+      <c r="W191" t="n">
+        <v>34.20917414640939</v>
+      </c>
+      <c r="X191" t="n">
+        <v>4.129797555416424</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>397.05000000</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>400.00000000</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>383.36000000</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>390.14000000</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>594900.58133000</t>
+        </is>
+      </c>
+      <c r="G192" t="n">
+        <v>1597017599999</v>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>233057462.92739680</t>
+        </is>
+      </c>
+      <c r="I192" t="n">
+        <v>319111</v>
+      </c>
+      <c r="J192" t="inlineStr">
+        <is>
+          <t>294055.13111000</t>
+        </is>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>115294493.99738120</t>
+        </is>
+      </c>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>2020-08-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M192" t="n">
+        <v>390.1399999999996</v>
+      </c>
+      <c r="N192" t="n">
+        <v>393.5849999999999</v>
+      </c>
+      <c r="O192" t="n">
+        <v>391.0785714285715</v>
+      </c>
+      <c r="P192" t="n">
+        <v>363.0386666666669</v>
+      </c>
+      <c r="Q192" t="n">
+        <v>306.406</v>
+      </c>
+      <c r="R192" t="n">
+        <v>390.14</v>
+      </c>
+      <c r="S192" t="n">
+        <v>391.0589760655362</v>
+      </c>
+      <c r="T192" t="n">
+        <v>370.5105642174571</v>
+      </c>
+      <c r="U192" t="n">
+        <v>333.1609316900522</v>
+      </c>
+      <c r="V192" t="n">
+        <v>37.34963252740488</v>
+      </c>
+      <c r="W192" t="n">
+        <v>34.83726582260849</v>
+      </c>
+      <c r="X192" t="n">
+        <v>2.512366704796392</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>390.14000000</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>399.18000000</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>385.13000000</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>395.44000000</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>826969.90633000</t>
+        </is>
+      </c>
+      <c r="G193" t="n">
+        <v>1597103999999</v>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>326372434.89705910</t>
+        </is>
+      </c>
+      <c r="I193" t="n">
+        <v>395123</v>
+      </c>
+      <c r="J193" t="inlineStr">
+        <is>
+          <t>409673.34569000</t>
+        </is>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>161732201.70573280</t>
+        </is>
+      </c>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>2020-08-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M193" t="n">
+        <v>395.4399999999997</v>
+      </c>
+      <c r="N193" t="n">
+        <v>392.79</v>
+      </c>
+      <c r="O193" t="n">
+        <v>392.4357142857144</v>
+      </c>
+      <c r="P193" t="n">
+        <v>368.6680000000002</v>
+      </c>
+      <c r="Q193" t="n">
+        <v>311.6143333333333</v>
+      </c>
+      <c r="R193" t="n">
+        <v>395.44</v>
+      </c>
+      <c r="S193" t="n">
+        <v>393.9796586885121</v>
+      </c>
+      <c r="T193" t="n">
+        <v>374.345862030156</v>
+      </c>
+      <c r="U193" t="n">
+        <v>337.7741977739124</v>
+      </c>
+      <c r="V193" t="n">
+        <v>36.57166425624365</v>
+      </c>
+      <c r="W193" t="n">
+        <v>35.18414550933552</v>
+      </c>
+      <c r="X193" t="n">
+        <v>1.387518746908128</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>395.43000000</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>398.21000000</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>367.00000000</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>379.00000000</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>992412.60230000</t>
+        </is>
+      </c>
+      <c r="G194" t="n">
+        <v>1597190399999</v>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>381981614.62167230</t>
+        </is>
+      </c>
+      <c r="I194" t="n">
+        <v>459623</v>
+      </c>
+      <c r="J194" t="inlineStr">
+        <is>
+          <t>465088.67076000</t>
+        </is>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>179106068.40754950</t>
+        </is>
+      </c>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>2020-08-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M194" t="n">
+        <v>378.9999999999997</v>
+      </c>
+      <c r="N194" t="n">
+        <v>387.22</v>
+      </c>
+      <c r="O194" t="n">
+        <v>390.9200000000001</v>
+      </c>
+      <c r="P194" t="n">
+        <v>372.4726666666668</v>
+      </c>
+      <c r="Q194" t="n">
+        <v>316.1546666666666</v>
+      </c>
+      <c r="R194" t="n">
+        <v>379</v>
+      </c>
+      <c r="S194" t="n">
+        <v>383.9932195628373</v>
+      </c>
+      <c r="T194" t="n">
+        <v>375.0618832562859</v>
+      </c>
+      <c r="U194" t="n">
+        <v>340.8279619833309</v>
+      </c>
+      <c r="V194" t="n">
+        <v>34.23392127295494</v>
+      </c>
+      <c r="W194" t="n">
+        <v>34.99410066205941</v>
+      </c>
+      <c r="X194" t="n">
+        <v>-0.760179389104465</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>378.99000000</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>389.23000000</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>365.85000000</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>387.18000000</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>751848.79830000</t>
+        </is>
+      </c>
+      <c r="G195" t="n">
+        <v>1597276799999</v>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>285872467.64409370</t>
+        </is>
+      </c>
+      <c r="I195" t="n">
+        <v>349082</v>
+      </c>
+      <c r="J195" t="inlineStr">
+        <is>
+          <t>378876.83493000</t>
+        </is>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>144127095.73059770</t>
+        </is>
+      </c>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>2020-08-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M195" t="n">
+        <v>387.1799999999997</v>
+      </c>
+      <c r="N195" t="n">
+        <v>383.0899999999999</v>
+      </c>
+      <c r="O195" t="n">
+        <v>388.9857142857144</v>
+      </c>
+      <c r="P195" t="n">
+        <v>377.1666666666668</v>
+      </c>
+      <c r="Q195" t="n">
+        <v>321.0773333333333</v>
+      </c>
+      <c r="R195" t="n">
+        <v>387.18</v>
+      </c>
+      <c r="S195" t="n">
+        <v>386.1177398542791</v>
+      </c>
+      <c r="T195" t="n">
+        <v>376.9262089091649</v>
+      </c>
+      <c r="U195" t="n">
+        <v>344.2614474068315</v>
+      </c>
+      <c r="V195" t="n">
+        <v>32.66476150233342</v>
+      </c>
+      <c r="W195" t="n">
+        <v>34.52823283011421</v>
+      </c>
+      <c r="X195" t="n">
+        <v>-1.863471327780793</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>387.18000000</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>431.49000000</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>376.59000000</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>424.54000000</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>1511330.77320000</t>
+        </is>
+      </c>
+      <c r="G196" t="n">
+        <v>1597363199999</v>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>604810975.13185700</t>
+        </is>
+      </c>
+      <c r="I196" t="n">
+        <v>634978</v>
+      </c>
+      <c r="J196" t="inlineStr">
+        <is>
+          <t>786249.64387000</t>
+        </is>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>314657280.99639270</t>
+        </is>
+      </c>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>2020-08-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M196" t="n">
+        <v>424.5399999999998</v>
+      </c>
+      <c r="N196" t="n">
+        <v>405.8599999999999</v>
+      </c>
+      <c r="O196" t="n">
+        <v>393.2385714285715</v>
+      </c>
+      <c r="P196" t="n">
+        <v>384.2886666666668</v>
+      </c>
+      <c r="Q196" t="n">
+        <v>327.214</v>
+      </c>
+      <c r="R196" t="n">
+        <v>424.54</v>
+      </c>
+      <c r="S196" t="n">
+        <v>411.7325799514263</v>
+      </c>
+      <c r="T196" t="n">
+        <v>384.2514075385242</v>
+      </c>
+      <c r="U196" t="n">
+        <v>350.2080086638273</v>
+      </c>
+      <c r="V196" t="n">
+        <v>34.04339887469683</v>
+      </c>
+      <c r="W196" t="n">
+        <v>34.43126603903074</v>
+      </c>
+      <c r="X196" t="n">
+        <v>-0.3878671643339047</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>424.54000000</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>444.71000000</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>417.05000000</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>438.11000000</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1109670.94324000</t>
+        </is>
+      </c>
+      <c r="G197" t="n">
+        <v>1597449599999</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>477180580.06183250</t>
+        </is>
+      </c>
+      <c r="I197" t="n">
+        <v>502635</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>551666.89650000</t>
+        </is>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>237162820.57687100</t>
+        </is>
+      </c>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>2020-08-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M197" t="n">
+        <v>438.1099999999998</v>
+      </c>
+      <c r="N197" t="n">
+        <v>431.3249999999999</v>
+      </c>
+      <c r="O197" t="n">
+        <v>401.6342857142858</v>
+      </c>
+      <c r="P197" t="n">
+        <v>391.1713333333335</v>
+      </c>
+      <c r="Q197" t="n">
+        <v>333.864</v>
+      </c>
+      <c r="R197" t="n">
+        <v>438.11</v>
+      </c>
+      <c r="S197" t="n">
+        <v>429.3175266504754</v>
+      </c>
+      <c r="T197" t="n">
+        <v>392.5373448402898</v>
+      </c>
+      <c r="U197" t="n">
+        <v>356.7192691119871</v>
+      </c>
+      <c r="V197" t="n">
+        <v>35.81807572830269</v>
+      </c>
+      <c r="W197" t="n">
+        <v>34.70862797688513</v>
+      </c>
+      <c r="X197" t="n">
+        <v>1.109447751417555</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>438.12000000</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>442.94000000</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>427.02000000</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>432.32000000</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>681698.59710000</t>
+        </is>
+      </c>
+      <c r="G198" t="n">
+        <v>1597535999999</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>296652970.48231940</t>
+        </is>
+      </c>
+      <c r="I198" t="n">
+        <v>351377</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>332354.72985000</t>
+        </is>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>144668622.34551780</t>
+        </is>
+      </c>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>2020-08-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M198" t="n">
+        <v>432.3199999999998</v>
+      </c>
+      <c r="N198" t="n">
+        <v>435.2149999999999</v>
+      </c>
+      <c r="O198" t="n">
+        <v>406.6757142857144</v>
+      </c>
+      <c r="P198" t="n">
+        <v>396.9040000000001</v>
+      </c>
+      <c r="Q198" t="n">
+        <v>340.489</v>
+      </c>
+      <c r="R198" t="n">
+        <v>432.32</v>
+      </c>
+      <c r="S198" t="n">
+        <v>431.3191755501584</v>
+      </c>
+      <c r="T198" t="n">
+        <v>398.6577533263991</v>
+      </c>
+      <c r="U198" t="n">
+        <v>362.3193247096888</v>
+      </c>
+      <c r="V198" t="n">
+        <v>36.33842861671036</v>
+      </c>
+      <c r="W198" t="n">
+        <v>35.03458810485018</v>
+      </c>
+      <c r="X198" t="n">
+        <v>1.30384051186018</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>432.30000000</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>436.99000000</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>412.47000000</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>433.62000000</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>716666.25258000</t>
+        </is>
+      </c>
+      <c r="G199" t="n">
+        <v>1597622399999</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>305445885.81667000</t>
+        </is>
+      </c>
+      <c r="I199" t="n">
+        <v>371807</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>345142.26171000</t>
+        </is>
+      </c>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>147116639.26333250</t>
+        </is>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>2020-08-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M199" t="n">
+        <v>433.6199999999998</v>
+      </c>
+      <c r="N199" t="n">
+        <v>432.9699999999999</v>
+      </c>
+      <c r="O199" t="n">
+        <v>412.8871428571429</v>
+      </c>
+      <c r="P199" t="n">
+        <v>400.0120000000001</v>
+      </c>
+      <c r="Q199" t="n">
+        <v>347.1873333333334</v>
+      </c>
+      <c r="R199" t="n">
+        <v>433.62</v>
+      </c>
+      <c r="S199" t="n">
+        <v>432.8530585167195</v>
+      </c>
+      <c r="T199" t="n">
+        <v>404.0365605069531</v>
+      </c>
+      <c r="U199" t="n">
+        <v>367.6008574857568</v>
+      </c>
+      <c r="V199" t="n">
+        <v>36.43570302119628</v>
+      </c>
+      <c r="W199" t="n">
+        <v>35.3148110881194</v>
+      </c>
+      <c r="X199" t="n">
+        <v>1.120891933076877</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>433.61000000</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>435.00000000</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>420.37000000</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>427.55000000</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>323895.97224000</t>
+        </is>
+      </c>
+      <c r="G200" t="n">
+        <v>1597708799999</v>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>138025724.59730010</t>
+        </is>
+      </c>
+      <c r="I200" t="n">
+        <v>176703</v>
+      </c>
+      <c r="J200" t="inlineStr">
+        <is>
+          <t>161964.30487000</t>
+        </is>
+      </c>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>69032883.37135680</t>
+        </is>
+      </c>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>2020-08-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M200" t="n">
+        <v>427.5499999999998</v>
+      </c>
+      <c r="N200" t="n">
+        <v>430.5849999999999</v>
+      </c>
+      <c r="O200" t="n">
+        <v>417.4742857142858</v>
+      </c>
+      <c r="P200" t="n">
+        <v>403.6873333333334</v>
+      </c>
+      <c r="Q200" t="n">
+        <v>353.5833333333333</v>
+      </c>
+      <c r="R200" t="n">
+        <v>427.55</v>
+      </c>
+      <c r="S200" t="n">
+        <v>429.3176861722398</v>
+      </c>
+      <c r="T200" t="n">
+        <v>407.6540127366526</v>
+      </c>
+      <c r="U200" t="n">
+        <v>372.0415357001443</v>
+      </c>
+      <c r="V200" t="n">
+        <v>35.61247703650832</v>
+      </c>
+      <c r="W200" t="n">
+        <v>35.37434427779719</v>
+      </c>
+      <c r="X200" t="n">
+        <v>0.2381327587111386</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X83"/>
+  <dimension ref="A1:X86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7851,17 +7851,17 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>399.44000000</t>
+          <t>385.10000000</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>404.80000000</t>
+          <t>387.97000000</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>408469.67161000</t>
+          <t>860998.72560000</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -7869,20 +7869,20 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>167584524.96908430</t>
+          <t>347455883.45330630</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>200915</v>
+        <v>414222</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>190952.07585000</t>
+          <t>395087.31195000</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
         <is>
-          <t>78334973.83682080</t>
+          <t>159527686.50068960</t>
         </is>
       </c>
       <c r="L83" t="inlineStr">
@@ -7891,40 +7891,316 @@
         </is>
       </c>
       <c r="M83" t="n">
-        <v>404.7999999999999</v>
+        <v>387.9699999999999</v>
       </c>
       <c r="N83" t="n">
-        <v>410.3699999999998</v>
+        <v>401.9549999999998</v>
       </c>
       <c r="O83" t="n">
-        <v>420.9971428571429</v>
+        <v>418.5928571428572</v>
       </c>
       <c r="P83" t="n">
-        <v>409.184</v>
+        <v>408.062</v>
       </c>
       <c r="Q83" t="n">
-        <v>375.8846666666666</v>
+        <v>375.3236666666666</v>
       </c>
       <c r="R83" t="n">
-        <v>404.8</v>
+        <v>387.97</v>
       </c>
       <c r="S83" t="n">
-        <v>408.2262265782581</v>
+        <v>397.0062265782581</v>
       </c>
       <c r="T83" t="n">
-        <v>409.8682818013829</v>
+        <v>407.2790481213241</v>
       </c>
       <c r="U83" t="n">
-        <v>383.1618141121906</v>
+        <v>381.9128786673206</v>
       </c>
       <c r="V83" t="n">
-        <v>26.70646768919227</v>
+        <v>25.36616945400345</v>
       </c>
       <c r="W83" t="n">
-        <v>31.82249227955874</v>
+        <v>31.55443262948981</v>
       </c>
       <c r="X83" t="n">
-        <v>-5.116024590366475</v>
+        <v>-6.188263175486355</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>387.93000000</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>397.04000000</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>379.92000000</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>395.24000000</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>643235.76543000</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>1598140799999</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>250069873.39723140</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>305450</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>315092.64001000</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>122564498.42421190</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>2020-08-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M84" t="n">
+        <v>395.2399999999998</v>
+      </c>
+      <c r="N84" t="n">
+        <v>391.6049999999998</v>
+      </c>
+      <c r="O84" t="n">
+        <v>413.2957142857143</v>
+      </c>
+      <c r="P84" t="n">
+        <v>409.122</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>379.3216666666667</v>
+      </c>
+      <c r="R84" t="n">
+        <v>395.24</v>
+      </c>
+      <c r="S84" t="n">
+        <v>395.8287421927527</v>
+      </c>
+      <c r="T84" t="n">
+        <v>405.4268851100198</v>
+      </c>
+      <c r="U84" t="n">
+        <v>382.901736107146</v>
+      </c>
+      <c r="V84" t="n">
+        <v>22.52514900287383</v>
+      </c>
+      <c r="W84" t="n">
+        <v>29.74857588783037</v>
+      </c>
+      <c r="X84" t="n">
+        <v>-7.223426884956542</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>395.23000000</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>396.95000000</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>383.15000000</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>390.71000000</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>445317.81989000</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>1598227199999</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>173799978.03511140</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>222729</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>218347.50764000</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>85211118.00730040</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>2020-08-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M85" t="n">
+        <v>390.7099999999998</v>
+      </c>
+      <c r="N85" t="n">
+        <v>392.9749999999998</v>
+      </c>
+      <c r="O85" t="n">
+        <v>407.1657142857143</v>
+      </c>
+      <c r="P85" t="n">
+        <v>408.7006666666667</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>383.0403333333333</v>
+      </c>
+      <c r="R85" t="n">
+        <v>390.71</v>
+      </c>
+      <c r="S85" t="n">
+        <v>392.4162473975842</v>
+      </c>
+      <c r="T85" t="n">
+        <v>403.1627471168343</v>
+      </c>
+      <c r="U85" t="n">
+        <v>383.4810282237531</v>
+      </c>
+      <c r="V85" t="n">
+        <v>19.68171889308127</v>
+      </c>
+      <c r="W85" t="n">
+        <v>27.73520447430977</v>
+      </c>
+      <c r="X85" t="n">
+        <v>-8.053485581228507</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>390.72000000</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>408.53000000</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>387.44000000</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>403.27000000</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>458841.11325000</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>1598313599999</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>183519288.92131770</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>192830</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>233900.10375000</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>93539609.92054810</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>2020-08-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M86" t="n">
+        <v>403.2699999999998</v>
+      </c>
+      <c r="N86" t="n">
+        <v>396.9899999999998</v>
+      </c>
+      <c r="O86" t="n">
+        <v>403.2200000000001</v>
+      </c>
+      <c r="P86" t="n">
+        <v>409.576</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>386.3073333333333</v>
+      </c>
+      <c r="R86" t="n">
+        <v>403.27</v>
+      </c>
+      <c r="S86" t="n">
+        <v>399.6520824658614</v>
+      </c>
+      <c r="T86" t="n">
+        <v>403.1792475716363</v>
+      </c>
+      <c r="U86" t="n">
+        <v>384.9489948685219</v>
+      </c>
+      <c r="V86" t="n">
+        <v>18.23025270311445</v>
+      </c>
+      <c r="W86" t="n">
+        <v>25.83421410906473</v>
+      </c>
+      <c r="X86" t="n">
+        <v>-7.603961405950283</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -8132,12 +8132,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>403.27000000</t>
+          <t>402.19000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>458841.11325000</t>
+          <t>467428.26864000</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8145,20 +8145,20 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>183519288.92131770</t>
+          <t>186975592.64831610</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>192830</v>
+        <v>196931</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>233900.10375000</t>
+          <t>238181.57943000</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>93539609.92054810</t>
+          <t>95262730.30654100</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -8167,40 +8167,40 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>403.2699999999998</v>
+        <v>402.1899999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>396.9899999999998</v>
+        <v>396.4499999999998</v>
       </c>
       <c r="O86" t="n">
-        <v>403.2200000000001</v>
+        <v>403.0657142857144</v>
       </c>
       <c r="P86" t="n">
-        <v>409.576</v>
+        <v>409.504</v>
       </c>
       <c r="Q86" t="n">
-        <v>386.3073333333333</v>
+        <v>386.2713333333333</v>
       </c>
       <c r="R86" t="n">
-        <v>403.27</v>
+        <v>402.19</v>
       </c>
       <c r="S86" t="n">
-        <v>399.6520824658614</v>
+        <v>398.9320824658614</v>
       </c>
       <c r="T86" t="n">
-        <v>403.1792475716363</v>
+        <v>403.0130936123196</v>
       </c>
       <c r="U86" t="n">
-        <v>384.9489948685219</v>
+        <v>384.8688793377971</v>
       </c>
       <c r="V86" t="n">
-        <v>18.23025270311445</v>
+        <v>18.14421427452248</v>
       </c>
       <c r="W86" t="n">
-        <v>25.83421410906473</v>
+        <v>25.81700642324671</v>
       </c>
       <c r="X86" t="n">
-        <v>-7.603961405950283</v>
+        <v>-7.672792148724227</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X86"/>
+  <dimension ref="A1:X113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8122,7 +8122,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>408.53000000</t>
+          <t>410.42000000</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -8132,12 +8132,12 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>402.19000000</t>
+          <t>407.68000000</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>467428.26864000</t>
+          <t>717403.81877000</t>
         </is>
       </c>
       <c r="G86" t="n">
@@ -8145,20 +8145,20 @@
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>186975592.64831610</t>
+          <t>287991794.22058410</t>
         </is>
       </c>
       <c r="I86" t="n">
-        <v>196931</v>
+        <v>307676</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>238181.57943000</t>
+          <t>374389.16218000</t>
         </is>
       </c>
       <c r="K86" t="inlineStr">
         <is>
-          <t>95262730.30654100</t>
+          <t>150318604.20706690</t>
         </is>
       </c>
       <c r="L86" t="inlineStr">
@@ -8167,40 +8167,2524 @@
         </is>
       </c>
       <c r="M86" t="n">
-        <v>402.1899999999999</v>
+        <v>407.6799999999999</v>
       </c>
       <c r="N86" t="n">
-        <v>396.4499999999998</v>
+        <v>399.1949999999998</v>
       </c>
       <c r="O86" t="n">
-        <v>403.0657142857144</v>
+        <v>403.85</v>
       </c>
       <c r="P86" t="n">
-        <v>409.504</v>
+        <v>409.87</v>
       </c>
       <c r="Q86" t="n">
-        <v>386.2713333333333</v>
+        <v>386.4543333333333</v>
       </c>
       <c r="R86" t="n">
-        <v>402.19</v>
+        <v>407.68</v>
       </c>
       <c r="S86" t="n">
-        <v>398.9320824658614</v>
+        <v>402.5920824658614</v>
       </c>
       <c r="T86" t="n">
-        <v>403.0130936123196</v>
+        <v>403.8577095721796</v>
       </c>
       <c r="U86" t="n">
-        <v>384.8688793377971</v>
+        <v>385.2761332856478</v>
       </c>
       <c r="V86" t="n">
-        <v>18.14421427452248</v>
+        <v>18.5815762865318</v>
       </c>
       <c r="W86" t="n">
-        <v>25.81700642324671</v>
+        <v>25.904478826155</v>
       </c>
       <c r="X86" t="n">
-        <v>-7.672792148724227</v>
+        <v>-7.322902539623204</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>407.68000000</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>409.06000000</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>370.00000000</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>382.93000000</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>970445.38395000</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>1598399999999</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>375681480.18694300</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>411636</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>463076.75010000</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>179300083.72858850</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>2020-08-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M87" t="n">
+        <v>382.9299999999999</v>
+      </c>
+      <c r="N87" t="n">
+        <v>395.3049999999998</v>
+      </c>
+      <c r="O87" t="n">
+        <v>398.2757142857143</v>
+      </c>
+      <c r="P87" t="n">
+        <v>409.0360000000001</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>388.852</v>
+      </c>
+      <c r="R87" t="n">
+        <v>382.93</v>
+      </c>
+      <c r="S87" t="n">
+        <v>389.4840274886205</v>
+      </c>
+      <c r="T87" t="n">
+        <v>400.638060090232</v>
+      </c>
+      <c r="U87" t="n">
+        <v>385.1021132776173</v>
+      </c>
+      <c r="V87" t="n">
+        <v>15.53594681261472</v>
+      </c>
+      <c r="W87" t="n">
+        <v>23.83077241384219</v>
+      </c>
+      <c r="X87" t="n">
+        <v>-8.294825601227469</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>382.91000000</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>392.91000000</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>377.37000000</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>385.81000000</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>738690.77940000</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>1598486399999</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>284504413.09361920</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>351141</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>372284.31302000</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>143413331.40317950</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>2020-08-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M88" t="n">
+        <v>385.8099999999999</v>
+      </c>
+      <c r="N88" t="n">
+        <v>384.3699999999998</v>
+      </c>
+      <c r="O88" t="n">
+        <v>395.1828571428572</v>
+      </c>
+      <c r="P88" t="n">
+        <v>409.4900000000001</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>390.9813333333333</v>
+      </c>
+      <c r="R88" t="n">
+        <v>385.81</v>
+      </c>
+      <c r="S88" t="n">
+        <v>387.0346758295402</v>
+      </c>
+      <c r="T88" t="n">
+        <v>398.3568189639446</v>
+      </c>
+      <c r="U88" t="n">
+        <v>385.1546142394717</v>
+      </c>
+      <c r="V88" t="n">
+        <v>13.20220472447289</v>
+      </c>
+      <c r="W88" t="n">
+        <v>21.70505886809183</v>
+      </c>
+      <c r="X88" t="n">
+        <v>-8.502854143618936</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>385.81000000</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>397.10000000</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>371.48000000</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>383.27000000</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>877763.73658000</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>1598572799999</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>336647752.29422450</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>392116</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>441967.74994000</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>169506712.89737500</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>2020-08-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M89" t="n">
+        <v>383.2699999999999</v>
+      </c>
+      <c r="N89" t="n">
+        <v>384.5399999999997</v>
+      </c>
+      <c r="O89" t="n">
+        <v>390.5157142857143</v>
+      </c>
+      <c r="P89" t="n">
+        <v>409.2293333333334</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>393.198</v>
+      </c>
+      <c r="R89" t="n">
+        <v>383.27</v>
+      </c>
+      <c r="S89" t="n">
+        <v>384.5248919431801</v>
+      </c>
+      <c r="T89" t="n">
+        <v>396.0357689348767</v>
+      </c>
+      <c r="U89" t="n">
+        <v>385.014853193657</v>
+      </c>
+      <c r="V89" t="n">
+        <v>11.02091574121965</v>
+      </c>
+      <c r="W89" t="n">
+        <v>19.56823023638324</v>
+      </c>
+      <c r="X89" t="n">
+        <v>-8.54731449516359</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>383.31000000</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>398.00000000</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>379.75000000</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>395.11000000</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>732601.46905000</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1598659199999</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>286555001.99418380</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>311832</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>376745.79555000</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>147371987.07353450</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>2020-08-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M90" t="n">
+        <v>395.1099999999999</v>
+      </c>
+      <c r="N90" t="n">
+        <v>389.1899999999998</v>
+      </c>
+      <c r="O90" t="n">
+        <v>391.5357142857143</v>
+      </c>
+      <c r="P90" t="n">
+        <v>407.2673333333333</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>395.778</v>
+      </c>
+      <c r="R90" t="n">
+        <v>395.11</v>
+      </c>
+      <c r="S90" t="n">
+        <v>391.5816306477267</v>
+      </c>
+      <c r="T90" t="n">
+        <v>395.8933428951701</v>
+      </c>
+      <c r="U90" t="n">
+        <v>385.7634353062878</v>
+      </c>
+      <c r="V90" t="n">
+        <v>10.1299075888823</v>
+      </c>
+      <c r="W90" t="n">
+        <v>17.68056570240661</v>
+      </c>
+      <c r="X90" t="n">
+        <v>-7.550658113524303</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>395.10000000</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>405.69000000</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>391.88000000</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>398.65000000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>659802.63344000</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1598745599999</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>263787683.02808370</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>300090</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>335970.72742000</t>
+        </is>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>134324057.77429140</t>
+        </is>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>2020-08-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M91" t="n">
+        <v>398.6499999999999</v>
+      </c>
+      <c r="N91" t="n">
+        <v>396.8799999999999</v>
+      </c>
+      <c r="O91" t="n">
+        <v>392.0228571428571</v>
+      </c>
+      <c r="P91" t="n">
+        <v>404.6366666666667</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>397.9039999999999</v>
+      </c>
+      <c r="R91" t="n">
+        <v>398.65</v>
+      </c>
+      <c r="S91" t="n">
+        <v>396.2938768825756</v>
+      </c>
+      <c r="T91" t="n">
+        <v>396.3174441135088</v>
+      </c>
+      <c r="U91" t="n">
+        <v>386.7189334142585</v>
+      </c>
+      <c r="V91" t="n">
+        <v>9.598510699250312</v>
+      </c>
+      <c r="W91" t="n">
+        <v>16.06415469870879</v>
+      </c>
+      <c r="X91" t="n">
+        <v>-6.465643999458482</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>398.65000000</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>429.89000000</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>398.30000000</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>428.94000000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>894979.71788000</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>1598831999999</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>370467271.09903470</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>395838</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>454113.30749000</t>
+        </is>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>188019162.80121010</t>
+        </is>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>2020-08-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M92" t="n">
+        <v>428.9399999999999</v>
+      </c>
+      <c r="N92" t="n">
+        <v>413.7949999999999</v>
+      </c>
+      <c r="O92" t="n">
+        <v>397.4842857142857</v>
+      </c>
+      <c r="P92" t="n">
+        <v>404.4113333333333</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>400.6576666666667</v>
+      </c>
+      <c r="R92" t="n">
+        <v>428.94</v>
+      </c>
+      <c r="S92" t="n">
+        <v>418.0579589608585</v>
+      </c>
+      <c r="T92" t="n">
+        <v>401.3363001198442</v>
+      </c>
+      <c r="U92" t="n">
+        <v>389.8492644759345</v>
+      </c>
+      <c r="V92" t="n">
+        <v>11.48703564390968</v>
+      </c>
+      <c r="W92" t="n">
+        <v>15.14873088635962</v>
+      </c>
+      <c r="X92" t="n">
+        <v>-3.661695242449946</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>428.94000000</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>439.00000000</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>418.04000000</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>433.79000000</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1040748.68881000</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1598918399999</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>447866996.18511480</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>456201</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>521857.12047000</t>
+        </is>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>224568024.60673360</t>
+        </is>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>2020-08-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M93" t="n">
+        <v>433.79</v>
+      </c>
+      <c r="N93" t="n">
+        <v>431.365</v>
+      </c>
+      <c r="O93" t="n">
+        <v>401.2142857142857</v>
+      </c>
+      <c r="P93" t="n">
+        <v>404.4226666666667</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>402.2173333333333</v>
+      </c>
+      <c r="R93" t="n">
+        <v>433.79</v>
+      </c>
+      <c r="S93" t="n">
+        <v>428.5459863202862</v>
+      </c>
+      <c r="T93" t="n">
+        <v>406.3291780805459</v>
+      </c>
+      <c r="U93" t="n">
+        <v>393.1068748030003</v>
+      </c>
+      <c r="V93" t="n">
+        <v>13.22230327754568</v>
+      </c>
+      <c r="W93" t="n">
+        <v>14.76344536412904</v>
+      </c>
+      <c r="X93" t="n">
+        <v>-1.541142086583358</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>433.80000000</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>488.84000000</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>429.03000000</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>475.40000000</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1751354.57719000</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>1599004799999</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>813662129.65048800</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>763508</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>869375.35063000</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>403711776.22557970</t>
+        </is>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>2020-09-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M94" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="N94" t="n">
+        <v>454.5949999999999</v>
+      </c>
+      <c r="O94" t="n">
+        <v>414.4242857142858</v>
+      </c>
+      <c r="P94" t="n">
+        <v>407.39</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>405.65</v>
+      </c>
+      <c r="R94" t="n">
+        <v>475.4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>459.7819954400954</v>
+      </c>
+      <c r="T94" t="n">
+        <v>416.9554602776661</v>
+      </c>
+      <c r="U94" t="n">
+        <v>399.2074147583361</v>
+      </c>
+      <c r="V94" t="n">
+        <v>17.74804551933005</v>
+      </c>
+      <c r="W94" t="n">
+        <v>15.36036539574905</v>
+      </c>
+      <c r="X94" t="n">
+        <v>2.387680123581001</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>475.40000000</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>481.39000000</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>420.00000000</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>439.50000000</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>1880642.46853000</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>1599091199999</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>844475154.71608050</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>825133</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>930825.55373000</t>
+        </is>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>418025683.68122710</t>
+        </is>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>2020-09-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M95" t="n">
+        <v>439.5000000000001</v>
+      </c>
+      <c r="N95" t="n">
+        <v>457.4499999999999</v>
+      </c>
+      <c r="O95" t="n">
+        <v>422.0942857142858</v>
+      </c>
+      <c r="P95" t="n">
+        <v>408.56</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>407.4353333333333</v>
+      </c>
+      <c r="R95" t="n">
+        <v>439.5</v>
+      </c>
+      <c r="S95" t="n">
+        <v>446.2606651466985</v>
+      </c>
+      <c r="T95" t="n">
+        <v>420.4238515294282</v>
+      </c>
+      <c r="U95" t="n">
+        <v>402.1942053274655</v>
+      </c>
+      <c r="V95" t="n">
+        <v>18.22964620196274</v>
+      </c>
+      <c r="W95" t="n">
+        <v>15.93422155743771</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.295424644525028</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>439.50000000</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>450.70000000</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>372.00000000</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>381.40000000</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2408569.34151000</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>1599177599999</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>995567239.00840270</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>903066</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>1163309.47153000</t>
+        </is>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>481135153.40023240</t>
+        </is>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>2020-09-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M96" t="n">
+        <v>381.4000000000001</v>
+      </c>
+      <c r="N96" t="n">
+        <v>410.4499999999999</v>
+      </c>
+      <c r="O96" t="n">
+        <v>421.8271428571429</v>
+      </c>
+      <c r="P96" t="n">
+        <v>406.8226666666666</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>407.1616666666666</v>
+      </c>
+      <c r="R96" t="n">
+        <v>381.4</v>
+      </c>
+      <c r="S96" t="n">
+        <v>403.0202217155662</v>
+      </c>
+      <c r="T96" t="n">
+        <v>414.4201812940486</v>
+      </c>
+      <c r="U96" t="n">
+        <v>400.6528642846975</v>
+      </c>
+      <c r="V96" t="n">
+        <v>13.76731700935113</v>
+      </c>
+      <c r="W96" t="n">
+        <v>15.50084064755098</v>
+      </c>
+      <c r="X96" t="n">
+        <v>-1.73352363819985</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>381.35000000</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>400.21000000</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>357.00000000</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>385.26000000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>1806488.22474000</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>1599263999999</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>696658932.11542750</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>744610</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>898001.98862000</t>
+        </is>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>346399148.75434910</t>
+        </is>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>2020-09-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M97" t="n">
+        <v>385.2600000000001</v>
+      </c>
+      <c r="N97" t="n">
+        <v>383.3299999999999</v>
+      </c>
+      <c r="O97" t="n">
+        <v>420.42</v>
+      </c>
+      <c r="P97" t="n">
+        <v>404.7773333333333</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>406.6463333333333</v>
+      </c>
+      <c r="R97" t="n">
+        <v>385.26</v>
+      </c>
+      <c r="S97" t="n">
+        <v>391.1800739051887</v>
+      </c>
+      <c r="T97" t="n">
+        <v>409.933999070081</v>
+      </c>
+      <c r="U97" t="n">
+        <v>399.5119464906759</v>
+      </c>
+      <c r="V97" t="n">
+        <v>10.42205257940515</v>
+      </c>
+      <c r="W97" t="n">
+        <v>14.48508303341666</v>
+      </c>
+      <c r="X97" t="n">
+        <v>-4.063030454011511</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>385.30000000</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>395.00000000</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>308.42000000</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>335.01000000</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2777166.51389000</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1599350399999</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>967730464.90551640</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>1074986</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>1359142.30847000</t>
+        </is>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>474118503.45672320</t>
+        </is>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>2020-09-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M98" t="n">
+        <v>335.0100000000001</v>
+      </c>
+      <c r="N98" t="n">
+        <v>360.1349999999999</v>
+      </c>
+      <c r="O98" t="n">
+        <v>411.3285714285714</v>
+      </c>
+      <c r="P98" t="n">
+        <v>401.2466666666667</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>404.6543333333333</v>
+      </c>
+      <c r="R98" t="n">
+        <v>335.01</v>
+      </c>
+      <c r="S98" t="n">
+        <v>353.7333579683962</v>
+      </c>
+      <c r="T98" t="n">
+        <v>398.4072289248457</v>
+      </c>
+      <c r="U98" t="n">
+        <v>394.7312868429804</v>
+      </c>
+      <c r="V98" t="n">
+        <v>3.675942081865344</v>
+      </c>
+      <c r="W98" t="n">
+        <v>12.32325484224629</v>
+      </c>
+      <c r="X98" t="n">
+        <v>-8.647312760380949</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>335.04000000</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>360.00000000</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>316.10000000</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>352.80000000</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2017811.14721000</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>1599436799999</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>691925087.39681090</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>852597</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>1001126.65908000</t>
+        </is>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>343097243.97381230</t>
+        </is>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>2020-09-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M99" t="n">
+        <v>352.8000000000002</v>
+      </c>
+      <c r="N99" t="n">
+        <v>343.905</v>
+      </c>
+      <c r="O99" t="n">
+        <v>400.4514285714286</v>
+      </c>
+      <c r="P99" t="n">
+        <v>398.4173333333334</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>403.7696666666666</v>
+      </c>
+      <c r="R99" t="n">
+        <v>352.8</v>
+      </c>
+      <c r="S99" t="n">
+        <v>353.1111193227987</v>
+      </c>
+      <c r="T99" t="n">
+        <v>391.3907316224801</v>
+      </c>
+      <c r="U99" t="n">
+        <v>391.6236177869018</v>
+      </c>
+      <c r="V99" t="n">
+        <v>-0.2328861644217</v>
+      </c>
+      <c r="W99" t="n">
+        <v>9.812026640113404</v>
+      </c>
+      <c r="X99" t="n">
+        <v>-10.0449128045351</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>352.85000000</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>358.51000000</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>323.00000000</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>353.59000000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1740618.42462000</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>1599523199999</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>596754172.70084040</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>708066</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>875520.99803000</t>
+        </is>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>300098826.31230790</t>
+        </is>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>2020-09-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M100" t="n">
+        <v>353.5900000000001</v>
+      </c>
+      <c r="N100" t="n">
+        <v>353.1949999999999</v>
+      </c>
+      <c r="O100" t="n">
+        <v>388.9942857142857</v>
+      </c>
+      <c r="P100" t="n">
+        <v>395.9426666666667</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>402.3216666666666</v>
+      </c>
+      <c r="R100" t="n">
+        <v>353.59</v>
+      </c>
+      <c r="S100" t="n">
+        <v>353.4303731075996</v>
+      </c>
+      <c r="T100" t="n">
+        <v>385.5752340677843</v>
+      </c>
+      <c r="U100" t="n">
+        <v>388.8049288954712</v>
+      </c>
+      <c r="V100" t="n">
+        <v>-3.229694827686899</v>
+      </c>
+      <c r="W100" t="n">
+        <v>7.203682345889182</v>
+      </c>
+      <c r="X100" t="n">
+        <v>-10.43337717357608</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>353.59000000</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>356.58000000</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>325.38000000</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>337.39000000</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1400246.82962000</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>1599609599999</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>476444912.54463500</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>554846</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>683844.91475000</t>
+        </is>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>232727441.34534670</t>
+        </is>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>2020-09-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M101" t="n">
+        <v>337.39</v>
+      </c>
+      <c r="N101" t="n">
+        <v>345.4899999999999</v>
+      </c>
+      <c r="O101" t="n">
+        <v>369.2785714285714</v>
+      </c>
+      <c r="P101" t="n">
+        <v>391.2566666666667</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>400.5633333333333</v>
+      </c>
+      <c r="R101" t="n">
+        <v>337.39</v>
+      </c>
+      <c r="S101" t="n">
+        <v>342.7367910358665</v>
+      </c>
+      <c r="T101" t="n">
+        <v>378.1621207222442</v>
+      </c>
+      <c r="U101" t="n">
+        <v>384.9946835262724</v>
+      </c>
+      <c r="V101" t="n">
+        <v>-6.832562804028214</v>
+      </c>
+      <c r="W101" t="n">
+        <v>4.396433315333856</v>
+      </c>
+      <c r="X101" t="n">
+        <v>-11.22899611936207</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>337.41000000</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>359.00000000</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>330.51000000</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>350.85000000</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>879760.56255000</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>1599695999999</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>304910633.80088960</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>381038</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>450864.78551000</t>
+        </is>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>156362634.92576610</t>
+        </is>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>2020-09-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M102" t="n">
+        <v>350.85</v>
+      </c>
+      <c r="N102" t="n">
+        <v>344.12</v>
+      </c>
+      <c r="O102" t="n">
+        <v>356.6142857142857</v>
+      </c>
+      <c r="P102" t="n">
+        <v>389.1180000000001</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>399.0769999999999</v>
+      </c>
+      <c r="R102" t="n">
+        <v>350.85</v>
+      </c>
+      <c r="S102" t="n">
+        <v>348.1455970119555</v>
+      </c>
+      <c r="T102" t="n">
+        <v>373.9602557981279</v>
+      </c>
+      <c r="U102" t="n">
+        <v>382.4643826524865</v>
+      </c>
+      <c r="V102" t="n">
+        <v>-8.504126854358617</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.816321280974899</v>
+      </c>
+      <c r="X102" t="n">
+        <v>-10.32044813533352</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>350.85000000</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>377.25000000</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>349.91000000</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>367.93000000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1134287.61137000</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>1599782399999</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>416598205.66604800</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>512819</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>564874.99855000</t>
+        </is>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>207485762.51111200</t>
+        </is>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>2020-09-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M103" t="n">
+        <v>367.9299999999999</v>
+      </c>
+      <c r="N103" t="n">
+        <v>359.39</v>
+      </c>
+      <c r="O103" t="n">
+        <v>354.6899999999999</v>
+      </c>
+      <c r="P103" t="n">
+        <v>387.926</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>398.7079999999999</v>
+      </c>
+      <c r="R103" t="n">
+        <v>367.93</v>
+      </c>
+      <c r="S103" t="n">
+        <v>361.3351990039852</v>
+      </c>
+      <c r="T103" t="n">
+        <v>373.032524099958</v>
+      </c>
+      <c r="U103" t="n">
+        <v>381.387341947527</v>
+      </c>
+      <c r="V103" t="n">
+        <v>-8.354817847568938</v>
+      </c>
+      <c r="W103" t="n">
+        <v>-0.2179065449990705</v>
+      </c>
+      <c r="X103" t="n">
+        <v>-8.136911302569867</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>367.93000000</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>375.27000000</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>355.49000000</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>373.63000000</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>844017.59966000</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>1599868799999</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>308822715.13365630</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>367615</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>423159.48329000</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>154876994.89740980</t>
+        </is>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>2020-09-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M104" t="n">
+        <v>373.6299999999999</v>
+      </c>
+      <c r="N104" t="n">
+        <v>370.78</v>
+      </c>
+      <c r="O104" t="n">
+        <v>353.0285714285714</v>
+      </c>
+      <c r="P104" t="n">
+        <v>387.2833333333334</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>398.2563333333332</v>
+      </c>
+      <c r="R104" t="n">
+        <v>373.63</v>
+      </c>
+      <c r="S104" t="n">
+        <v>369.5317330013284</v>
+      </c>
+      <c r="T104" t="n">
+        <v>373.1244434722905</v>
+      </c>
+      <c r="U104" t="n">
+        <v>380.8125165871112</v>
+      </c>
+      <c r="V104" t="n">
+        <v>-7.688073114820725</v>
+      </c>
+      <c r="W104" t="n">
+        <v>-1.711939859119223</v>
+      </c>
+      <c r="X104" t="n">
+        <v>-5.976133255701502</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>373.62000000</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>388.57000000</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>364.73000000</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>387.78000000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>766542.31635000</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1599955199999</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>287133871.24729080</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>318774</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>391980.78732000</t>
+        </is>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>146905887.14703520</t>
+        </is>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>2020-09-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M105" t="n">
+        <v>387.7799999999999</v>
+      </c>
+      <c r="N105" t="n">
+        <v>380.705</v>
+      </c>
+      <c r="O105" t="n">
+        <v>360.5671428571428</v>
+      </c>
+      <c r="P105" t="n">
+        <v>386.7946666666667</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>397.0309999999999</v>
+      </c>
+      <c r="R105" t="n">
+        <v>387.78</v>
+      </c>
+      <c r="S105" t="n">
+        <v>381.6972443337761</v>
+      </c>
+      <c r="T105" t="n">
+        <v>375.3791445407956</v>
+      </c>
+      <c r="U105" t="n">
+        <v>381.3287989805281</v>
+      </c>
+      <c r="V105" t="n">
+        <v>-5.949654439732569</v>
+      </c>
+      <c r="W105" t="n">
+        <v>-2.559482775312608</v>
+      </c>
+      <c r="X105" t="n">
+        <v>-3.390171664419961</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>387.78000000</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>390.43000000</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>350.00000000</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>366.42000000</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>989195.69047000</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1600041599999</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>367969518.51348870</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>430236</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>471379.94130000</t>
+        </is>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>175392358.37933570</t>
+        </is>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>2020-09-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M106" t="n">
+        <v>366.4199999999998</v>
+      </c>
+      <c r="N106" t="n">
+        <v>377.1000000000001</v>
+      </c>
+      <c r="O106" t="n">
+        <v>362.5128571428571</v>
+      </c>
+      <c r="P106" t="n">
+        <v>384.646</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>394.6413333333332</v>
+      </c>
+      <c r="R106" t="n">
+        <v>366.42</v>
+      </c>
+      <c r="S106" t="n">
+        <v>371.5124147779254</v>
+      </c>
+      <c r="T106" t="n">
+        <v>374.0008145782122</v>
+      </c>
+      <c r="U106" t="n">
+        <v>380.2241017186743</v>
+      </c>
+      <c r="V106" t="n">
+        <v>-6.223287140462105</v>
+      </c>
+      <c r="W106" t="n">
+        <v>-3.292243648391419</v>
+      </c>
+      <c r="X106" t="n">
+        <v>-2.931043492070686</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>366.43000000</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>384.64000000</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>355.73000000</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>377.12000000</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1042059.62265000</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1600127999999</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>387238794.68097150</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>476828</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>520997.62714000</t>
+        </is>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>193631762.56564660</t>
+        </is>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>2020-09-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M107" t="n">
+        <v>377.1199999999998</v>
+      </c>
+      <c r="N107" t="n">
+        <v>371.7700000000001</v>
+      </c>
+      <c r="O107" t="n">
+        <v>365.8742857142856</v>
+      </c>
+      <c r="P107" t="n">
+        <v>381.1913333333334</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>392.8013333333332</v>
+      </c>
+      <c r="R107" t="n">
+        <v>377.12</v>
+      </c>
+      <c r="S107" t="n">
+        <v>375.2508049259752</v>
+      </c>
+      <c r="T107" t="n">
+        <v>374.4806892682766</v>
+      </c>
+      <c r="U107" t="n">
+        <v>379.9941023696979</v>
+      </c>
+      <c r="V107" t="n">
+        <v>-5.513413101421349</v>
+      </c>
+      <c r="W107" t="n">
+        <v>-3.736477539021127</v>
+      </c>
+      <c r="X107" t="n">
+        <v>-1.776935562400223</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>377.12000000</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>382.47000000</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>362.34000000</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>364.06000000</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>883856.33005000</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>1600214399999</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>328317009.56834610</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>405048</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>425660.93557000</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>158082601.83653550</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>2020-09-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M108" t="n">
+        <v>364.0599999999998</v>
+      </c>
+      <c r="N108" t="n">
+        <v>370.59</v>
+      </c>
+      <c r="O108" t="n">
+        <v>369.6842857142856</v>
+      </c>
+      <c r="P108" t="n">
+        <v>376.5426666666668</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>390.4826666666665</v>
+      </c>
+      <c r="R108" t="n">
+        <v>364.06</v>
+      </c>
+      <c r="S108" t="n">
+        <v>367.7902683086584</v>
+      </c>
+      <c r="T108" t="n">
+        <v>372.877506276253</v>
+      </c>
+      <c r="U108" t="n">
+        <v>378.8134853297936</v>
+      </c>
+      <c r="V108" t="n">
+        <v>-5.935979053540564</v>
+      </c>
+      <c r="W108" t="n">
+        <v>-4.176377841943807</v>
+      </c>
+      <c r="X108" t="n">
+        <v>-1.759601211596757</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>364.05000000</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>373.45000000</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>355.00000000</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>365.11000000</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>841709.98939000</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>1600300799999</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>306622238.07155210</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>371665</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>401737.07122000</t>
+        </is>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>146390592.33280320</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>2020-09-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M109" t="n">
+        <v>365.1099999999998</v>
+      </c>
+      <c r="N109" t="n">
+        <v>364.585</v>
+      </c>
+      <c r="O109" t="n">
+        <v>371.7214285714285</v>
+      </c>
+      <c r="P109" t="n">
+        <v>369.1900000000001</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>388.2899999999999</v>
+      </c>
+      <c r="R109" t="n">
+        <v>365.11</v>
+      </c>
+      <c r="S109" t="n">
+        <v>366.0034227695528</v>
+      </c>
+      <c r="T109" t="n">
+        <v>371.6825052932216</v>
+      </c>
+      <c r="U109" t="n">
+        <v>377.7981629757604</v>
+      </c>
+      <c r="V109" t="n">
+        <v>-6.115657682538767</v>
+      </c>
+      <c r="W109" t="n">
+        <v>-4.564233810076054</v>
+      </c>
+      <c r="X109" t="n">
+        <v>-1.551423872462713</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>365.04000000</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>394.14000000</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>363.30000000</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>389.36000000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1256300.41100000</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1600387199999</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>479026710.89661470</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>505247</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>649410.54624000</t>
+        </is>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>247663754.94968120</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>2020-09-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M110" t="n">
+        <v>389.3599999999998</v>
+      </c>
+      <c r="N110" t="n">
+        <v>377.235</v>
+      </c>
+      <c r="O110" t="n">
+        <v>374.7828571428571</v>
+      </c>
+      <c r="P110" t="n">
+        <v>365.8473333333334</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>387.2036666666665</v>
+      </c>
+      <c r="R110" t="n">
+        <v>389.36</v>
+      </c>
+      <c r="S110" t="n">
+        <v>381.5744742565176</v>
+      </c>
+      <c r="T110" t="n">
+        <v>374.4021198971065</v>
+      </c>
+      <c r="U110" t="n">
+        <v>378.6547901540034</v>
+      </c>
+      <c r="V110" t="n">
+        <v>-4.25267025689692</v>
+      </c>
+      <c r="W110" t="n">
+        <v>-4.501921099438524</v>
+      </c>
+      <c r="X110" t="n">
+        <v>0.2492508425416045</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>389.35000000</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>392.58000000</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>375.33000000</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>384.39000000</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>804194.47219000</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>1600473599999</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>308748579.81603240</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>323159</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>390631.14787000</t>
+        </is>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>150003338.33482060</t>
+        </is>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>2020-09-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M111" t="n">
+        <v>384.3899999999998</v>
+      </c>
+      <c r="N111" t="n">
+        <v>386.8750000000001</v>
+      </c>
+      <c r="O111" t="n">
+        <v>376.3199999999999</v>
+      </c>
+      <c r="P111" t="n">
+        <v>366.0466666666668</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>386.4346666666666</v>
+      </c>
+      <c r="R111" t="n">
+        <v>384.39</v>
+      </c>
+      <c r="S111" t="n">
+        <v>383.4514914188392</v>
+      </c>
+      <c r="T111" t="n">
+        <v>375.9387168520821</v>
+      </c>
+      <c r="U111" t="n">
+        <v>379.0797099863573</v>
+      </c>
+      <c r="V111" t="n">
+        <v>-3.140993134275277</v>
+      </c>
+      <c r="W111" t="n">
+        <v>-4.229735506399921</v>
+      </c>
+      <c r="X111" t="n">
+        <v>1.088742372124644</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>384.40000000</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>388.72000000</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>377.00000000</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>385.25000000</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>570908.33553000</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>1600559999999</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>218785730.14017850</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>230924</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>275383.50997000</t>
+        </is>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>105557594.25420930</t>
+        </is>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>2020-09-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M112" t="n">
+        <v>385.2499999999998</v>
+      </c>
+      <c r="N112" t="n">
+        <v>384.82</v>
+      </c>
+      <c r="O112" t="n">
+        <v>375.9585714285713</v>
+      </c>
+      <c r="P112" t="n">
+        <v>366.0460000000001</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>385.4116666666666</v>
+      </c>
+      <c r="R112" t="n">
+        <v>385.25</v>
+      </c>
+      <c r="S112" t="n">
+        <v>384.650497139613</v>
+      </c>
+      <c r="T112" t="n">
+        <v>377.3712219644374</v>
+      </c>
+      <c r="U112" t="n">
+        <v>379.536857635009</v>
+      </c>
+      <c r="V112" t="n">
+        <v>-2.165635670571533</v>
+      </c>
+      <c r="W112" t="n">
+        <v>-3.816915539227019</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1.651279868655487</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>385.25000000</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>385.45000000</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>370.15000000</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>370.60000000</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>433518.40937000</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>1600646399999</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>163765054.83027130</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>167050</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>210703.54050000</t>
+        </is>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>79609211.39293780</t>
+        </is>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>2020-09-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M113" t="n">
+        <v>370.5999999999998</v>
+      </c>
+      <c r="N113" t="n">
+        <v>377.925</v>
+      </c>
+      <c r="O113" t="n">
+        <v>376.5557142857141</v>
+      </c>
+      <c r="P113" t="n">
+        <v>368.4186666666668</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>384.8326666666666</v>
+      </c>
+      <c r="R113" t="n">
+        <v>370.6</v>
+      </c>
+      <c r="S113" t="n">
+        <v>375.2834990465377</v>
+      </c>
+      <c r="T113" t="n">
+        <v>376.3294955005704</v>
+      </c>
+      <c r="U113" t="n">
+        <v>378.8747486527807</v>
+      </c>
+      <c r="V113" t="n">
+        <v>-2.54525315221025</v>
+      </c>
+      <c r="W113" t="n">
+        <v>-3.562583061820106</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1.017329909609855</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -10611,17 +10611,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>370.15000000</t>
+          <t>366.30000000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>370.60000000</t>
+          <t>367.24000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>433518.40937000</t>
+          <t>468199.60810000</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10629,20 +10629,20 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>163765054.83027130</t>
+          <t>176540130.39857450</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>167050</v>
+        <v>180482</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>210703.54050000</t>
+          <t>226594.83626000</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>79609211.39293780</t>
+          <t>85461924.93545480</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -10651,40 +10651,40 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>370.5999999999998</v>
+        <v>367.2399999999998</v>
       </c>
       <c r="N113" t="n">
-        <v>377.925</v>
+        <v>376.2450000000001</v>
       </c>
       <c r="O113" t="n">
-        <v>376.5557142857141</v>
+        <v>376.0757142857141</v>
       </c>
       <c r="P113" t="n">
-        <v>368.4186666666668</v>
+        <v>368.1946666666667</v>
       </c>
       <c r="Q113" t="n">
-        <v>384.8326666666666</v>
+        <v>384.7206666666665</v>
       </c>
       <c r="R113" t="n">
-        <v>370.6</v>
+        <v>367.24</v>
       </c>
       <c r="S113" t="n">
-        <v>375.2834990465377</v>
+        <v>373.0434990465376</v>
       </c>
       <c r="T113" t="n">
-        <v>376.3294955005704</v>
+        <v>375.812572419777</v>
       </c>
       <c r="U113" t="n">
-        <v>378.8747486527807</v>
+        <v>378.6258148249022</v>
       </c>
       <c r="V113" t="n">
-        <v>-2.54525315221025</v>
+        <v>-2.813242405125266</v>
       </c>
       <c r="W113" t="n">
-        <v>-3.562583061820106</v>
+        <v>-3.616180912403859</v>
       </c>
       <c r="X113" t="n">
-        <v>1.017329909609855</v>
+        <v>0.8029385072785931</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X113"/>
+  <dimension ref="A1:X157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10611,17 +10611,17 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>366.30000000</t>
+          <t>365.00000000</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>367.24000000</t>
+          <t>371.04000000</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>468199.60810000</t>
+          <t>693164.40144000</t>
         </is>
       </c>
       <c r="G113" t="n">
@@ -10629,20 +10629,20 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>176540130.39857450</t>
+          <t>259700927.47821030</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>180482</v>
+        <v>275295</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>226594.83626000</t>
+          <t>339273.53425000</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>85461924.93545480</t>
+          <t>127111732.99106700</t>
         </is>
       </c>
       <c r="L113" t="inlineStr">
@@ -10651,40 +10651,4088 @@
         </is>
       </c>
       <c r="M113" t="n">
-        <v>367.2399999999998</v>
+        <v>371.0399999999997</v>
       </c>
       <c r="N113" t="n">
-        <v>376.2450000000001</v>
+        <v>378.145</v>
       </c>
       <c r="O113" t="n">
-        <v>376.0757142857141</v>
+        <v>376.6185714285713</v>
       </c>
       <c r="P113" t="n">
-        <v>368.1946666666667</v>
+        <v>368.4480000000001</v>
       </c>
       <c r="Q113" t="n">
-        <v>384.7206666666665</v>
+        <v>384.8473333333333</v>
       </c>
       <c r="R113" t="n">
-        <v>367.24</v>
+        <v>371.04</v>
       </c>
       <c r="S113" t="n">
-        <v>373.0434990465376</v>
+        <v>375.5768323798711</v>
       </c>
       <c r="T113" t="n">
-        <v>375.812572419777</v>
+        <v>376.3971878087696</v>
       </c>
       <c r="U113" t="n">
-        <v>378.6258148249022</v>
+        <v>378.9073471302409</v>
       </c>
       <c r="V113" t="n">
-        <v>-2.813242405125266</v>
+        <v>-2.510159321471292</v>
       </c>
       <c r="W113" t="n">
-        <v>-3.616180912403859</v>
+        <v>-3.555564295672216</v>
       </c>
       <c r="X113" t="n">
-        <v>0.8029385072785931</v>
+        <v>1.045404974200923</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>371.04000000</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>376.80000000</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>331.00000000</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>340.36000000</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1283946.03098000</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1600732799999</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>452134893.63405810</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>472560</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>614255.13337000</t>
+        </is>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>216255854.30576970</t>
+        </is>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>2020-09-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M114" t="n">
+        <v>340.3599999999997</v>
+      </c>
+      <c r="N114" t="n">
+        <v>355.7</v>
+      </c>
+      <c r="O114" t="n">
+        <v>371.3671428571428</v>
+      </c>
+      <c r="P114" t="n">
+        <v>367.6186666666667</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>383.018</v>
+      </c>
+      <c r="R114" t="n">
+        <v>340.36</v>
+      </c>
+      <c r="S114" t="n">
+        <v>352.0989441266237</v>
+      </c>
+      <c r="T114" t="n">
+        <v>370.8530050338343</v>
+      </c>
+      <c r="U114" t="n">
+        <v>376.0515107203343</v>
+      </c>
+      <c r="V114" t="n">
+        <v>-5.198505686500027</v>
+      </c>
+      <c r="W114" t="n">
+        <v>-3.884152573841458</v>
+      </c>
+      <c r="X114" t="n">
+        <v>-1.31435311265857</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>340.31000000</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>346.91000000</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>335.34000000</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>344.21000000</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>842731.12878000</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>1600819199999</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>288166815.51503700</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>286593</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>406238.87933000</t>
+        </is>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>138901899.75129510</t>
+        </is>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>2020-09-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M115" t="n">
+        <v>344.2099999999997</v>
+      </c>
+      <c r="N115" t="n">
+        <v>342.2850000000001</v>
+      </c>
+      <c r="O115" t="n">
+        <v>368.5314285714285</v>
+      </c>
+      <c r="P115" t="n">
+        <v>366.9933333333334</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>381.468</v>
+      </c>
+      <c r="R115" t="n">
+        <v>344.21</v>
+      </c>
+      <c r="S115" t="n">
+        <v>346.8396480422079</v>
+      </c>
+      <c r="T115" t="n">
+        <v>366.7540811605019</v>
+      </c>
+      <c r="U115" t="n">
+        <v>373.692515190587</v>
+      </c>
+      <c r="V115" t="n">
+        <v>-6.938434030085148</v>
+      </c>
+      <c r="W115" t="n">
+        <v>-4.495008865095668</v>
+      </c>
+      <c r="X115" t="n">
+        <v>-2.443425164989479</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>344.18000000</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>344.65000000</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>313.29000000</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>320.72000000</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>940904.49756000</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1600905599999</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>313808761.09043880</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>323226</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>451952.70895000</t>
+        </is>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>150859607.76494990</t>
+        </is>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>2020-09-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M116" t="n">
+        <v>320.7199999999997</v>
+      </c>
+      <c r="N116" t="n">
+        <v>332.4650000000001</v>
+      </c>
+      <c r="O116" t="n">
+        <v>362.1899999999999</v>
+      </c>
+      <c r="P116" t="n">
+        <v>365.882</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>378.5693333333332</v>
+      </c>
+      <c r="R116" t="n">
+        <v>320.72</v>
+      </c>
+      <c r="S116" t="n">
+        <v>329.4265493474027</v>
+      </c>
+      <c r="T116" t="n">
+        <v>359.6719147959922</v>
+      </c>
+      <c r="U116" t="n">
+        <v>369.7680627740418</v>
+      </c>
+      <c r="V116" t="n">
+        <v>-10.0961479780496</v>
+      </c>
+      <c r="W116" t="n">
+        <v>-5.615236687694484</v>
+      </c>
+      <c r="X116" t="n">
+        <v>-4.480911290355117</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>320.72000000</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>353.10000000</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>316.67000000</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>348.97000000</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1071705.09721000</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>1600991999999</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>360708689.40437970</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>371450</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>541195.93188000</t>
+        </is>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>182260574.83696910</t>
+        </is>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>2020-09-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M117" t="n">
+        <v>348.9699999999998</v>
+      </c>
+      <c r="N117" t="n">
+        <v>334.8450000000001</v>
+      </c>
+      <c r="O117" t="n">
+        <v>356.4199999999999</v>
+      </c>
+      <c r="P117" t="n">
+        <v>365.7566666666667</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>377.4373333333332</v>
+      </c>
+      <c r="R117" t="n">
+        <v>348.97</v>
+      </c>
+      <c r="S117" t="n">
+        <v>342.4555164491342</v>
+      </c>
+      <c r="T117" t="n">
+        <v>358.0254663595202</v>
+      </c>
+      <c r="U117" t="n">
+        <v>368.227261079639</v>
+      </c>
+      <c r="V117" t="n">
+        <v>-10.20179472011881</v>
+      </c>
+      <c r="W117" t="n">
+        <v>-6.532548294184609</v>
+      </c>
+      <c r="X117" t="n">
+        <v>-3.669246425934203</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>348.97000000</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>358.00000000</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>337.58000000</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>351.92000000</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>860643.77924000</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1601078399999</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>298266918.80064850</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>310536</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>428498.41778000</t>
+        </is>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>148520979.71553270</t>
+        </is>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>2020-09-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M118" t="n">
+        <v>351.9199999999998</v>
+      </c>
+      <c r="N118" t="n">
+        <v>350.4450000000002</v>
+      </c>
+      <c r="O118" t="n">
+        <v>351.7814285714285</v>
+      </c>
+      <c r="P118" t="n">
+        <v>364.6893333333334</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>376.3076666666666</v>
+      </c>
+      <c r="R118" t="n">
+        <v>351.92</v>
+      </c>
+      <c r="S118" t="n">
+        <v>348.7651721497114</v>
+      </c>
+      <c r="T118" t="n">
+        <v>357.0861638396204</v>
+      </c>
+      <c r="U118" t="n">
+        <v>367.0191673846384</v>
+      </c>
+      <c r="V118" t="n">
+        <v>-9.933003545017925</v>
+      </c>
+      <c r="W118" t="n">
+        <v>-7.212639344354392</v>
+      </c>
+      <c r="X118" t="n">
+        <v>-2.720364200663533</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>351.93000000</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>356.40000000</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>345.88000000</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>353.92000000</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>530879.20755000</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1601164799999</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>186812160.37543690</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>217834</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>265973.62355000</t>
+        </is>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>93597365.18627900</t>
+        </is>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>2020-09-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M119" t="n">
+        <v>353.9199999999999</v>
+      </c>
+      <c r="N119" t="n">
+        <v>352.9200000000002</v>
+      </c>
+      <c r="O119" t="n">
+        <v>347.3057142857142</v>
+      </c>
+      <c r="P119" t="n">
+        <v>363.3753333333333</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>375.3293333333332</v>
+      </c>
+      <c r="R119" t="n">
+        <v>353.92</v>
+      </c>
+      <c r="S119" t="n">
+        <v>352.2017240499038</v>
+      </c>
+      <c r="T119" t="n">
+        <v>356.5990617091094</v>
+      </c>
+      <c r="U119" t="n">
+        <v>366.0487482927563</v>
+      </c>
+      <c r="V119" t="n">
+        <v>-9.449686583646894</v>
+      </c>
+      <c r="W119" t="n">
+        <v>-7.660048792214535</v>
+      </c>
+      <c r="X119" t="n">
+        <v>-1.78963779143236</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>353.95000000</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>362.14000000</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>347.24000000</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>357.49000000</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>569568.55041000</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1601251199999</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>202411362.68323290</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>230526</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>278104.49527000</t>
+        </is>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>98851342.51735050</t>
+        </is>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>2020-09-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M120" t="n">
+        <v>357.4899999999998</v>
+      </c>
+      <c r="N120" t="n">
+        <v>355.7050000000002</v>
+      </c>
+      <c r="O120" t="n">
+        <v>345.3699999999999</v>
+      </c>
+      <c r="P120" t="n">
+        <v>361.356</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>374.0753333333332</v>
+      </c>
+      <c r="R120" t="n">
+        <v>357.49</v>
+      </c>
+      <c r="S120" t="n">
+        <v>355.7272413499679</v>
+      </c>
+      <c r="T120" t="n">
+        <v>356.7361291387959</v>
+      </c>
+      <c r="U120" t="n">
+        <v>365.4147001502151</v>
+      </c>
+      <c r="V120" t="n">
+        <v>-8.678571011419194</v>
+      </c>
+      <c r="W120" t="n">
+        <v>-7.863753236056064</v>
+      </c>
+      <c r="X120" t="n">
+        <v>-0.8148177753631298</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>357.58000000</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>368.20000000</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>351.70000000</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>353.96000000</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>757758.43040000</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>1601337599999</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>273063157.78999110</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>261317</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>365322.52821000</t>
+        </is>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>131705221.49365880</t>
+        </is>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>2020-09-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M121" t="n">
+        <v>353.9599999999998</v>
+      </c>
+      <c r="N121" t="n">
+        <v>355.7250000000001</v>
+      </c>
+      <c r="O121" t="n">
+        <v>347.312857142857</v>
+      </c>
+      <c r="P121" t="n">
+        <v>360.5253333333333</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>372.5856666666666</v>
+      </c>
+      <c r="R121" t="n">
+        <v>353.96</v>
+      </c>
+      <c r="S121" t="n">
+        <v>354.5490804499893</v>
+      </c>
+      <c r="T121" t="n">
+        <v>356.3090323473716</v>
+      </c>
+      <c r="U121" t="n">
+        <v>364.5661210787563</v>
+      </c>
+      <c r="V121" t="n">
+        <v>-8.257088731384727</v>
+      </c>
+      <c r="W121" t="n">
+        <v>-7.942420335121981</v>
+      </c>
+      <c r="X121" t="n">
+        <v>-0.3146683962627455</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>353.91000000</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>360.63000000</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>350.45000000</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>359.79000000</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>585143.16892000</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>1601423999999</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>208028826.48711650</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>214988</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>296028.84893000</t>
+        </is>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>105268925.80294570</t>
+        </is>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>2020-09-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M122" t="n">
+        <v>359.7899999999998</v>
+      </c>
+      <c r="N122" t="n">
+        <v>356.8750000000001</v>
+      </c>
+      <c r="O122" t="n">
+        <v>349.5385714285713</v>
+      </c>
+      <c r="P122" t="n">
+        <v>359.37</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>370.2806666666665</v>
+      </c>
+      <c r="R122" t="n">
+        <v>359.79</v>
+      </c>
+      <c r="S122" t="n">
+        <v>358.0430268166631</v>
+      </c>
+      <c r="T122" t="n">
+        <v>356.8445658332829</v>
+      </c>
+      <c r="U122" t="n">
+        <v>364.2123023795696</v>
+      </c>
+      <c r="V122" t="n">
+        <v>-7.367736546286721</v>
+      </c>
+      <c r="W122" t="n">
+        <v>-7.827483577354712</v>
+      </c>
+      <c r="X122" t="n">
+        <v>0.459747031067991</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>359.78000000</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>361.50000000</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>351.56000000</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>359.83000000</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>498943.23226000</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>1601510399999</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>177784824.51781920</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>173910</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>258138.87585000</t>
+        </is>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>92021033.11709650</t>
+        </is>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>2020-09-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M123" t="n">
+        <v>359.8299999999998</v>
+      </c>
+      <c r="N123" t="n">
+        <v>359.8100000000001</v>
+      </c>
+      <c r="O123" t="n">
+        <v>355.1257142857142</v>
+      </c>
+      <c r="P123" t="n">
+        <v>359.088</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>367.8153333333332</v>
+      </c>
+      <c r="R123" t="n">
+        <v>359.83</v>
+      </c>
+      <c r="S123" t="n">
+        <v>359.2343422722211</v>
+      </c>
+      <c r="T123" t="n">
+        <v>357.3038633980403</v>
+      </c>
+      <c r="U123" t="n">
+        <v>363.8876602424357</v>
+      </c>
+      <c r="V123" t="n">
+        <v>-6.583796844395408</v>
+      </c>
+      <c r="W123" t="n">
+        <v>-7.578746230762477</v>
+      </c>
+      <c r="X123" t="n">
+        <v>0.9949493863670691</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>359.83000000</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>370.45000000</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>345.51000000</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>352.85000000</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>758349.31959000</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>1601596799999</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>271468849.79851160</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>288354</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>361455.09687000</t>
+        </is>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>129606992.62340270</t>
+        </is>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>2020-10-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M124" t="n">
+        <v>352.8499999999999</v>
+      </c>
+      <c r="N124" t="n">
+        <v>356.3400000000001</v>
+      </c>
+      <c r="O124" t="n">
+        <v>355.6799999999999</v>
+      </c>
+      <c r="P124" t="n">
+        <v>358.2706666666667</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>363.7303333333332</v>
+      </c>
+      <c r="R124" t="n">
+        <v>352.85</v>
+      </c>
+      <c r="S124" t="n">
+        <v>354.9781140907403</v>
+      </c>
+      <c r="T124" t="n">
+        <v>356.6186536436789</v>
+      </c>
+      <c r="U124" t="n">
+        <v>363.0699924725636</v>
+      </c>
+      <c r="V124" t="n">
+        <v>-6.451338828884673</v>
+      </c>
+      <c r="W124" t="n">
+        <v>-7.353264750386646</v>
+      </c>
+      <c r="X124" t="n">
+        <v>0.9019259215019728</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>352.83000000</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>354.55000000</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>334.24000000</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>345.60000000</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>733571.84211000</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>1601683199999</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>251829017.51948020</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>286023</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>359044.99342000</t>
+        </is>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>123230178.01440740</t>
+        </is>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>2020-10-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M125" t="n">
+        <v>345.5999999999998</v>
+      </c>
+      <c r="N125" t="n">
+        <v>349.2250000000001</v>
+      </c>
+      <c r="O125" t="n">
+        <v>354.7771428571427</v>
+      </c>
+      <c r="P125" t="n">
+        <v>355.3533333333334</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>360.6003333333332</v>
+      </c>
+      <c r="R125" t="n">
+        <v>345.6</v>
+      </c>
+      <c r="S125" t="n">
+        <v>348.7260380302468</v>
+      </c>
+      <c r="T125" t="n">
+        <v>354.9234761583263</v>
+      </c>
+      <c r="U125" t="n">
+        <v>361.775826178206</v>
+      </c>
+      <c r="V125" t="n">
+        <v>-6.852350019879736</v>
+      </c>
+      <c r="W125" t="n">
+        <v>-7.253081804285167</v>
+      </c>
+      <c r="X125" t="n">
+        <v>0.4007317844054308</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>345.60000000</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>351.00000000</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>343.70000000</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>345.95000000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>303595.71901000</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1601769599999</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>105401893.35734360</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>136755</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>157899.99434000</t>
+        </is>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>54819449.94469700</t>
+        </is>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>2020-10-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M126" t="n">
+        <v>345.9499999999997</v>
+      </c>
+      <c r="N126" t="n">
+        <v>345.7750000000001</v>
+      </c>
+      <c r="O126" t="n">
+        <v>353.6385714285713</v>
+      </c>
+      <c r="P126" t="n">
+        <v>352.7906666666667</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>359.4186666666666</v>
+      </c>
+      <c r="R126" t="n">
+        <v>345.95</v>
+      </c>
+      <c r="S126" t="n">
+        <v>346.8753460100822</v>
+      </c>
+      <c r="T126" t="n">
+        <v>353.5429413635594</v>
+      </c>
+      <c r="U126" t="n">
+        <v>360.6034649374566</v>
+      </c>
+      <c r="V126" t="n">
+        <v>-7.060523573897228</v>
+      </c>
+      <c r="W126" t="n">
+        <v>-7.21457015820755</v>
+      </c>
+      <c r="X126" t="n">
+        <v>0.154046584310322</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>345.94000000</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>354.45000000</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>343.81000000</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>352.37000000</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>343932.91712000</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>1601855999999</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>119961274.70065720</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>138736</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>168705.23259000</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>58850037.60413940</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>2020-10-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M127" t="n">
+        <v>352.3699999999997</v>
+      </c>
+      <c r="N127" t="n">
+        <v>349.1600000000001</v>
+      </c>
+      <c r="O127" t="n">
+        <v>352.9071428571427</v>
+      </c>
+      <c r="P127" t="n">
+        <v>350.5986666666667</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>358.3223333333333</v>
+      </c>
+      <c r="R127" t="n">
+        <v>352.37</v>
+      </c>
+      <c r="S127" t="n">
+        <v>350.5384486700274</v>
+      </c>
+      <c r="T127" t="n">
+        <v>353.3624888459584</v>
+      </c>
+      <c r="U127" t="n">
+        <v>359.9935411586475</v>
+      </c>
+      <c r="V127" t="n">
+        <v>-6.631052312689121</v>
+      </c>
+      <c r="W127" t="n">
+        <v>-7.097866589103792</v>
+      </c>
+      <c r="X127" t="n">
+        <v>0.466814276414671</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>352.34000000</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>356.10000000</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>348.54000000</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>353.62000000</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>376740.30692000</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1601942399999</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>132656713.04409390</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>145787</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>185554.40142000</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>65347144.97328110</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>2020-10-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M128" t="n">
+        <v>353.6199999999998</v>
+      </c>
+      <c r="N128" t="n">
+        <v>352.9950000000001</v>
+      </c>
+      <c r="O128" t="n">
+        <v>352.8585714285712</v>
+      </c>
+      <c r="P128" t="n">
+        <v>349.4373333333334</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>358.9426666666666</v>
+      </c>
+      <c r="R128" t="n">
+        <v>353.62</v>
+      </c>
+      <c r="S128" t="n">
+        <v>352.5928162233425</v>
+      </c>
+      <c r="T128" t="n">
+        <v>353.4021059466044</v>
+      </c>
+      <c r="U128" t="n">
+        <v>359.521400129544</v>
+      </c>
+      <c r="V128" t="n">
+        <v>-6.119294182939598</v>
+      </c>
+      <c r="W128" t="n">
+        <v>-6.902152107870857</v>
+      </c>
+      <c r="X128" t="n">
+        <v>0.7828579249312595</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>353.63000000</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>355.10000000</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>336.80000000</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>340.75000000</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>640063.26951000</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1602028799999</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>221765553.58680910</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>240812</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>311147.69014000</t>
+        </is>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>107797282.75783230</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>2020-10-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M129" t="n">
+        <v>340.7499999999998</v>
+      </c>
+      <c r="N129" t="n">
+        <v>347.1850000000001</v>
+      </c>
+      <c r="O129" t="n">
+        <v>350.1385714285712</v>
+      </c>
+      <c r="P129" t="n">
+        <v>349.4633333333334</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>358.541</v>
+      </c>
+      <c r="R129" t="n">
+        <v>340.75</v>
+      </c>
+      <c r="S129" t="n">
+        <v>344.6976054077808</v>
+      </c>
+      <c r="T129" t="n">
+        <v>351.4556281076589</v>
+      </c>
+      <c r="U129" t="n">
+        <v>358.1308527726871</v>
+      </c>
+      <c r="V129" t="n">
+        <v>-6.675224665028168</v>
+      </c>
+      <c r="W129" t="n">
+        <v>-6.8567666193023</v>
+      </c>
+      <c r="X129" t="n">
+        <v>0.1815419542741328</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>340.80000000</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>342.85000000</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>332.18000000</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>341.58000000</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>541928.86376000</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>1602115199999</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>183873686.39043150</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>195112</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>267972.41424000</t>
+        </is>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>90930067.04391160</t>
+        </is>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>2020-10-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M130" t="n">
+        <v>341.5799999999997</v>
+      </c>
+      <c r="N130" t="n">
+        <v>341.1650000000001</v>
+      </c>
+      <c r="O130" t="n">
+        <v>347.5314285714284</v>
+      </c>
+      <c r="P130" t="n">
+        <v>349.2880000000001</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>358.1406666666666</v>
+      </c>
+      <c r="R130" t="n">
+        <v>341.58</v>
+      </c>
+      <c r="S130" t="n">
+        <v>342.6192018025936</v>
+      </c>
+      <c r="T130" t="n">
+        <v>349.936300705816</v>
+      </c>
+      <c r="U130" t="n">
+        <v>356.9048038588368</v>
+      </c>
+      <c r="V130" t="n">
+        <v>-6.968503153020777</v>
+      </c>
+      <c r="W130" t="n">
+        <v>-6.879113926046003</v>
+      </c>
+      <c r="X130" t="n">
+        <v>-0.08938922697477381</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>341.58000000</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>353.32000000</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>334.21000000</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>350.95000000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>631794.87560000</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>1602201599999</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>217322066.97802380</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>220053</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>332296.23857000</t>
+        </is>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>114406629.96863650</t>
+        </is>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>2020-10-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M131" t="n">
+        <v>350.9499999999998</v>
+      </c>
+      <c r="N131" t="n">
+        <v>346.2650000000001</v>
+      </c>
+      <c r="O131" t="n">
+        <v>347.2599999999998</v>
+      </c>
+      <c r="P131" t="n">
+        <v>351.3033333333333</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>358.5926666666667</v>
+      </c>
+      <c r="R131" t="n">
+        <v>350.95</v>
+      </c>
+      <c r="S131" t="n">
+        <v>348.1730672675312</v>
+      </c>
+      <c r="T131" t="n">
+        <v>350.0922544434405</v>
+      </c>
+      <c r="U131" t="n">
+        <v>356.4636873486372</v>
+      </c>
+      <c r="V131" t="n">
+        <v>-6.371432905196627</v>
+      </c>
+      <c r="W131" t="n">
+        <v>-6.777577721876103</v>
+      </c>
+      <c r="X131" t="n">
+        <v>0.4061448166794754</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>350.94000000</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>368.33000000</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>347.32000000</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>365.02000000</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>650478.19338000</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>1602287999999</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>232878561.88521360</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>241168</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>347090.04670000</t>
+        </is>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>124302113.23120810</t>
+        </is>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>2020-10-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M132" t="n">
+        <v>365.0199999999998</v>
+      </c>
+      <c r="N132" t="n">
+        <v>357.9850000000001</v>
+      </c>
+      <c r="O132" t="n">
+        <v>350.0342857142855</v>
+      </c>
+      <c r="P132" t="n">
+        <v>352.3733333333333</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>359.065</v>
+      </c>
+      <c r="R132" t="n">
+        <v>365.02</v>
+      </c>
+      <c r="S132" t="n">
+        <v>359.4043557558437</v>
+      </c>
+      <c r="T132" t="n">
+        <v>352.3888306836306</v>
+      </c>
+      <c r="U132" t="n">
+        <v>357.0975147987876</v>
+      </c>
+      <c r="V132" t="n">
+        <v>-4.708684115157041</v>
+      </c>
+      <c r="W132" t="n">
+        <v>-6.363799000532207</v>
+      </c>
+      <c r="X132" t="n">
+        <v>1.655114885375166</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>365.01000000</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>378.40000000</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>364.71000000</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>370.52000000</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>591005.32129000</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>1602374399999</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>220607973.01227310</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>253825</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>299965.65391000</t>
+        </is>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>111977478.87854210</t>
+        </is>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>2020-10-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M133" t="n">
+        <v>370.5199999999998</v>
+      </c>
+      <c r="N133" t="n">
+        <v>367.7700000000001</v>
+      </c>
+      <c r="O133" t="n">
+        <v>353.5442857142855</v>
+      </c>
+      <c r="P133" t="n">
+        <v>353.6133333333333</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>359.1513333333334</v>
+      </c>
+      <c r="R133" t="n">
+        <v>370.52</v>
+      </c>
+      <c r="S133" t="n">
+        <v>366.8147852519479</v>
+      </c>
+      <c r="T133" t="n">
+        <v>355.1782413484267</v>
+      </c>
+      <c r="U133" t="n">
+        <v>358.0918114724383</v>
+      </c>
+      <c r="V133" t="n">
+        <v>-2.913570124011642</v>
+      </c>
+      <c r="W133" t="n">
+        <v>-5.673753225227983</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.760183101216342</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>370.51000000</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>377.60000000</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>368.87000000</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>374.16000000</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>373318.23779000</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1602460799999</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>139329772.54031670</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>164475</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>187969.33051000</t>
+        </is>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>70162446.92701300</t>
+        </is>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>2020-10-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M134" t="n">
+        <v>374.1599999999999</v>
+      </c>
+      <c r="N134" t="n">
+        <v>372.3400000000001</v>
+      </c>
+      <c r="O134" t="n">
+        <v>356.6571428571427</v>
+      </c>
+      <c r="P134" t="n">
+        <v>354.9626666666666</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>359.169</v>
+      </c>
+      <c r="R134" t="n">
+        <v>374.16</v>
+      </c>
+      <c r="S134" t="n">
+        <v>371.7115950839827</v>
+      </c>
+      <c r="T134" t="n">
+        <v>358.0985119108621</v>
+      </c>
+      <c r="U134" t="n">
+        <v>359.2820903460372</v>
+      </c>
+      <c r="V134" t="n">
+        <v>-1.183578435175093</v>
+      </c>
+      <c r="W134" t="n">
+        <v>-4.77571826721729</v>
+      </c>
+      <c r="X134" t="n">
+        <v>3.592139832042197</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>374.17000000</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>394.80000000</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>365.58000000</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>386.51000000</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>844422.65444000</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1602547199999</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>320587055.52979570</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>309500</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>427311.17538000</t>
+        </is>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>162322201.34325680</t>
+        </is>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>2020-10-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M135" t="n">
+        <v>386.5099999999998</v>
+      </c>
+      <c r="N135" t="n">
+        <v>380.3350000000002</v>
+      </c>
+      <c r="O135" t="n">
+        <v>361.3557142857141</v>
+      </c>
+      <c r="P135" t="n">
+        <v>356.8973333333333</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>359.1266666666667</v>
+      </c>
+      <c r="R135" t="n">
+        <v>386.51</v>
+      </c>
+      <c r="S135" t="n">
+        <v>381.5771983613276</v>
+      </c>
+      <c r="T135" t="n">
+        <v>362.4695100792513</v>
+      </c>
+      <c r="U135" t="n">
+        <v>361.2990395174722</v>
+      </c>
+      <c r="V135" t="n">
+        <v>1.170470561779041</v>
+      </c>
+      <c r="W135" t="n">
+        <v>-3.586480501417901</v>
+      </c>
+      <c r="X135" t="n">
+        <v>4.756951063196942</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>386.51000000</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>387.75000000</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>374.51000000</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>381.04000000</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>645141.91394000</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>1602633599999</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>246276552.00902270</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>239460</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>315226.91813000</t>
+        </is>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>120349073.75065890</t>
+        </is>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>2020-10-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M136" t="n">
+        <v>381.0399999999998</v>
+      </c>
+      <c r="N136" t="n">
+        <v>383.7750000000001</v>
+      </c>
+      <c r="O136" t="n">
+        <v>367.1114285714284</v>
+      </c>
+      <c r="P136" t="n">
+        <v>358.7026666666666</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>359.6140000000001</v>
+      </c>
+      <c r="R136" t="n">
+        <v>381.04</v>
+      </c>
+      <c r="S136" t="n">
+        <v>381.2190661204425</v>
+      </c>
+      <c r="T136" t="n">
+        <v>365.326508529056</v>
+      </c>
+      <c r="U136" t="n">
+        <v>362.7613778480568</v>
+      </c>
+      <c r="V136" t="n">
+        <v>2.565130680999232</v>
+      </c>
+      <c r="W136" t="n">
+        <v>-2.356158264934373</v>
+      </c>
+      <c r="X136" t="n">
+        <v>4.921288945933606</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>381.05000000</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>387.41000000</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>373.13000000</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>378.69000000</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>569557.82936000</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>1602719999999</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>216288026.95920860</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>214375</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>278390.33609000</t>
+        </is>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>105736024.77958970</t>
+        </is>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>2020-10-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M137" t="n">
+        <v>378.6899999999998</v>
+      </c>
+      <c r="N137" t="n">
+        <v>379.8650000000001</v>
+      </c>
+      <c r="O137" t="n">
+        <v>372.412857142857</v>
+      </c>
+      <c r="P137" t="n">
+        <v>359.9626666666666</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>359.6663333333334</v>
+      </c>
+      <c r="R137" t="n">
+        <v>378.69</v>
+      </c>
+      <c r="S137" t="n">
+        <v>379.5330220401475</v>
+      </c>
+      <c r="T137" t="n">
+        <v>367.382430294096</v>
+      </c>
+      <c r="U137" t="n">
+        <v>363.9413093764796</v>
+      </c>
+      <c r="V137" t="n">
+        <v>3.441120917616388</v>
+      </c>
+      <c r="W137" t="n">
+        <v>-1.196702428424145</v>
+      </c>
+      <c r="X137" t="n">
+        <v>4.637823346040532</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>378.69000000</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>381.79000000</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>369.85000000</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>377.64000000</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>634038.09453000</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1602806399999</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>238396852.78392820</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>228454</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>308053.83962000</t>
+        </is>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>115864353.66265170</t>
+        </is>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>2020-10-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M138" t="n">
+        <v>377.6399999999997</v>
+      </c>
+      <c r="N138" t="n">
+        <v>378.1650000000002</v>
+      </c>
+      <c r="O138" t="n">
+        <v>376.2257142857142</v>
+      </c>
+      <c r="P138" t="n">
+        <v>361.1499999999999</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>360.119</v>
+      </c>
+      <c r="R138" t="n">
+        <v>377.64</v>
+      </c>
+      <c r="S138" t="n">
+        <v>378.2710073467158</v>
+      </c>
+      <c r="T138" t="n">
+        <v>368.9605179413395</v>
+      </c>
+      <c r="U138" t="n">
+        <v>364.9560539491167</v>
+      </c>
+      <c r="V138" t="n">
+        <v>4.004463992222838</v>
+      </c>
+      <c r="W138" t="n">
+        <v>-0.1564691442946933</v>
+      </c>
+      <c r="X138" t="n">
+        <v>4.160933136517531</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>377.63000000</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>379.83000000</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>361.18000000</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>365.50000000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>654029.36404000</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1602892799999</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>241127894.70245080</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>255775</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>308695.25396000</t>
+        </is>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>113825303.52954540</t>
+        </is>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>2020-10-16 08:00:00</t>
+        </is>
+      </c>
+      <c r="M139" t="n">
+        <v>365.4999999999997</v>
+      </c>
+      <c r="N139" t="n">
+        <v>371.5700000000002</v>
+      </c>
+      <c r="O139" t="n">
+        <v>376.2942857142856</v>
+      </c>
+      <c r="P139" t="n">
+        <v>361.9933333333332</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>360.132</v>
+      </c>
+      <c r="R139" t="n">
+        <v>365.5</v>
+      </c>
+      <c r="S139" t="n">
+        <v>369.7570024489053</v>
+      </c>
+      <c r="T139" t="n">
+        <v>368.428130565697</v>
+      </c>
+      <c r="U139" t="n">
+        <v>364.9963472326369</v>
+      </c>
+      <c r="V139" t="n">
+        <v>3.431783333060082</v>
+      </c>
+      <c r="W139" t="n">
+        <v>0.5611813511762919</v>
+      </c>
+      <c r="X139" t="n">
+        <v>2.87060198188379</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>365.50000000</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>370.46000000</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>363.36000000</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>368.32000000</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>285578.24537000</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1602979199999</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>104838880.45610340</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>126045</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>139908.84552000</t>
+        </is>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>51365997.42640250</t>
+        </is>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>2020-10-17 08:00:00</t>
+        </is>
+      </c>
+      <c r="M140" t="n">
+        <v>368.3199999999997</v>
+      </c>
+      <c r="N140" t="n">
+        <v>366.9100000000001</v>
+      </c>
+      <c r="O140" t="n">
+        <v>375.9799999999999</v>
+      </c>
+      <c r="P140" t="n">
+        <v>363.5079999999999</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>359.4306666666667</v>
+      </c>
+      <c r="R140" t="n">
+        <v>368.32</v>
+      </c>
+      <c r="S140" t="n">
+        <v>368.7990008163018</v>
+      </c>
+      <c r="T140" t="n">
+        <v>368.4114950940499</v>
+      </c>
+      <c r="U140" t="n">
+        <v>365.2425492979559</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.168945796094079</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.082734240159867</v>
+      </c>
+      <c r="X140" t="n">
+        <v>2.086211555934212</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>368.31000000</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>378.64000000</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>367.10000000</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>378.11000000</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>323468.47095000</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>1603065599999</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>120818450.62118030</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>133043</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>166936.80184000</t>
+        </is>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>62359187.49284320</t>
+        </is>
+      </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>2020-10-18 08:00:00</t>
+        </is>
+      </c>
+      <c r="M141" t="n">
+        <v>378.1099999999997</v>
+      </c>
+      <c r="N141" t="n">
+        <v>373.2150000000001</v>
+      </c>
+      <c r="O141" t="n">
+        <v>376.5442857142856</v>
+      </c>
+      <c r="P141" t="n">
+        <v>365.6519999999999</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>359.2213333333333</v>
+      </c>
+      <c r="R141" t="n">
+        <v>378.11</v>
+      </c>
+      <c r="S141" t="n">
+        <v>375.0063336054339</v>
+      </c>
+      <c r="T141" t="n">
+        <v>369.9035727719923</v>
+      </c>
+      <c r="U141" t="n">
+        <v>366.195713739772</v>
+      </c>
+      <c r="V141" t="n">
+        <v>3.707859032220256</v>
+      </c>
+      <c r="W141" t="n">
+        <v>1.607759198571958</v>
+      </c>
+      <c r="X141" t="n">
+        <v>2.100099833648297</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>378.12000000</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>384.32000000</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>372.50000000</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>379.30000000</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>577252.90265000</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>1603151999999</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>218372639.95702320</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>224887</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>281217.97666000</t>
+        </is>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>106363380.19858650</t>
+        </is>
+      </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>2020-10-19 08:00:00</t>
+        </is>
+      </c>
+      <c r="M142" t="n">
+        <v>379.2999999999997</v>
+      </c>
+      <c r="N142" t="n">
+        <v>378.7050000000002</v>
+      </c>
+      <c r="O142" t="n">
+        <v>375.5142857142856</v>
+      </c>
+      <c r="P142" t="n">
+        <v>367.4473333333332</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>359.023</v>
+      </c>
+      <c r="R142" t="n">
+        <v>379.3</v>
+      </c>
+      <c r="S142" t="n">
+        <v>377.868777868478</v>
+      </c>
+      <c r="T142" t="n">
+        <v>371.3491769610018</v>
+      </c>
+      <c r="U142" t="n">
+        <v>367.1664204187215</v>
+      </c>
+      <c r="V142" t="n">
+        <v>4.182756542280231</v>
+      </c>
+      <c r="W142" t="n">
+        <v>2.122758667313624</v>
+      </c>
+      <c r="X142" t="n">
+        <v>2.059997874966607</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>379.30000000</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>380.73000000</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>365.27000000</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>368.52000000</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>617309.81677000</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>1603238399999</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>229928443.79691000</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>251051</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>288156.13039000</t>
+        </is>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>107315894.51408450</t>
+        </is>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>2020-10-20 08:00:00</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>368.5199999999997</v>
+      </c>
+      <c r="N143" t="n">
+        <v>373.9100000000001</v>
+      </c>
+      <c r="O143" t="n">
+        <v>373.7257142857142</v>
+      </c>
+      <c r="P143" t="n">
+        <v>368.4406666666665</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>358.939</v>
+      </c>
+      <c r="R143" t="n">
+        <v>368.52</v>
+      </c>
+      <c r="S143" t="n">
+        <v>371.6362592894927</v>
+      </c>
+      <c r="T143" t="n">
+        <v>370.9139189669798</v>
+      </c>
+      <c r="U143" t="n">
+        <v>367.2666873716972</v>
+      </c>
+      <c r="V143" t="n">
+        <v>3.647231595282619</v>
+      </c>
+      <c r="W143" t="n">
+        <v>2.427653252907428</v>
+      </c>
+      <c r="X143" t="n">
+        <v>1.219578342375192</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>368.53000000</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>401.49000000</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>367.74000000</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>390.38000000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1221663.63784000</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>1603324799999</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>472488832.71627450</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>450963</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>632070.29962000</t>
+        </is>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>244519977.28209820</t>
+        </is>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>2020-10-21 08:00:00</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>390.3799999999997</v>
+      </c>
+      <c r="N144" t="n">
+        <v>379.4500000000002</v>
+      </c>
+      <c r="O144" t="n">
+        <v>375.3957142857142</v>
+      </c>
+      <c r="P144" t="n">
+        <v>371.7493333333332</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>360.6063333333333</v>
+      </c>
+      <c r="R144" t="n">
+        <v>390.38</v>
+      </c>
+      <c r="S144" t="n">
+        <v>384.1320864298309</v>
+      </c>
+      <c r="T144" t="n">
+        <v>373.9087006644939</v>
+      </c>
+      <c r="U144" t="n">
+        <v>368.9788130440135</v>
+      </c>
+      <c r="V144" t="n">
+        <v>4.929887620480372</v>
+      </c>
+      <c r="W144" t="n">
+        <v>2.928100126422023</v>
+      </c>
+      <c r="X144" t="n">
+        <v>2.001787494058349</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>390.31000000</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>420.73000000</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>390.21000000</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>413.98000000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>1095897.20667000</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1603411199999</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>447211002.50125880</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>412013</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>560444.09814000</t>
+        </is>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>228790705.50160170</t>
+        </is>
+      </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>2020-10-22 08:00:00</t>
+        </is>
+      </c>
+      <c r="M145" t="n">
+        <v>413.9799999999997</v>
+      </c>
+      <c r="N145" t="n">
+        <v>402.1800000000002</v>
+      </c>
+      <c r="O145" t="n">
+        <v>380.5871428571428</v>
+      </c>
+      <c r="P145" t="n">
+        <v>376.5759999999999</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>362.932</v>
+      </c>
+      <c r="R145" t="n">
+        <v>413.98</v>
+      </c>
+      <c r="S145" t="n">
+        <v>404.0306954766103</v>
+      </c>
+      <c r="T145" t="n">
+        <v>380.0735159470996</v>
+      </c>
+      <c r="U145" t="n">
+        <v>372.3122855715204</v>
+      </c>
+      <c r="V145" t="n">
+        <v>7.761230375579203</v>
+      </c>
+      <c r="W145" t="n">
+        <v>3.894726176253469</v>
+      </c>
+      <c r="X145" t="n">
+        <v>3.866504199325734</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>413.94000000</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>419.33000000</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>401.30000000</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>409.11000000</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>727832.32240000</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1603497599999</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>299943190.93063720</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>293671</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>353573.61208000</t>
+        </is>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>145754753.83309310</t>
+        </is>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>2020-10-23 08:00:00</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>409.1099999999997</v>
+      </c>
+      <c r="N146" t="n">
+        <v>411.5450000000001</v>
+      </c>
+      <c r="O146" t="n">
+        <v>386.8171428571428</v>
+      </c>
+      <c r="P146" t="n">
+        <v>380.4533333333331</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>365.8783333333333</v>
+      </c>
+      <c r="R146" t="n">
+        <v>409.11</v>
+      </c>
+      <c r="S146" t="n">
+        <v>407.4168984922035</v>
+      </c>
+      <c r="T146" t="n">
+        <v>384.5406673399884</v>
+      </c>
+      <c r="U146" t="n">
+        <v>375.038081015243</v>
+      </c>
+      <c r="V146" t="n">
+        <v>9.502586324745437</v>
+      </c>
+      <c r="W146" t="n">
+        <v>5.016298205951872</v>
+      </c>
+      <c r="X146" t="n">
+        <v>4.486288118793564</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>409.19000000</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>416.66000000</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>407.00000000</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>412.14000000</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>419236.87106000</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1603583999999</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>172799824.64868200</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>182680</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>207090.61075000</t>
+        </is>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>85377261.16253270</t>
+        </is>
+      </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>2020-10-24 08:00:00</t>
+        </is>
+      </c>
+      <c r="M147" t="n">
+        <v>412.1399999999996</v>
+      </c>
+      <c r="N147" t="n">
+        <v>410.6250000000001</v>
+      </c>
+      <c r="O147" t="n">
+        <v>393.0771428571428</v>
+      </c>
+      <c r="P147" t="n">
+        <v>383.5946666666666</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>367.984</v>
+      </c>
+      <c r="R147" t="n">
+        <v>412.14</v>
+      </c>
+      <c r="S147" t="n">
+        <v>410.5656328307345</v>
+      </c>
+      <c r="T147" t="n">
+        <v>388.7867185185602</v>
+      </c>
+      <c r="U147" t="n">
+        <v>377.7864075513983</v>
+      </c>
+      <c r="V147" t="n">
+        <v>11.00031096716191</v>
+      </c>
+      <c r="W147" t="n">
+        <v>6.213100758193887</v>
+      </c>
+      <c r="X147" t="n">
+        <v>4.787210208968022</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>412.14000000</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>417.40000000</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>402.50000000</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>405.86000000</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>415586.97610000</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>1603670399999</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>170054743.31874520</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>177854</v>
+      </c>
+      <c r="J148" t="inlineStr">
+        <is>
+          <t>192487.98412000</t>
+        </is>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>78807422.93383440</t>
+        </is>
+      </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>2020-10-25 08:00:00</t>
+        </is>
+      </c>
+      <c r="M148" t="n">
+        <v>405.8599999999997</v>
+      </c>
+      <c r="N148" t="n">
+        <v>409.0000000000001</v>
+      </c>
+      <c r="O148" t="n">
+        <v>397.0414285714285</v>
+      </c>
+      <c r="P148" t="n">
+        <v>385.9506666666666</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>369.782</v>
+      </c>
+      <c r="R148" t="n">
+        <v>405.86</v>
+      </c>
+      <c r="S148" t="n">
+        <v>407.4285442769115</v>
+      </c>
+      <c r="T148" t="n">
+        <v>391.4133772080693</v>
+      </c>
+      <c r="U148" t="n">
+        <v>379.8659583088248</v>
+      </c>
+      <c r="V148" t="n">
+        <v>11.54741889924458</v>
+      </c>
+      <c r="W148" t="n">
+        <v>7.279964386404031</v>
+      </c>
+      <c r="X148" t="n">
+        <v>4.267454512840545</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>405.85000000</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>411.11000000</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>382.30000000</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>392.52000000</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>895142.67266000</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1603756799999</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>356208480.58571190</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>329493</v>
+      </c>
+      <c r="J149" t="inlineStr">
+        <is>
+          <t>408392.37075000</t>
+        </is>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>162532499.76636610</t>
+        </is>
+      </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>2020-10-26 08:00:00</t>
+        </is>
+      </c>
+      <c r="M149" t="n">
+        <v>392.5199999999996</v>
+      </c>
+      <c r="N149" t="n">
+        <v>399.19</v>
+      </c>
+      <c r="O149" t="n">
+        <v>398.9299999999999</v>
+      </c>
+      <c r="P149" t="n">
+        <v>387.1746666666666</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>371.0686666666667</v>
+      </c>
+      <c r="R149" t="n">
+        <v>392.52</v>
+      </c>
+      <c r="S149" t="n">
+        <v>397.4895147589705</v>
+      </c>
+      <c r="T149" t="n">
+        <v>391.5836268683695</v>
+      </c>
+      <c r="U149" t="n">
+        <v>380.8033053274337</v>
+      </c>
+      <c r="V149" t="n">
+        <v>10.78032154093574</v>
+      </c>
+      <c r="W149" t="n">
+        <v>7.980035817310378</v>
+      </c>
+      <c r="X149" t="n">
+        <v>2.800285723625367</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>392.52000000</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>410.25000000</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>389.90000000</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>403.45000000</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>754244.37552000</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1603843199999</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>302522886.82653000</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>286217</v>
+      </c>
+      <c r="J150" t="inlineStr">
+        <is>
+          <t>373014.52987000</t>
+        </is>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>149645515.38216060</t>
+        </is>
+      </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>2020-10-27 08:00:00</t>
+        </is>
+      </c>
+      <c r="M150" t="n">
+        <v>403.4499999999996</v>
+      </c>
+      <c r="N150" t="n">
+        <v>397.985</v>
+      </c>
+      <c r="O150" t="n">
+        <v>403.9199999999999</v>
+      </c>
+      <c r="P150" t="n">
+        <v>388.3039999999999</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>372.6006666666668</v>
+      </c>
+      <c r="R150" t="n">
+        <v>403.45</v>
+      </c>
+      <c r="S150" t="n">
+        <v>401.4631715863235</v>
+      </c>
+      <c r="T150" t="n">
+        <v>393.4092227348024</v>
+      </c>
+      <c r="U150" t="n">
+        <v>382.4808558266083</v>
+      </c>
+      <c r="V150" t="n">
+        <v>10.92836690819411</v>
+      </c>
+      <c r="W150" t="n">
+        <v>8.569702035487126</v>
+      </c>
+      <c r="X150" t="n">
+        <v>2.358664872706981</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>403.41000000</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>409.20000000</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>380.52000000</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>388.23000000</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>855275.46882000</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>1603929599999</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>335751199.30374730</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>348661</v>
+      </c>
+      <c r="J151" t="inlineStr">
+        <is>
+          <t>407244.62775000</t>
+        </is>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>159935755.11819610</t>
+        </is>
+      </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>2020-10-28 08:00:00</t>
+        </is>
+      </c>
+      <c r="M151" t="n">
+        <v>388.2299999999996</v>
+      </c>
+      <c r="N151" t="n">
+        <v>395.8399999999999</v>
+      </c>
+      <c r="O151" t="n">
+        <v>403.612857142857</v>
+      </c>
+      <c r="P151" t="n">
+        <v>388.7833333333332</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>373.7430000000001</v>
+      </c>
+      <c r="R151" t="n">
+        <v>388.23</v>
+      </c>
+      <c r="S151" t="n">
+        <v>392.6410571954412</v>
+      </c>
+      <c r="T151" t="n">
+        <v>392.6124192371301</v>
+      </c>
+      <c r="U151" t="n">
+        <v>382.9067224856915</v>
+      </c>
+      <c r="V151" t="n">
+        <v>9.705696751438552</v>
+      </c>
+      <c r="W151" t="n">
+        <v>8.796900978677412</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0.90879577276114</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>388.22000000</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>393.72000000</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>380.52000000</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>387.13000000</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>573096.01416000</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>1604015999999</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>222669504.87531700</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>248649</v>
+      </c>
+      <c r="J152" t="inlineStr">
+        <is>
+          <t>283010.62488000</t>
+        </is>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>109967352.10618020</t>
+        </is>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>2020-10-29 08:00:00</t>
+        </is>
+      </c>
+      <c r="M152" t="n">
+        <v>387.1299999999997</v>
+      </c>
+      <c r="N152" t="n">
+        <v>387.6799999999999</v>
+      </c>
+      <c r="O152" t="n">
+        <v>399.7771428571427</v>
+      </c>
+      <c r="P152" t="n">
+        <v>389.3459999999999</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>374.6543333333333</v>
+      </c>
+      <c r="R152" t="n">
+        <v>387.13</v>
+      </c>
+      <c r="S152" t="n">
+        <v>388.967019065147</v>
+      </c>
+      <c r="T152" t="n">
+        <v>391.7689701237161</v>
+      </c>
+      <c r="U152" t="n">
+        <v>383.2195606647053</v>
+      </c>
+      <c r="V152" t="n">
+        <v>8.54940945901086</v>
+      </c>
+      <c r="W152" t="n">
+        <v>8.747402674744102</v>
+      </c>
+      <c r="X152" t="n">
+        <v>-0.1979932157332414</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>387.12000000</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>391.97000000</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>373.29000000</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>382.49000000</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>771750.74746000</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>1604102399999</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>294342545.98087450</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>289735</v>
+      </c>
+      <c r="J153" t="inlineStr">
+        <is>
+          <t>384404.74738000</t>
+        </is>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>146595612.99159130</t>
+        </is>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>2020-10-30 08:00:00</t>
+        </is>
+      </c>
+      <c r="M153" t="n">
+        <v>382.4899999999997</v>
+      </c>
+      <c r="N153" t="n">
+        <v>384.8099999999999</v>
+      </c>
+      <c r="O153" t="n">
+        <v>395.9742857142856</v>
+      </c>
+      <c r="P153" t="n">
+        <v>389.6693333333333</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>375.4096666666667</v>
+      </c>
+      <c r="R153" t="n">
+        <v>382.49</v>
+      </c>
+      <c r="S153" t="n">
+        <v>384.649006355049</v>
+      </c>
+      <c r="T153" t="n">
+        <v>390.3414362585157</v>
+      </c>
+      <c r="U153" t="n">
+        <v>383.1655186849098</v>
+      </c>
+      <c r="V153" t="n">
+        <v>7.175917573605886</v>
+      </c>
+      <c r="W153" t="n">
+        <v>8.43310565451646</v>
+      </c>
+      <c r="X153" t="n">
+        <v>-1.257188080910574</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>382.59000000</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>394.88000000</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>379.90000000</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>386.46000000</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>467453.81050000</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>1604188799999</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>181136851.45374130</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>218528</v>
+      </c>
+      <c r="J154" t="inlineStr">
+        <is>
+          <t>238043.31120000</t>
+        </is>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>92253593.43786280</t>
+        </is>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>2020-10-31 08:00:00</t>
+        </is>
+      </c>
+      <c r="M154" t="n">
+        <v>386.4599999999996</v>
+      </c>
+      <c r="N154" t="n">
+        <v>384.475</v>
+      </c>
+      <c r="O154" t="n">
+        <v>392.3057142857142</v>
+      </c>
+      <c r="P154" t="n">
+        <v>391.0666666666666</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>376.53</v>
+      </c>
+      <c r="R154" t="n">
+        <v>386.46</v>
+      </c>
+      <c r="S154" t="n">
+        <v>385.856335451683</v>
+      </c>
+      <c r="T154" t="n">
+        <v>389.7442922187392</v>
+      </c>
+      <c r="U154" t="n">
+        <v>383.4095562155614</v>
+      </c>
+      <c r="V154" t="n">
+        <v>6.334736003177852</v>
+      </c>
+      <c r="W154" t="n">
+        <v>8.013431724248738</v>
+      </c>
+      <c r="X154" t="n">
+        <v>-1.678695721070886</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>386.44000000</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>398.29000000</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>384.61000000</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>396.67000000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>438952.95565000</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>1604275199999</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>171238317.70032390</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>181369</v>
+      </c>
+      <c r="J155" t="inlineStr">
+        <is>
+          <t>228285.69860000</t>
+        </is>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>89100829.28533770</t>
+        </is>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>2020-11-01 08:00:00</t>
+        </is>
+      </c>
+      <c r="M155" t="n">
+        <v>396.6699999999997</v>
+      </c>
+      <c r="N155" t="n">
+        <v>391.5649999999999</v>
+      </c>
+      <c r="O155" t="n">
+        <v>390.9928571428571</v>
+      </c>
+      <c r="P155" t="n">
+        <v>392.9566666666666</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>378.2323333333333</v>
+      </c>
+      <c r="R155" t="n">
+        <v>396.67</v>
+      </c>
+      <c r="S155" t="n">
+        <v>393.0654451505609</v>
+      </c>
+      <c r="T155" t="n">
+        <v>390.8097857235557</v>
+      </c>
+      <c r="U155" t="n">
+        <v>384.3918183086261</v>
+      </c>
+      <c r="V155" t="n">
+        <v>6.417967414929649</v>
+      </c>
+      <c r="W155" t="n">
+        <v>7.69433886238492</v>
+      </c>
+      <c r="X155" t="n">
+        <v>-1.276371447455271</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>396.68000000</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>404.50000000</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>377.92000000</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>383.02000000</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>779968.57957000</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1604361599999</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>304223545.89203440</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>290370</v>
+      </c>
+      <c r="J156" t="inlineStr">
+        <is>
+          <t>382924.26079000</t>
+        </is>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>149479791.08400600</t>
+        </is>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>2020-11-02 08:00:00</t>
+        </is>
+      </c>
+      <c r="M156" t="n">
+        <v>383.0199999999996</v>
+      </c>
+      <c r="N156" t="n">
+        <v>389.8449999999999</v>
+      </c>
+      <c r="O156" t="n">
+        <v>389.6357142857142</v>
+      </c>
+      <c r="P156" t="n">
+        <v>393.2839999999999</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>379.468</v>
+      </c>
+      <c r="R156" t="n">
+        <v>383.02</v>
+      </c>
+      <c r="S156" t="n">
+        <v>386.3684817168536</v>
+      </c>
+      <c r="T156" t="n">
+        <v>389.6113571506941</v>
+      </c>
+      <c r="U156" t="n">
+        <v>384.2902014672946</v>
+      </c>
+      <c r="V156" t="n">
+        <v>5.321155683399525</v>
+      </c>
+      <c r="W156" t="n">
+        <v>7.21970222658784</v>
+      </c>
+      <c r="X156" t="n">
+        <v>-1.898546543188315</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>383.01000000</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>385.59000000</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>370.23000000</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>382.77000000</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>544544.70664000</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>1604447999999</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>206202021.85695720</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>197488</v>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>259006.24548000</t>
+        </is>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>98123192.01057550</t>
+        </is>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>2020-11-03 08:00:00</t>
+        </is>
+      </c>
+      <c r="M157" t="n">
+        <v>382.7699999999995</v>
+      </c>
+      <c r="N157" t="n">
+        <v>382.8949999999999</v>
+      </c>
+      <c r="O157" t="n">
+        <v>386.6814285714285</v>
+      </c>
+      <c r="P157" t="n">
+        <v>393.5153333333332</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>380.4813333333333</v>
+      </c>
+      <c r="R157" t="n">
+        <v>382.77</v>
+      </c>
+      <c r="S157" t="n">
+        <v>383.9694939056179</v>
+      </c>
+      <c r="T157" t="n">
+        <v>388.5588406659669</v>
+      </c>
+      <c r="U157" t="n">
+        <v>384.1775932633956</v>
+      </c>
+      <c r="V157" t="n">
+        <v>4.381247402571319</v>
+      </c>
+      <c r="W157" t="n">
+        <v>6.652011261784535</v>
+      </c>
+      <c r="X157" t="n">
+        <v>-2.270763859213217</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -14664,12 +14664,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>382.77000000</t>
+          <t>381.48000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>544544.70664000</t>
+          <t>560508.44244000</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14677,20 +14677,20 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>206202021.85695720</t>
+          <t>212301131.56568030</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>197488</v>
+        <v>203841</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>259006.24548000</t>
+          <t>266829.98441000</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>98123192.01057550</t>
+          <t>101112597.15977730</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -14699,40 +14699,40 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>382.7699999999995</v>
+        <v>381.4799999999996</v>
       </c>
       <c r="N157" t="n">
-        <v>382.8949999999999</v>
+        <v>382.2499999999999</v>
       </c>
       <c r="O157" t="n">
-        <v>386.6814285714285</v>
+        <v>386.4971428571428</v>
       </c>
       <c r="P157" t="n">
-        <v>393.5153333333332</v>
+        <v>393.4293333333333</v>
       </c>
       <c r="Q157" t="n">
-        <v>380.4813333333333</v>
+        <v>380.4383333333333</v>
       </c>
       <c r="R157" t="n">
-        <v>382.77</v>
+        <v>381.48</v>
       </c>
       <c r="S157" t="n">
-        <v>383.9694939056179</v>
+        <v>383.1094939056179</v>
       </c>
       <c r="T157" t="n">
-        <v>388.5588406659669</v>
+        <v>388.3603791275044</v>
       </c>
       <c r="U157" t="n">
-        <v>384.1775932633956</v>
+        <v>384.0820371241896</v>
       </c>
       <c r="V157" t="n">
-        <v>4.381247402571319</v>
+        <v>4.278342003314776</v>
       </c>
       <c r="W157" t="n">
-        <v>6.652011261784535</v>
+        <v>6.631430181933227</v>
       </c>
       <c r="X157" t="n">
-        <v>-2.270763859213217</v>
+        <v>-2.35308817861845</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X157"/>
+  <dimension ref="A1:X165"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14654,7 +14654,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>385.59000000</t>
+          <t>390.00000000</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
@@ -14664,12 +14664,12 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>381.48000000</t>
+          <t>387.88000000</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>560508.44244000</t>
+          <t>752954.37114000</t>
         </is>
       </c>
       <c r="G157" t="n">
@@ -14677,20 +14677,20 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>212301131.56568030</t>
+          <t>286291773.96848450</t>
         </is>
       </c>
       <c r="I157" t="n">
-        <v>203841</v>
+        <v>280412</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>266829.98441000</t>
+          <t>366506.41600000</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
         <is>
-          <t>101112597.15977730</t>
+          <t>139475874.91715260</t>
         </is>
       </c>
       <c r="L157" t="inlineStr">
@@ -14699,40 +14699,776 @@
         </is>
       </c>
       <c r="M157" t="n">
-        <v>381.4799999999996</v>
+        <v>387.8799999999997</v>
       </c>
       <c r="N157" t="n">
-        <v>382.2499999999999</v>
+        <v>385.4499999999998</v>
       </c>
       <c r="O157" t="n">
-        <v>386.4971428571428</v>
+        <v>387.4114285714285</v>
       </c>
       <c r="P157" t="n">
-        <v>393.4293333333333</v>
+        <v>393.8559999999999</v>
       </c>
       <c r="Q157" t="n">
-        <v>380.4383333333333</v>
+        <v>380.6516666666666</v>
       </c>
       <c r="R157" t="n">
-        <v>381.48</v>
+        <v>387.88</v>
       </c>
       <c r="S157" t="n">
-        <v>383.1094939056179</v>
+        <v>387.3761605722846</v>
       </c>
       <c r="T157" t="n">
-        <v>388.3603791275044</v>
+        <v>389.3449945121245</v>
       </c>
       <c r="U157" t="n">
-        <v>384.0820371241896</v>
+        <v>384.5561140938933</v>
       </c>
       <c r="V157" t="n">
-        <v>4.278342003314776</v>
+        <v>4.788880418231201</v>
       </c>
       <c r="W157" t="n">
-        <v>6.631430181933227</v>
+        <v>6.733537864916512</v>
       </c>
       <c r="X157" t="n">
-        <v>-2.35308817861845</v>
+        <v>-1.94465744668531</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>387.88000000</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>408.39000000</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>376.47000000</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>402.49000000</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>1157064.35076000</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1604534399999</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>454481208.40200980</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>392310</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>600951.59602000</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>236190448.28833480</t>
+        </is>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>2020-11-04 08:00:00</t>
+        </is>
+      </c>
+      <c r="M158" t="n">
+        <v>402.4899999999997</v>
+      </c>
+      <c r="N158" t="n">
+        <v>395.1849999999998</v>
+      </c>
+      <c r="O158" t="n">
+        <v>389.4485714285714</v>
+      </c>
+      <c r="P158" t="n">
+        <v>396.1206666666666</v>
+      </c>
+      <c r="Q158" t="n">
+        <v>382.2806666666665</v>
+      </c>
+      <c r="R158" t="n">
+        <v>402.49</v>
+      </c>
+      <c r="S158" t="n">
+        <v>397.4520535240949</v>
+      </c>
+      <c r="T158" t="n">
+        <v>391.367303048729</v>
+      </c>
+      <c r="U158" t="n">
+        <v>385.8845575999398</v>
+      </c>
+      <c r="V158" t="n">
+        <v>5.48274544878916</v>
+      </c>
+      <c r="W158" t="n">
+        <v>6.483379381691043</v>
+      </c>
+      <c r="X158" t="n">
+        <v>-1.000633932901883</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>402.50000000</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>420.40000000</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>396.14000000</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>416.69000000</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>1475139.77342000</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>1604620799999</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>601591250.40124900</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>513574</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>733696.12776000</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>299466668.01144860</t>
+        </is>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>2020-11-05 08:00:00</t>
+        </is>
+      </c>
+      <c r="M159" t="n">
+        <v>416.6899999999996</v>
+      </c>
+      <c r="N159" t="n">
+        <v>409.5899999999999</v>
+      </c>
+      <c r="O159" t="n">
+        <v>393.6714285714285</v>
+      </c>
+      <c r="P159" t="n">
+        <v>397.8746666666666</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>384.8119999999999</v>
+      </c>
+      <c r="R159" t="n">
+        <v>416.69</v>
+      </c>
+      <c r="S159" t="n">
+        <v>410.2773511746983</v>
+      </c>
+      <c r="T159" t="n">
+        <v>395.2631025797072</v>
+      </c>
+      <c r="U159" t="n">
+        <v>388.1664541714699</v>
+      </c>
+      <c r="V159" t="n">
+        <v>7.096648408237286</v>
+      </c>
+      <c r="W159" t="n">
+        <v>6.606033187000292</v>
+      </c>
+      <c r="X159" t="n">
+        <v>0.4906152212369941</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>416.73000000</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>458.27000000</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>414.76000000</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>455.91000000</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>1682440.96026000</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1604707199999</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>736015135.62721030</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>666505</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>883105.68936000</t>
+        </is>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>386541087.43089730</t>
+        </is>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>2020-11-06 08:00:00</t>
+        </is>
+      </c>
+      <c r="M160" t="n">
+        <v>455.9099999999997</v>
+      </c>
+      <c r="N160" t="n">
+        <v>436.2999999999998</v>
+      </c>
+      <c r="O160" t="n">
+        <v>404.16</v>
+      </c>
+      <c r="P160" t="n">
+        <v>400.67</v>
+      </c>
+      <c r="Q160" t="n">
+        <v>388.6229999999999</v>
+      </c>
+      <c r="R160" t="n">
+        <v>455.91</v>
+      </c>
+      <c r="S160" t="n">
+        <v>440.6991170582328</v>
+      </c>
+      <c r="T160" t="n">
+        <v>404.5933944905486</v>
+      </c>
+      <c r="U160" t="n">
+        <v>393.1845189341669</v>
+      </c>
+      <c r="V160" t="n">
+        <v>11.4088755563817</v>
+      </c>
+      <c r="W160" t="n">
+        <v>7.566601660876574</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.842273895505127</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>455.91000000</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>468.28000000</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>424.14000000</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>435.21000000</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1653416.59610000</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1604793599999</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>743871175.78212340</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>674858</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>831369.37192000</t>
+        </is>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>374507765.44837650</t>
+        </is>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>2020-11-07 08:00:00</t>
+        </is>
+      </c>
+      <c r="M161" t="n">
+        <v>435.2099999999996</v>
+      </c>
+      <c r="N161" t="n">
+        <v>445.5599999999998</v>
+      </c>
+      <c r="O161" t="n">
+        <v>411.1242857142857</v>
+      </c>
+      <c r="P161" t="n">
+        <v>402.41</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>391.4316666666665</v>
+      </c>
+      <c r="R161" t="n">
+        <v>435.21</v>
+      </c>
+      <c r="S161" t="n">
+        <v>437.0397056860776</v>
+      </c>
+      <c r="T161" t="n">
+        <v>409.3036414920143</v>
+      </c>
+      <c r="U161" t="n">
+        <v>396.2975315075429</v>
+      </c>
+      <c r="V161" t="n">
+        <v>13.00610998447144</v>
+      </c>
+      <c r="W161" t="n">
+        <v>8.654503325595547</v>
+      </c>
+      <c r="X161" t="n">
+        <v>4.351606658875889</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>435.20000000</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>460.10000000</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>431.99000000</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>454.30000000</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>840908.46841000</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>1604879999999</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>375679148.23503960</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>354341</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>424300.36519000</t>
+        </is>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>189644075.40081470</t>
+        </is>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>2020-11-08 08:00:00</t>
+        </is>
+      </c>
+      <c r="M162" t="n">
+        <v>454.2999999999997</v>
+      </c>
+      <c r="N162" t="n">
+        <v>444.7549999999998</v>
+      </c>
+      <c r="O162" t="n">
+        <v>419.3571428571428</v>
+      </c>
+      <c r="P162" t="n">
+        <v>405.2206666666667</v>
+      </c>
+      <c r="Q162" t="n">
+        <v>394.4076666666664</v>
+      </c>
+      <c r="R162" t="n">
+        <v>454.3</v>
+      </c>
+      <c r="S162" t="n">
+        <v>448.5465685620259</v>
+      </c>
+      <c r="T162" t="n">
+        <v>416.2261581855651</v>
+      </c>
+      <c r="U162" t="n">
+        <v>400.5940285154788</v>
+      </c>
+      <c r="V162" t="n">
+        <v>15.63212967008627</v>
+      </c>
+      <c r="W162" t="n">
+        <v>10.05002859449369</v>
+      </c>
+      <c r="X162" t="n">
+        <v>5.582101075592579</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>454.29000000</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>459.10000000</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>433.09000000</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>444.32000000</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1099213.24641000</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1604966399999</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>491928164.98124340</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>469947</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>523180.45111000</t>
+        </is>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>234223108.98942740</t>
+        </is>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>2020-11-09 08:00:00</t>
+        </is>
+      </c>
+      <c r="M163" t="n">
+        <v>444.3199999999997</v>
+      </c>
+      <c r="N163" t="n">
+        <v>449.3099999999997</v>
+      </c>
+      <c r="O163" t="n">
+        <v>428.1142857142858</v>
+      </c>
+      <c r="P163" t="n">
+        <v>407.7846666666666</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>396.8676666666664</v>
+      </c>
+      <c r="R163" t="n">
+        <v>444.32</v>
+      </c>
+      <c r="S163" t="n">
+        <v>445.728856187342</v>
+      </c>
+      <c r="T163" t="n">
+        <v>420.5482876954858</v>
+      </c>
+      <c r="U163" t="n">
+        <v>403.8330018330985</v>
+      </c>
+      <c r="V163" t="n">
+        <v>16.71528586238725</v>
+      </c>
+      <c r="W163" t="n">
+        <v>11.3830800480724</v>
+      </c>
+      <c r="X163" t="n">
+        <v>5.332205814314843</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>444.32000000</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>455.00000000</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>438.70000000</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>450.34000000</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>866872.41108000</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>1605052799999</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>388190148.20789510</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>384228</v>
+      </c>
+      <c r="J164" t="inlineStr">
+        <is>
+          <t>437244.02871000</t>
+        </is>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>195856348.18969540</t>
+        </is>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>2020-11-10 08:00:00</t>
+        </is>
+      </c>
+      <c r="M164" t="n">
+        <v>450.3399999999996</v>
+      </c>
+      <c r="N164" t="n">
+        <v>447.3299999999997</v>
+      </c>
+      <c r="O164" t="n">
+        <v>437.0371428571429</v>
+      </c>
+      <c r="P164" t="n">
+        <v>411.6393333333334</v>
+      </c>
+      <c r="Q164" t="n">
+        <v>399.4069999999998</v>
+      </c>
+      <c r="R164" t="n">
+        <v>450.34</v>
+      </c>
+      <c r="S164" t="n">
+        <v>448.8029520624473</v>
+      </c>
+      <c r="T164" t="n">
+        <v>425.1316280500333</v>
+      </c>
+      <c r="U164" t="n">
+        <v>407.2779769378895</v>
+      </c>
+      <c r="V164" t="n">
+        <v>17.85365111214378</v>
+      </c>
+      <c r="W164" t="n">
+        <v>12.67719426088668</v>
+      </c>
+      <c r="X164" t="n">
+        <v>5.176456851257099</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>450.34000000</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>474.00000000</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>449.28000000</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>469.23000000</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>872086.75803000</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>1605139199999</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>402974529.15965530</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>392598</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>461768.48127000</t>
+        </is>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>213396558.17390210</t>
+        </is>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>2020-11-11 08:00:00</t>
+        </is>
+      </c>
+      <c r="M165" t="n">
+        <v>469.2299999999997</v>
+      </c>
+      <c r="N165" t="n">
+        <v>459.7849999999997</v>
+      </c>
+      <c r="O165" t="n">
+        <v>446.5714285714286</v>
+      </c>
+      <c r="P165" t="n">
+        <v>416.0246666666666</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>402.1643333333331</v>
+      </c>
+      <c r="R165" t="n">
+        <v>469.23</v>
+      </c>
+      <c r="S165" t="n">
+        <v>462.4209840208158</v>
+      </c>
+      <c r="T165" t="n">
+        <v>431.9159929654214</v>
+      </c>
+      <c r="U165" t="n">
+        <v>411.8670308267658</v>
+      </c>
+      <c r="V165" t="n">
+        <v>20.04896213865561</v>
+      </c>
+      <c r="W165" t="n">
+        <v>14.15154783644047</v>
+      </c>
+      <c r="X165" t="n">
+        <v>5.89741430221514</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X165"/>
+  <dimension ref="A1:X169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15390,7 +15390,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>474.00000000</t>
+          <t>476.25000000</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -15400,12 +15400,12 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>469.23000000</t>
+          <t>463.09000000</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>872086.75803000</t>
+          <t>1205782.84262000</t>
         </is>
       </c>
       <c r="G165" t="n">
@@ -15413,20 +15413,20 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>402974529.15965530</t>
+          <t>559228791.89035090</t>
         </is>
       </c>
       <c r="I165" t="n">
-        <v>392598</v>
+        <v>560360</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
-          <t>461768.48127000</t>
+          <t>626267.49881000</t>
         </is>
       </c>
       <c r="K165" t="inlineStr">
         <is>
-          <t>213396558.17390210</t>
+          <t>290487786.95615110</t>
         </is>
       </c>
       <c r="L165" t="inlineStr">
@@ -15435,40 +15435,408 @@
         </is>
       </c>
       <c r="M165" t="n">
-        <v>469.2299999999997</v>
+        <v>463.0899999999996</v>
       </c>
       <c r="N165" t="n">
-        <v>459.7849999999997</v>
+        <v>456.7149999999997</v>
       </c>
       <c r="O165" t="n">
-        <v>446.5714285714286</v>
+        <v>445.6942857142858</v>
       </c>
       <c r="P165" t="n">
-        <v>416.0246666666666</v>
+        <v>415.6153333333334</v>
       </c>
       <c r="Q165" t="n">
-        <v>402.1643333333331</v>
+        <v>401.9596666666665</v>
       </c>
       <c r="R165" t="n">
-        <v>469.23</v>
+        <v>463.09</v>
       </c>
       <c r="S165" t="n">
-        <v>462.4209840208158</v>
+        <v>458.3276506874824</v>
       </c>
       <c r="T165" t="n">
-        <v>431.9159929654214</v>
+        <v>430.9713775808049</v>
       </c>
       <c r="U165" t="n">
-        <v>411.8670308267658</v>
+        <v>411.4122145110911</v>
       </c>
       <c r="V165" t="n">
-        <v>20.04896213865561</v>
+        <v>19.55916306971375</v>
       </c>
       <c r="W165" t="n">
-        <v>14.15154783644047</v>
+        <v>14.0535880226521</v>
       </c>
       <c r="X165" t="n">
-        <v>5.89741430221514</v>
+        <v>5.505575047061649</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>463.09000000</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>470.00000000</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>451.20000000</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>462.39000000</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>990776.62912000</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>1605225599999</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>455971309.21685460</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>411840</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>471577.98126000</t>
+        </is>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>217115755.31874190</t>
+        </is>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>2020-11-12 08:00:00</t>
+        </is>
+      </c>
+      <c r="M166" t="n">
+        <v>462.3899999999996</v>
+      </c>
+      <c r="N166" t="n">
+        <v>462.7399999999997</v>
+      </c>
+      <c r="O166" t="n">
+        <v>452.2228571428572</v>
+      </c>
+      <c r="P166" t="n">
+        <v>420.5593333333334</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>404.6713333333331</v>
+      </c>
+      <c r="R166" t="n">
+        <v>462.39</v>
+      </c>
+      <c r="S166" t="n">
+        <v>461.0358835624941</v>
+      </c>
+      <c r="T166" t="n">
+        <v>435.8050117991477</v>
+      </c>
+      <c r="U166" t="n">
+        <v>415.1883583074846</v>
+      </c>
+      <c r="V166" t="n">
+        <v>20.61665349166316</v>
+      </c>
+      <c r="W166" t="n">
+        <v>15.36620111645431</v>
+      </c>
+      <c r="X166" t="n">
+        <v>5.250452375208846</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>462.48000000</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>478.01000000</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>457.12000000</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>476.43000000</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>976665.09752000</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>1605311999999</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>456232937.20613030</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>427363</v>
+      </c>
+      <c r="J167" t="inlineStr">
+        <is>
+          <t>509344.22798000</t>
+        </is>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>238031863.05169850</t>
+        </is>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>2020-11-13 08:00:00</t>
+        </is>
+      </c>
+      <c r="M167" t="n">
+        <v>476.4299999999996</v>
+      </c>
+      <c r="N167" t="n">
+        <v>469.4099999999997</v>
+      </c>
+      <c r="O167" t="n">
+        <v>455.1542857142858</v>
+      </c>
+      <c r="P167" t="n">
+        <v>426.5126666666667</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>407.9293333333331</v>
+      </c>
+      <c r="R167" t="n">
+        <v>476.43</v>
+      </c>
+      <c r="S167" t="n">
+        <v>471.2986278541647</v>
+      </c>
+      <c r="T167" t="n">
+        <v>442.0550099838998</v>
+      </c>
+      <c r="U167" t="n">
+        <v>419.7247890448951</v>
+      </c>
+      <c r="V167" t="n">
+        <v>22.33022093900473</v>
+      </c>
+      <c r="W167" t="n">
+        <v>16.7590050809644</v>
+      </c>
+      <c r="X167" t="n">
+        <v>5.571215858040336</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>476.42000000</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>477.47000000</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>452.00000000</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>460.89000000</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>735252.78540000</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>1605398399999</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>340142257.19369760</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>350772</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>347000.03929000</t>
+        </is>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>160634962.00481430</t>
+        </is>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>2020-11-14 08:00:00</t>
+        </is>
+      </c>
+      <c r="M168" t="n">
+        <v>460.8899999999996</v>
+      </c>
+      <c r="N168" t="n">
+        <v>468.6599999999998</v>
+      </c>
+      <c r="O168" t="n">
+        <v>458.8228571428572</v>
+      </c>
+      <c r="P168" t="n">
+        <v>431.7393333333335</v>
+      </c>
+      <c r="Q168" t="n">
+        <v>410.7043333333331</v>
+      </c>
+      <c r="R168" t="n">
+        <v>460.89</v>
+      </c>
+      <c r="S168" t="n">
+        <v>464.3595426180549</v>
+      </c>
+      <c r="T168" t="n">
+        <v>444.9527007556097</v>
+      </c>
+      <c r="U168" t="n">
+        <v>422.7740719183204</v>
+      </c>
+      <c r="V168" t="n">
+        <v>22.17862883728935</v>
+      </c>
+      <c r="W168" t="n">
+        <v>17.84292983222939</v>
+      </c>
+      <c r="X168" t="n">
+        <v>4.335699005059965</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>460.90000000</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>462.89000000</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>456.51000000</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>461.24000000</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>128673.84301000</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1605484799999</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>59155584.09075830</t>
+        </is>
+      </c>
+      <c r="I169" t="n">
+        <v>66228</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>67273.91394000</t>
+        </is>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>30926653.60773300</t>
+        </is>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>2020-11-15 08:00:00</t>
+        </is>
+      </c>
+      <c r="M169" t="n">
+        <v>461.2399999999997</v>
+      </c>
+      <c r="N169" t="n">
+        <v>461.0649999999997</v>
+      </c>
+      <c r="O169" t="n">
+        <v>459.8142857142857</v>
+      </c>
+      <c r="P169" t="n">
+        <v>436.7246666666668</v>
+      </c>
+      <c r="Q169" t="n">
+        <v>413.8956666666664</v>
+      </c>
+      <c r="R169" t="n">
+        <v>461.24</v>
+      </c>
+      <c r="S169" t="n">
+        <v>462.2798475393517</v>
+      </c>
+      <c r="T169" t="n">
+        <v>447.4584391009021</v>
+      </c>
+      <c r="U169" t="n">
+        <v>425.6234068355566</v>
+      </c>
+      <c r="V169" t="n">
+        <v>21.83503226534543</v>
+      </c>
+      <c r="W169" t="n">
+        <v>18.6413503188526</v>
+      </c>
+      <c r="X169" t="n">
+        <v>3.193681946492834</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -15768,12 +15768,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>461.24000000</t>
+          <t>460.36000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>128673.84301000</t>
+          <t>134457.64858000</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15781,20 +15781,20 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>59155584.09075830</t>
+          <t>61818632.91413330</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>66228</v>
+        <v>69386</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>67273.91394000</t>
+          <t>70194.88217000</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>30926653.60773300</t>
+          <t>32271461.32013870</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -15803,40 +15803,40 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>461.2399999999997</v>
+        <v>460.3599999999996</v>
       </c>
       <c r="N169" t="n">
-        <v>461.0649999999997</v>
+        <v>460.6249999999998</v>
       </c>
       <c r="O169" t="n">
-        <v>459.8142857142857</v>
+        <v>459.6885714285714</v>
       </c>
       <c r="P169" t="n">
-        <v>436.7246666666668</v>
+        <v>436.6660000000001</v>
       </c>
       <c r="Q169" t="n">
-        <v>413.8956666666664</v>
+        <v>413.8663333333331</v>
       </c>
       <c r="R169" t="n">
-        <v>461.24</v>
+        <v>460.36</v>
       </c>
       <c r="S169" t="n">
-        <v>462.2798475393517</v>
+        <v>461.693180872685</v>
       </c>
       <c r="T169" t="n">
-        <v>447.4584391009021</v>
+        <v>447.3230544855174</v>
       </c>
       <c r="U169" t="n">
-        <v>425.6234068355566</v>
+        <v>425.5582214922616</v>
       </c>
       <c r="V169" t="n">
-        <v>21.83503226534543</v>
+        <v>21.76483299325588</v>
       </c>
       <c r="W169" t="n">
-        <v>18.6413503188526</v>
+        <v>18.62731046443469</v>
       </c>
       <c r="X169" t="n">
-        <v>3.193681946492834</v>
+        <v>3.137522528821194</v>
       </c>
     </row>
   </sheetData>

--- a/Data/binance_ETHUSDT_data.xlsx
+++ b/Data/binance_ETHUSDT_data.xlsx
@@ -15768,12 +15768,12 @@
       </c>
       <c r="E169" t="inlineStr">
         <is>
-          <t>460.36000000</t>
+          <t>461.46000000</t>
         </is>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>134457.64858000</t>
+          <t>141103.73194000</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15781,20 +15781,20 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>61818632.91413330</t>
+          <t>64881689.45175570</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>69386</v>
+        <v>72821</v>
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>70194.88217000</t>
+          <t>73340.76590000</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>32271461.32013870</t>
+          <t>33721369.83236720</t>
         </is>
       </c>
       <c r="L169" t="inlineStr">
@@ -15803,40 +15803,40 @@
         </is>
       </c>
       <c r="M169" t="n">
-        <v>460.3599999999996</v>
+        <v>461.4599999999996</v>
       </c>
       <c r="N169" t="n">
-        <v>460.6249999999998</v>
+        <v>461.1749999999997</v>
       </c>
       <c r="O169" t="n">
-        <v>459.6885714285714</v>
+        <v>459.8457142857143</v>
       </c>
       <c r="P169" t="n">
-        <v>436.6660000000001</v>
+        <v>436.7393333333335</v>
       </c>
       <c r="Q169" t="n">
-        <v>413.8663333333331</v>
+        <v>413.9029999999997</v>
       </c>
       <c r="R169" t="n">
-        <v>460.36</v>
+        <v>461.46</v>
       </c>
       <c r="S169" t="n">
-        <v>461.693180872685</v>
+        <v>462.4265142060183</v>
       </c>
       <c r="T169" t="n">
-        <v>447.3230544855174</v>
+        <v>447.4922852547483</v>
       </c>
       <c r="U169" t="n">
-        <v>425.5582214922616</v>
+        <v>425.6397031713804</v>
       </c>
       <c r="V169" t="n">
-        <v>21.76483299325588</v>
+        <v>21.85258208336791</v>
       </c>
       <c r="W169" t="n">
-        <v>18.62731046443469</v>
+        <v>18.64486028245709</v>
       </c>
       <c r="X169" t="n">
-        <v>3.137522528821194</v>
+        <v>3.207721800910814</v>
       </c>
     </row>
   </sheetData>
